--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AL\Documents\2019 Mega Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3A85DD-F1A5-4391-9A02-077E3AD620AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F375967-CBAB-4574-8356-F441B97A24FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{E6171133-BC82-453F-AA1B-A983A9E75A15}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{E6171133-BC82-453F-AA1B-A983A9E75A15}"/>
   </bookViews>
   <sheets>
     <sheet name="FPS Timecode" sheetId="22" r:id="rId1"/>
@@ -766,12 +766,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Young Yuzu: R7 2700X @ 3.7 GHz</t>
-  </si>
-  <si>
-    <t>Baby Yuzu: R7 2700X @ 3 GHz</t>
-  </si>
-  <si>
     <t>Crash 1 (Lag Times)</t>
   </si>
   <si>
@@ -788,6 +782,12 @@
   </si>
   <si>
     <t>Arduano: R9 3900X @ 4.6 GHz</t>
+  </si>
+  <si>
+    <t>Kanna: R7 2700X @ 3.7 GHz</t>
+  </si>
+  <si>
+    <t>Senko: R7 2700X @ 3 GHz</t>
   </si>
 </sst>
 </file>
@@ -2045,7 +2045,7 @@
   </sheetPr>
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
@@ -2064,7 +2064,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -2097,7 +2097,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="18">
-        <f>C2+$D$1</f>
+        <f t="shared" ref="D2:D38" si="0">C2+$D$1</f>
         <v>2.1454861111111115E-3</v>
       </c>
       <c r="E2" s="1"/>
@@ -2111,15 +2111,15 @@
         <v>48</v>
       </c>
       <c r="I2" s="18">
-        <f>H2+$I$1</f>
+        <f t="shared" ref="I2:I38" si="1">H2+$I$1</f>
         <v>3.738078703703704E-3</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L2" s="18">
-        <f>SUMIF($A$3:$A$65,K2,$B$3:$B$65)+SUMIF($F$3:$F$65,K2,$G$3:$G$65)</f>
+        <f t="shared" ref="L2:L37" si="2">SUMIF($A$3:$A$65,K2,$B$3:$B$65)+SUMIF($F$3:$F$65,K2,$G$3:$G$65)</f>
         <v>2.0729166666666639E-4</v>
       </c>
       <c r="N2" s="15" t="s">
@@ -2128,40 +2128,40 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B3" s="17">
-        <f>C3-$C$2</f>
+        <f t="shared" ref="B3:B38" si="3">C3-$C$2</f>
         <v>6.7824074074073881E-5</v>
       </c>
       <c r="C3" s="17">
         <v>2.2069444444444445E-3</v>
       </c>
       <c r="D3" s="18">
-        <f>C3+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2133101851851853E-3</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G3" s="18">
-        <f>H3-$H$2</f>
+        <f t="shared" ref="G3:G38" si="4">H3-$H$2</f>
         <v>1.3784722222222236E-4</v>
       </c>
       <c r="H3" s="17">
         <v>3.8695601851851855E-3</v>
       </c>
       <c r="I3" s="18">
-        <f>H3+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.8759259259259263E-3</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L3" s="18">
-        <f>SUMIF($A$3:$A$65,K3,$B$3:$B$65)+SUMIF($F$3:$F$65,K3,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.180555555555551E-4</v>
       </c>
       <c r="N3" s="15" t="s">
@@ -2170,17 +2170,17 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B4" s="17">
-        <f>C4-$C$2</f>
+        <f t="shared" si="3"/>
         <v>6.9444444444444024E-5</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="18">
-        <f>C4+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2149305555555555E-3</v>
       </c>
       <c r="E4" s="1"/>
@@ -2188,14 +2188,14 @@
         <v>5</v>
       </c>
       <c r="G4" s="18">
-        <f>H4-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.4814814814814812E-4</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>49</v>
       </c>
       <c r="I4" s="18">
-        <f>H4+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.8862268518518521E-3</v>
       </c>
       <c r="J4" s="1"/>
@@ -2203,7 +2203,7 @@
         <v>5</v>
       </c>
       <c r="L4" s="18">
-        <f>SUMIF($A$3:$A$65,K4,$B$3:$B$65)+SUMIF($F$3:$F$65,K4,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.2337962962962936E-4</v>
       </c>
       <c r="N4" s="15" t="s">
@@ -2215,14 +2215,14 @@
         <v>18</v>
       </c>
       <c r="B5" s="17">
-        <f>C5-$C$2</f>
+        <f t="shared" si="3"/>
         <v>7.2106481481481154E-5</v>
       </c>
       <c r="C5" s="17">
         <v>2.2112268518518518E-3</v>
       </c>
       <c r="D5" s="18">
-        <f>C5+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2175925925925926E-3</v>
       </c>
       <c r="E5" s="1"/>
@@ -2230,14 +2230,14 @@
         <v>89</v>
       </c>
       <c r="G5" s="18">
-        <f>H5-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.4942129629629637E-4</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>50</v>
       </c>
       <c r="I5" s="18">
-        <f>H5+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.8875000000000003E-3</v>
       </c>
       <c r="J5" s="1"/>
@@ -2245,7 +2245,7 @@
         <v>89</v>
       </c>
       <c r="L5" s="18">
-        <f>SUMIF($A$3:$A$65,K5,$B$3:$B$65)+SUMIF($F$3:$F$65,K5,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.252314814814812E-4</v>
       </c>
       <c r="N5" s="15"/>
@@ -2255,29 +2255,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="17">
-        <f>C6-$C$2</f>
+        <f t="shared" si="3"/>
         <v>7.5231481481481243E-5</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="18">
-        <f>C6+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2207175925925927E-3</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G6" s="18">
-        <f>H6-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.5023148148148122E-4</v>
       </c>
       <c r="H6" s="18">
         <v>3.8819444444444444E-3</v>
       </c>
       <c r="I6" s="18">
-        <f>H6+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.8883101851851852E-3</v>
       </c>
       <c r="J6" s="1"/>
@@ -2285,7 +2285,7 @@
         <v>18</v>
       </c>
       <c r="L6" s="18">
-        <f>SUMIF($A$3:$A$65,K6,$B$3:$B$65)+SUMIF($F$3:$F$65,K6,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.3368055555555512E-4</v>
       </c>
       <c r="N6" s="15"/>
@@ -2295,14 +2295,14 @@
         <v>89</v>
       </c>
       <c r="B7" s="17">
-        <f>C7-$C$2</f>
+        <f t="shared" si="3"/>
         <v>7.5810185185184835E-5</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="18">
-        <f>C7+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2212962962962963E-3</v>
       </c>
       <c r="E7" s="1"/>
@@ -2310,14 +2310,14 @@
         <v>18</v>
       </c>
       <c r="G7" s="18">
-        <f>H7-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.6157407407407396E-4</v>
       </c>
       <c r="H7" s="17">
         <v>3.8932870370370371E-3</v>
       </c>
       <c r="I7" s="18">
-        <f>H7+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.8996527777777779E-3</v>
       </c>
       <c r="J7" s="1"/>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="18">
-        <f>SUMIF($A$3:$A$65,K7,$B$3:$B$65)+SUMIF($F$3:$F$65,K7,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.4490740740740636E-4</v>
       </c>
       <c r="N7" s="15"/>
@@ -2335,14 +2335,14 @@
         <v>0</v>
       </c>
       <c r="B8" s="17">
-        <f>C8-$C$2</f>
+        <f t="shared" si="3"/>
         <v>7.708333333333265E-5</v>
       </c>
       <c r="C8" s="17">
         <v>2.2162037037037033E-3</v>
       </c>
       <c r="D8" s="18">
-        <f>C8+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2225694444444441E-3</v>
       </c>
       <c r="E8" s="1"/>
@@ -2350,14 +2350,14 @@
         <v>7</v>
       </c>
       <c r="G8" s="18">
-        <f>H8-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.6562499999999997E-4</v>
       </c>
       <c r="H8" s="17">
         <v>3.8973379629629631E-3</v>
       </c>
       <c r="I8" s="18">
-        <f>H8+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.9037037037037039E-3</v>
       </c>
       <c r="J8" s="1"/>
@@ -2365,7 +2365,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="18">
-        <f>SUMIF($A$3:$A$65,K8,$B$3:$B$65)+SUMIF($F$3:$F$65,K8,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.4907407407407343E-4</v>
       </c>
       <c r="N8" s="15"/>
@@ -2375,14 +2375,14 @@
         <v>24</v>
       </c>
       <c r="B9" s="17">
-        <f>C9-$C$2</f>
+        <f t="shared" si="3"/>
         <v>7.905092592592599E-5</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="18">
-        <f>C9+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2245370370370375E-3</v>
       </c>
       <c r="E9" s="1"/>
@@ -2390,14 +2390,14 @@
         <v>0</v>
       </c>
       <c r="G9" s="18">
-        <f>H9-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.6782407407407371E-4</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>51</v>
       </c>
       <c r="I9" s="18">
-        <f>H9+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.9059027777777777E-3</v>
       </c>
       <c r="J9" s="1"/>
@@ -2405,7 +2405,7 @@
         <v>24</v>
       </c>
       <c r="L9" s="18">
-        <f>SUMIF($A$3:$A$65,K9,$B$3:$B$65)+SUMIF($F$3:$F$65,K9,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.5902777777777773E-4</v>
       </c>
       <c r="N9" s="15"/>
@@ -2415,14 +2415,14 @@
         <v>68</v>
       </c>
       <c r="B10" s="17">
-        <f>C10-$C$2</f>
+        <f t="shared" si="3"/>
         <v>8.0555555555555502E-5</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="18">
-        <f>C10+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.226041666666667E-3</v>
       </c>
       <c r="E10" s="1"/>
@@ -2430,14 +2430,14 @@
         <v>8</v>
       </c>
       <c r="G10" s="18">
-        <f>H10-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.7025462962962914E-4</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>52</v>
       </c>
       <c r="I10" s="18">
-        <f>H10+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.9083333333333331E-3</v>
       </c>
       <c r="J10" s="1"/>
@@ -2445,7 +2445,7 @@
         <v>8</v>
       </c>
       <c r="L10" s="18">
-        <f>SUMIF($A$3:$A$65,K10,$B$3:$B$65)+SUMIF($F$3:$F$65,K10,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.6377314814814709E-4</v>
       </c>
       <c r="N10" s="15"/>
@@ -2455,14 +2455,14 @@
         <v>17</v>
       </c>
       <c r="B11" s="17">
-        <f>C11-$C$2</f>
+        <f t="shared" si="3"/>
         <v>8.1712962962962685E-5</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="18">
-        <f>C11+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2271990740740742E-3</v>
       </c>
       <c r="E11" s="1"/>
@@ -2470,14 +2470,14 @@
         <v>24</v>
       </c>
       <c r="G11" s="18">
-        <f>H11-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.7997685185185174E-4</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>53</v>
       </c>
       <c r="I11" s="18">
-        <f>H11+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.9180555555555557E-3</v>
       </c>
       <c r="J11" s="1"/>
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="18">
-        <f>SUMIF($A$3:$A$65,K11,$B$3:$B$65)+SUMIF($F$3:$F$65,K11,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.6817129629629587E-4</v>
       </c>
       <c r="N11" s="15"/>
@@ -2495,14 +2495,14 @@
         <v>7</v>
       </c>
       <c r="B12" s="17">
-        <f>C12-$C$2</f>
+        <f t="shared" si="3"/>
         <v>8.3449074074073461E-5</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="18">
-        <f>C12+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2289351851851849E-3</v>
       </c>
       <c r="E12" s="1"/>
@@ -2510,14 +2510,14 @@
         <v>3</v>
       </c>
       <c r="G12" s="18">
-        <f>H12-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.8009259259259237E-4</v>
       </c>
       <c r="H12" s="17">
         <v>3.9118055555555555E-3</v>
       </c>
       <c r="I12" s="18">
-        <f>H12+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.9181712962962963E-3</v>
       </c>
       <c r="J12" s="1"/>
@@ -2525,7 +2525,7 @@
         <v>3</v>
       </c>
       <c r="L12" s="18">
-        <f>SUMIF($A$3:$A$65,K12,$B$3:$B$65)+SUMIF($F$3:$F$65,K12,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.6979166666666601E-4</v>
       </c>
       <c r="N12" s="15"/>
@@ -2535,14 +2535,14 @@
         <v>90</v>
       </c>
       <c r="B13" s="17">
-        <f>C13-$C$2</f>
+        <f t="shared" si="3"/>
         <v>8.5763888888888695E-5</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="18">
-        <f>C13+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2312500000000002E-3</v>
       </c>
       <c r="E13" s="1"/>
@@ -2550,14 +2550,14 @@
         <v>17</v>
       </c>
       <c r="G13" s="18">
-        <f>H13-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.8645833333333318E-4</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>54</v>
       </c>
       <c r="I13" s="18">
-        <f>H13+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.9245370370370371E-3</v>
       </c>
       <c r="J13" s="1"/>
@@ -2565,7 +2565,7 @@
         <v>90</v>
       </c>
       <c r="L13" s="18">
-        <f>SUMIF($A$3:$A$65,K13,$B$3:$B$65)+SUMIF($F$3:$F$65,K13,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.7627314814814745E-4</v>
       </c>
       <c r="N13" s="15"/>
@@ -2575,14 +2575,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="17">
-        <f>C14-$C$2</f>
+        <f t="shared" si="3"/>
         <v>8.6574074074073984E-5</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="18">
-        <f>C14+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2320601851851854E-3</v>
       </c>
       <c r="E14" s="1"/>
@@ -2590,14 +2590,14 @@
         <v>90</v>
       </c>
       <c r="G14" s="18">
-        <f>H14-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.9050925925925876E-4</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>55</v>
       </c>
       <c r="I14" s="18">
-        <f>H14+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.9285879629629627E-3</v>
       </c>
       <c r="J14" s="1"/>
@@ -2605,7 +2605,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="18">
-        <f>SUMIF($A$3:$A$65,K14,$B$3:$B$65)+SUMIF($F$3:$F$65,K14,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.8564814814814729E-4</v>
       </c>
       <c r="N14" s="15"/>
@@ -2615,14 +2615,14 @@
         <v>21</v>
       </c>
       <c r="B15" s="17">
-        <f>C15-$C$2</f>
+        <f t="shared" si="3"/>
         <v>8.7731481481481167E-5</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="18">
-        <f>C15+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2332175925925926E-3</v>
       </c>
       <c r="E15" s="1"/>
@@ -2630,14 +2630,14 @@
         <v>2</v>
       </c>
       <c r="G15" s="18">
-        <f>H15-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.9629629629629641E-4</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>56</v>
       </c>
       <c r="I15" s="18">
-        <f>H15+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.9343750000000004E-3</v>
       </c>
       <c r="J15" s="1"/>
@@ -2645,7 +2645,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="18">
-        <f>SUMIF($A$3:$A$65,K15,$B$3:$B$65)+SUMIF($F$3:$F$65,K15,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.873842592592585E-4</v>
       </c>
       <c r="N15" s="15"/>
@@ -2655,14 +2655,14 @@
         <v>20</v>
       </c>
       <c r="B16" s="17">
-        <f>C16-$C$2</f>
+        <f t="shared" si="3"/>
         <v>8.7962962962962431E-5</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="18">
-        <f>C16+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2334490740740739E-3</v>
       </c>
       <c r="E16" s="1"/>
@@ -2670,14 +2670,14 @@
         <v>20</v>
       </c>
       <c r="G16" s="18">
-        <f>H16-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.9768518518518486E-4</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>57</v>
       </c>
       <c r="I16" s="18">
-        <f>H16+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.9357638888888888E-3</v>
       </c>
       <c r="J16" s="1"/>
@@ -2685,7 +2685,7 @@
         <v>68</v>
       </c>
       <c r="L16" s="18">
-        <f>SUMIF($A$3:$A$65,K16,$B$3:$B$65)+SUMIF($F$3:$F$65,K16,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.9467592592592566E-4</v>
       </c>
       <c r="N16" s="15"/>
@@ -2695,14 +2695,14 @@
         <v>3</v>
       </c>
       <c r="B17" s="17">
-        <f>C17-$C$2</f>
+        <f t="shared" si="3"/>
         <v>8.969907407407364E-5</v>
       </c>
       <c r="C17" s="17">
         <v>2.2288194444444443E-3</v>
       </c>
       <c r="D17" s="18">
-        <f>C17+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2351851851851851E-3</v>
       </c>
       <c r="E17" s="1"/>
@@ -2710,14 +2710,14 @@
         <v>12</v>
       </c>
       <c r="G17" s="18">
-        <f>H17-$H$2</f>
+        <f t="shared" si="4"/>
         <v>2.0081018518518451E-4</v>
       </c>
       <c r="H17" s="17" t="s">
         <v>58</v>
       </c>
       <c r="I17" s="18">
-        <f>H17+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.9388888888888885E-3</v>
       </c>
       <c r="J17" s="1"/>
@@ -2725,7 +2725,7 @@
         <v>21</v>
       </c>
       <c r="L17" s="18">
-        <f>SUMIF($A$3:$A$65,K17,$B$3:$B$65)+SUMIF($F$3:$F$65,K17,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.9699074074073959E-4</v>
       </c>
       <c r="N17" s="15"/>
@@ -2735,14 +2735,14 @@
         <v>8</v>
       </c>
       <c r="B18" s="17">
-        <f>C18-$C$2</f>
+        <f t="shared" si="3"/>
         <v>9.3518518518517953E-5</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="18">
-        <f>C18+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2390046296296294E-3</v>
       </c>
       <c r="E18" s="1"/>
@@ -2750,14 +2750,14 @@
         <v>19</v>
       </c>
       <c r="G18" s="18">
-        <f>H18-$H$2</f>
+        <f t="shared" si="4"/>
         <v>2.0196759259259256E-4</v>
       </c>
       <c r="H18" s="17" t="s">
         <v>59</v>
       </c>
       <c r="I18" s="18">
-        <f>H18+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.9400462962962965E-3</v>
       </c>
       <c r="J18" s="1"/>
@@ -2765,7 +2765,7 @@
         <v>2</v>
       </c>
       <c r="L18" s="18">
-        <f>SUMIF($A$3:$A$65,K18,$B$3:$B$65)+SUMIF($F$3:$F$65,K18,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.9733796296296322E-4</v>
       </c>
       <c r="N18" s="15"/>
@@ -2775,14 +2775,14 @@
         <v>19</v>
       </c>
       <c r="B19" s="17">
-        <f>C19-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.0046296296296279E-4</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="18">
-        <f>C19+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2459490740740743E-3</v>
       </c>
       <c r="E19" s="1"/>
@@ -2790,14 +2790,14 @@
         <v>21</v>
       </c>
       <c r="G19" s="18">
-        <f>H19-$H$2</f>
+        <f t="shared" si="4"/>
         <v>2.0925925925925843E-4</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>60</v>
       </c>
       <c r="I19" s="18">
-        <f>H19+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.9473379629629624E-3</v>
       </c>
       <c r="J19" s="1"/>
@@ -2805,7 +2805,7 @@
         <v>19</v>
       </c>
       <c r="L19" s="18">
-        <f>SUMIF($A$3:$A$65,K19,$B$3:$B$65)+SUMIF($F$3:$F$65,K19,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>3.0243055555555535E-4</v>
       </c>
       <c r="N19" s="15"/>
@@ -2815,14 +2815,14 @@
         <v>2</v>
       </c>
       <c r="B20" s="17">
-        <f>C20-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.0104166666666681E-4</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="18">
-        <f>C20+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2465277777777783E-3</v>
       </c>
       <c r="E20" s="1"/>
@@ -2830,14 +2830,14 @@
         <v>11</v>
       </c>
       <c r="G20" s="18">
-        <f>H20-$H$2</f>
+        <f t="shared" si="4"/>
         <v>2.0960648148148119E-4</v>
       </c>
       <c r="H20" s="17" t="s">
         <v>61</v>
       </c>
       <c r="I20" s="18">
-        <f>H20+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.9476851851851852E-3</v>
       </c>
       <c r="J20" s="1"/>
@@ -2845,7 +2845,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="18">
-        <f>SUMIF($A$3:$A$65,K20,$B$3:$B$65)+SUMIF($F$3:$F$65,K20,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>3.2314814814814749E-4</v>
       </c>
       <c r="N20" s="15"/>
@@ -2855,14 +2855,14 @@
         <v>6</v>
       </c>
       <c r="B21" s="17">
-        <f>C21-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.0277777777777759E-4</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="18">
-        <f>C21+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2482638888888891E-3</v>
       </c>
       <c r="E21" s="1"/>
@@ -2870,14 +2870,14 @@
         <v>10</v>
       </c>
       <c r="G21" s="18">
-        <f>H21-$H$2</f>
+        <f t="shared" si="4"/>
         <v>2.1354166666666613E-4</v>
       </c>
       <c r="H21" s="17">
         <v>3.9452546296296293E-3</v>
       </c>
       <c r="I21" s="18">
-        <f>H21+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.9516203703703701E-3</v>
       </c>
       <c r="J21" s="1"/>
@@ -2885,7 +2885,7 @@
         <v>10</v>
       </c>
       <c r="L21" s="18">
-        <f>SUMIF($A$3:$A$65,K21,$B$3:$B$65)+SUMIF($F$3:$F$65,K21,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>3.2407407407407341E-4</v>
       </c>
       <c r="N21" s="15"/>
@@ -2895,14 +2895,14 @@
         <v>22</v>
       </c>
       <c r="B22" s="17">
-        <f>C22-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.0763888888888845E-4</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="18">
-        <f>C22+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2531249999999999E-3</v>
       </c>
       <c r="E22" s="1"/>
@@ -2910,14 +2910,14 @@
         <v>68</v>
       </c>
       <c r="G22" s="18">
-        <f>H22-$H$2</f>
+        <f t="shared" si="4"/>
         <v>2.1412037037037016E-4</v>
       </c>
       <c r="H22" s="17" t="s">
         <v>62</v>
       </c>
       <c r="I22" s="18">
-        <f>H22+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.9521990740740741E-3</v>
       </c>
       <c r="J22" s="1"/>
@@ -2925,7 +2925,7 @@
         <v>6</v>
       </c>
       <c r="L22" s="18">
-        <f>SUMIF($A$3:$A$65,K22,$B$3:$B$65)+SUMIF($F$3:$F$65,K22,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>3.2673611111111098E-4</v>
       </c>
       <c r="N22" s="15"/>
@@ -2935,14 +2935,14 @@
         <v>15</v>
       </c>
       <c r="B23" s="17">
-        <f>C23-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.0937499999999966E-4</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="18">
-        <f>C23+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2548611111111111E-3</v>
       </c>
       <c r="E23" s="1"/>
@@ -2950,14 +2950,14 @@
         <v>22</v>
       </c>
       <c r="G23" s="18">
-        <f>H23-$H$2</f>
+        <f t="shared" si="4"/>
         <v>2.2222222222222218E-4</v>
       </c>
       <c r="H23" s="17" t="s">
         <v>63</v>
       </c>
       <c r="I23" s="18">
-        <f>H23+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.9603009259259261E-3</v>
       </c>
       <c r="J23" s="1"/>
@@ -2965,7 +2965,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="18">
-        <f>SUMIF($A$3:$A$65,K23,$B$3:$B$65)+SUMIF($F$3:$F$65,K23,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>3.2986111111111063E-4</v>
       </c>
       <c r="N23" s="15"/>
@@ -2975,14 +2975,14 @@
         <v>10</v>
       </c>
       <c r="B24" s="17">
-        <f>C24-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.1053240740740728E-4</v>
       </c>
       <c r="C24" s="17">
         <v>2.2496527777777779E-3</v>
       </c>
       <c r="D24" s="18">
-        <f>C24+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2560185185185187E-3</v>
       </c>
       <c r="E24" s="1"/>
@@ -2990,14 +2990,14 @@
         <v>9</v>
       </c>
       <c r="G24" s="18">
-        <f>H24-$H$2</f>
+        <f t="shared" si="4"/>
         <v>2.2233796296296281E-4</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>64</v>
       </c>
       <c r="I24" s="18">
-        <f>H24+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.9604166666666668E-3</v>
       </c>
       <c r="J24" s="1"/>
@@ -3005,7 +3005,7 @@
         <v>9</v>
       </c>
       <c r="L24" s="18">
-        <f>SUMIF($A$3:$A$65,K24,$B$3:$B$65)+SUMIF($F$3:$F$65,K24,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>3.4016203703703682E-4</v>
       </c>
       <c r="N24" s="15"/>
@@ -3015,14 +3015,14 @@
         <v>25</v>
       </c>
       <c r="B25" s="17">
-        <f>C25-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.1087962962962961E-4</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="18">
-        <f>C25+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2563657407407411E-3</v>
       </c>
       <c r="E25" s="1"/>
@@ -3030,14 +3030,14 @@
         <v>6</v>
       </c>
       <c r="G25" s="18">
-        <f>H25-$H$2</f>
+        <f t="shared" si="4"/>
         <v>2.2395833333333339E-4</v>
       </c>
       <c r="H25" s="17" t="s">
         <v>65</v>
       </c>
       <c r="I25" s="18">
-        <f>H25+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.9620370370370374E-3</v>
       </c>
       <c r="J25" s="1"/>
@@ -3045,7 +3045,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="18">
-        <f>SUMIF($A$3:$A$65,K25,$B$3:$B$65)+SUMIF($F$3:$F$65,K25,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>3.5081018518518534E-4</v>
       </c>
       <c r="N25" s="15"/>
@@ -3055,14 +3055,14 @@
         <v>16</v>
       </c>
       <c r="B26" s="17">
-        <f>C26-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.114583333333332E-4</v>
       </c>
       <c r="C26" s="17">
         <v>2.2505787037037039E-3</v>
       </c>
       <c r="D26" s="18">
-        <f>C26+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2569444444444447E-3</v>
       </c>
       <c r="E26" s="1"/>
@@ -3070,14 +3070,14 @@
         <v>16</v>
       </c>
       <c r="G26" s="18">
-        <f>H26-$H$2</f>
+        <f t="shared" si="4"/>
         <v>2.3935185185185214E-4</v>
       </c>
       <c r="H26" s="17">
         <v>3.9710648148148153E-3</v>
       </c>
       <c r="I26" s="18">
-        <f>H26+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.9774305555555561E-3</v>
       </c>
       <c r="J26" s="1"/>
@@ -3085,7 +3085,7 @@
         <v>15</v>
       </c>
       <c r="L26" s="18">
-        <f>SUMIF($A$3:$A$65,K26,$B$3:$B$65)+SUMIF($F$3:$F$65,K26,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>3.7071759259259263E-4</v>
       </c>
       <c r="N26" s="15"/>
@@ -3095,14 +3095,14 @@
         <v>11</v>
       </c>
       <c r="B27" s="17">
-        <f>C27-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.135416666666663E-4</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D27" s="18">
-        <f>C27+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2590277777777778E-3</v>
       </c>
       <c r="E27" s="1"/>
@@ -3110,14 +3110,14 @@
         <v>15</v>
       </c>
       <c r="G27" s="18">
-        <f>H27-$H$2</f>
+        <f t="shared" si="4"/>
         <v>2.6134259259259296E-4</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>66</v>
       </c>
       <c r="I27" s="18">
-        <f>H27+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.9994212962962969E-3</v>
       </c>
       <c r="J27" s="1"/>
@@ -3125,7 +3125,7 @@
         <v>25</v>
       </c>
       <c r="L27" s="18">
-        <f>SUMIF($A$3:$A$65,K27,$B$3:$B$65)+SUMIF($F$3:$F$65,K27,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>3.7418981481481418E-4</v>
       </c>
       <c r="N27" s="15"/>
@@ -3135,14 +3135,14 @@
         <v>9</v>
       </c>
       <c r="B28" s="17">
-        <f>C28-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.1782407407407401E-4</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D28" s="18">
-        <f>C28+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2633101851851855E-3</v>
       </c>
       <c r="E28" s="1"/>
@@ -3150,14 +3150,14 @@
         <v>25</v>
       </c>
       <c r="G28" s="18">
-        <f>H28-$H$2</f>
+        <f t="shared" si="4"/>
         <v>2.6331018518518457E-4</v>
       </c>
       <c r="H28" s="17" t="s">
         <v>67</v>
       </c>
       <c r="I28" s="18">
-        <f>H28+$I$1</f>
+        <f t="shared" si="1"/>
         <v>4.0013888888888885E-3</v>
       </c>
       <c r="J28" s="1"/>
@@ -3165,7 +3165,7 @@
         <v>162</v>
       </c>
       <c r="L28" s="18">
-        <f>SUMIF($A$3:$A$65,K28,$B$3:$B$65)+SUMIF($F$3:$F$65,K28,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>4.1099537037037016E-4</v>
       </c>
       <c r="N28" s="15"/>
@@ -3175,14 +3175,14 @@
         <v>1</v>
       </c>
       <c r="B29" s="17">
-        <f>C29-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.3090277777777753E-4</v>
       </c>
       <c r="C29" s="18">
         <v>2.2700231481481482E-3</v>
       </c>
       <c r="D29" s="18">
-        <f>C29+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.276388888888889E-3</v>
       </c>
       <c r="E29" s="1"/>
@@ -3190,14 +3190,14 @@
         <v>202</v>
       </c>
       <c r="G29" s="18">
-        <f>H29-$H$2</f>
+        <f t="shared" si="4"/>
         <v>2.7083333333333343E-4</v>
       </c>
       <c r="H29" s="18">
         <v>4.0025462962962966E-3</v>
       </c>
       <c r="I29" s="18">
-        <f>H29+$I$1</f>
+        <f t="shared" si="1"/>
         <v>4.0089120370370374E-3</v>
       </c>
       <c r="J29" s="1"/>
@@ -3205,7 +3205,7 @@
         <v>202</v>
       </c>
       <c r="L29" s="18">
-        <f>SUMIF($A$3:$A$65,K29,$B$3:$B$65)+SUMIF($F$3:$F$65,K29,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>4.1145833333333312E-4</v>
       </c>
       <c r="N29" s="15"/>
@@ -3215,14 +3215,14 @@
         <v>162</v>
       </c>
       <c r="B30" s="17">
-        <f>C30-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.3715277777777771E-4</v>
       </c>
       <c r="C30" s="18">
         <v>2.2762731481481484E-3</v>
       </c>
       <c r="D30" s="18">
-        <f>C30+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2826388888888892E-3</v>
       </c>
       <c r="E30" s="1"/>
@@ -3230,14 +3230,14 @@
         <v>162</v>
       </c>
       <c r="G30" s="18">
-        <f>H30-$H$2</f>
+        <f t="shared" si="4"/>
         <v>2.7384259259259245E-4</v>
       </c>
       <c r="H30" s="18">
         <v>4.0055555555555556E-3</v>
       </c>
       <c r="I30" s="18">
-        <f>H30+$I$1</f>
+        <f t="shared" si="1"/>
         <v>4.0119212962962964E-3</v>
       </c>
       <c r="J30" s="1"/>
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="18">
-        <f>SUMIF($A$3:$A$65,K30,$B$3:$B$65)+SUMIF($F$3:$F$65,K30,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>4.1805555555555476E-4</v>
       </c>
       <c r="N30" s="15"/>
@@ -3255,14 +3255,14 @@
         <v>202</v>
       </c>
       <c r="B31" s="17">
-        <f>C31-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.4062499999999969E-4</v>
       </c>
       <c r="C31" s="18">
         <v>2.2797453703703703E-3</v>
       </c>
       <c r="D31" s="18">
-        <f>C31+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2861111111111112E-3</v>
       </c>
       <c r="E31" s="1"/>
@@ -3270,14 +3270,14 @@
         <v>205</v>
       </c>
       <c r="G31" s="18">
-        <f>H31-$H$2</f>
+        <f t="shared" si="4"/>
         <v>2.8136574074074045E-4</v>
       </c>
       <c r="H31" s="18">
         <v>4.0130787037037036E-3</v>
       </c>
       <c r="I31" s="18">
-        <f>H31+$I$1</f>
+        <f t="shared" si="1"/>
         <v>4.0194444444444444E-3</v>
       </c>
       <c r="J31" s="1"/>
@@ -3285,7 +3285,7 @@
         <v>205</v>
       </c>
       <c r="L31" s="18">
-        <f>SUMIF($A$3:$A$65,K31,$B$3:$B$65)+SUMIF($F$3:$F$65,K31,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>4.2789351851851799E-4</v>
       </c>
       <c r="N31" s="15"/>
@@ -3295,14 +3295,14 @@
         <v>205</v>
       </c>
       <c r="B32" s="17">
-        <f>C32-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.4652777777777754E-4</v>
       </c>
       <c r="C32" s="18">
         <v>2.2856481481481482E-3</v>
       </c>
       <c r="D32" s="18">
-        <f>C32+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.292013888888889E-3</v>
       </c>
       <c r="E32" s="1"/>
@@ -3310,14 +3310,14 @@
         <v>1</v>
       </c>
       <c r="G32" s="18">
-        <f>H32-$H$2</f>
+        <f t="shared" si="4"/>
         <v>2.8715277777777723E-4</v>
       </c>
       <c r="H32" s="18">
         <v>4.0188657407407404E-3</v>
       </c>
       <c r="I32" s="18">
-        <f>H32+$I$1</f>
+        <f t="shared" si="1"/>
         <v>4.0252314814814812E-3</v>
       </c>
       <c r="J32" s="1"/>
@@ -3325,7 +3325,7 @@
         <v>226</v>
       </c>
       <c r="L32" s="18">
-        <f>SUMIF($A$3:$A$65,K32,$B$3:$B$65)+SUMIF($F$3:$F$65,K32,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>4.4398148148148096E-4</v>
       </c>
       <c r="N32" s="15"/>
@@ -3335,14 +3335,14 @@
         <v>226</v>
       </c>
       <c r="B33" s="17">
-        <f>C33-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.5601851851851844E-4</v>
       </c>
       <c r="C33" s="18">
         <v>2.2951388888888891E-3</v>
       </c>
       <c r="D33" s="18">
-        <f>C33+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.3015046296296299E-3</v>
       </c>
       <c r="E33" s="1"/>
@@ -3350,14 +3350,14 @@
         <v>226</v>
       </c>
       <c r="G33" s="18">
-        <f>H33-$H$2</f>
+        <f t="shared" si="4"/>
         <v>2.8796296296296252E-4</v>
       </c>
       <c r="H33" s="18">
         <v>4.0196759259259257E-3</v>
       </c>
       <c r="I33" s="18">
-        <f>H33+$I$1</f>
+        <f t="shared" si="1"/>
         <v>4.0260416666666665E-3</v>
       </c>
       <c r="J33" s="1"/>
@@ -3365,7 +3365,7 @@
         <v>219</v>
       </c>
       <c r="L33" s="18">
-        <f>SUMIF($A$3:$A$65,K33,$B$3:$B$65)+SUMIF($F$3:$F$65,K33,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>4.7268518518518493E-4</v>
       </c>
       <c r="N33" s="15"/>
@@ -3375,14 +3375,14 @@
         <v>219</v>
       </c>
       <c r="B34" s="17">
-        <f>C34-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.6296296296296284E-4</v>
       </c>
       <c r="C34" s="18">
         <v>2.3020833333333335E-3</v>
       </c>
       <c r="D34" s="18">
-        <f>C34+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.3084490740740743E-3</v>
       </c>
       <c r="E34" s="1"/>
@@ -3390,14 +3390,14 @@
         <v>219</v>
       </c>
       <c r="G34" s="18">
-        <f>H34-$H$2</f>
+        <f t="shared" si="4"/>
         <v>3.0972222222222208E-4</v>
       </c>
       <c r="H34" s="18">
         <v>4.0414351851851852E-3</v>
       </c>
       <c r="I34" s="18">
-        <f>H34+$I$1</f>
+        <f t="shared" si="1"/>
         <v>4.047800925925926E-3</v>
       </c>
       <c r="J34" s="1"/>
@@ -3405,7 +3405,7 @@
         <v>223</v>
       </c>
       <c r="L34" s="18">
-        <f>SUMIF($A$3:$A$65,K34,$B$3:$B$65)+SUMIF($F$3:$F$65,K34,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>5.5474537037036907E-4</v>
       </c>
       <c r="N34" s="15"/>
@@ -3415,14 +3415,14 @@
         <v>223</v>
       </c>
       <c r="B35" s="17">
-        <f>C35-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.9849537037036971E-4</v>
       </c>
       <c r="C35" s="18">
         <v>2.3376157407407404E-3</v>
       </c>
       <c r="D35" s="18">
-        <f>C35+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.3439814814814812E-3</v>
       </c>
       <c r="E35" s="1"/>
@@ -3430,14 +3430,14 @@
         <v>223</v>
       </c>
       <c r="G35" s="18">
-        <f>H35-$H$2</f>
+        <f t="shared" si="4"/>
         <v>3.5624999999999936E-4</v>
       </c>
       <c r="H35" s="18">
         <v>4.0879629629629625E-3</v>
       </c>
       <c r="I35" s="18">
-        <f>H35+$I$1</f>
+        <f t="shared" si="1"/>
         <v>4.0943287037037033E-3</v>
       </c>
       <c r="J35" s="1"/>
@@ -3445,7 +3445,7 @@
         <v>227</v>
       </c>
       <c r="L35" s="18">
-        <f>SUMIF($A$3:$A$65,K35,$B$3:$B$65)+SUMIF($F$3:$F$65,K35,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>6.4502314814814761E-4</v>
       </c>
       <c r="N35" s="15"/>
@@ -3455,14 +3455,14 @@
         <v>227</v>
       </c>
       <c r="B36" s="17">
-        <f>C36-$C$2</f>
+        <f t="shared" si="3"/>
         <v>2.1736111111111088E-4</v>
       </c>
       <c r="C36" s="18">
         <v>2.3564814814814815E-3</v>
       </c>
       <c r="D36" s="18">
-        <f>C36+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.3628472222222223E-3</v>
       </c>
       <c r="E36" s="1"/>
@@ -3470,14 +3470,14 @@
         <v>227</v>
       </c>
       <c r="G36" s="18">
-        <f>H36-$H$2</f>
+        <f t="shared" si="4"/>
         <v>4.2766203703703673E-4</v>
       </c>
       <c r="H36" s="18">
         <v>4.1593749999999999E-3</v>
       </c>
       <c r="I36" s="18">
-        <f>H36+$I$1</f>
+        <f t="shared" si="1"/>
         <v>4.1657407407407407E-3</v>
       </c>
       <c r="J36" s="1"/>
@@ -3485,7 +3485,7 @@
         <v>204</v>
       </c>
       <c r="L36" s="18">
-        <f>SUMIF($A$3:$A$65,K36,$B$3:$B$65)+SUMIF($F$3:$F$65,K36,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>8.9340277777777725E-4</v>
       </c>
       <c r="N36" s="15"/>
@@ -3495,14 +3495,14 @@
         <v>204</v>
       </c>
       <c r="B37" s="17">
-        <f>C37-$C$2</f>
+        <f t="shared" si="3"/>
         <v>3.444444444444441E-4</v>
       </c>
       <c r="C37" s="18">
         <v>2.4835648148148147E-3</v>
       </c>
       <c r="D37" s="18">
-        <f>C37+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.4899305555555556E-3</v>
       </c>
       <c r="E37" s="1"/>
@@ -3510,14 +3510,14 @@
         <v>204</v>
       </c>
       <c r="G37" s="18">
-        <f>H37-$H$2</f>
+        <f t="shared" si="4"/>
         <v>5.4895833333333316E-4</v>
       </c>
       <c r="H37" s="18">
         <v>4.2806712962962963E-3</v>
       </c>
       <c r="I37" s="18">
-        <f>H37+$I$1</f>
+        <f t="shared" si="1"/>
         <v>4.2870370370370371E-3</v>
       </c>
       <c r="J37" s="1"/>
@@ -3525,7 +3525,7 @@
         <v>237</v>
       </c>
       <c r="L37" s="18">
-        <f>SUMIF($A$3:$A$65,K37,$B$3:$B$65)+SUMIF($F$3:$F$65,K37,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.3494212962962956E-3</v>
       </c>
     </row>
@@ -3534,14 +3534,14 @@
         <v>237</v>
       </c>
       <c r="B38" s="17">
-        <f>C38-$C$2</f>
+        <f t="shared" si="3"/>
         <v>4.9953703703703662E-4</v>
       </c>
       <c r="C38" s="18">
         <v>2.6386574074074073E-3</v>
       </c>
       <c r="D38" s="18">
-        <f>C38+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.6450231481481481E-3</v>
       </c>
       <c r="E38" s="1"/>
@@ -3549,14 +3549,14 @@
         <v>237</v>
       </c>
       <c r="G38" s="18">
-        <f>H38-$H$2</f>
+        <f t="shared" si="4"/>
         <v>8.49884259259259E-4</v>
       </c>
       <c r="H38" s="18">
         <v>4.5815972222222221E-3</v>
       </c>
       <c r="I38" s="18">
-        <f>H38+$I$1</f>
+        <f t="shared" si="1"/>
         <v>4.587962962962963E-3</v>
       </c>
       <c r="J38" s="1"/>
@@ -4101,7 +4101,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -4134,7 +4134,7 @@
         <v>93</v>
       </c>
       <c r="D2" s="18">
-        <f>C2+$D$1</f>
+        <f t="shared" ref="D2:D38" si="0">C2+$D$1</f>
         <v>2.075462962962963E-3</v>
       </c>
       <c r="E2" s="1"/>
@@ -4148,58 +4148,58 @@
         <v>115</v>
       </c>
       <c r="I2" s="18">
-        <f>H2+$I$1</f>
+        <f t="shared" ref="I2:I38" si="1">H2+$I$1</f>
         <v>3.0729166666666665E-3</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L2" s="18">
-        <f>SUMIF($A$3:$A$65,K2,$B$3:$B$65)+SUMIF($F$3:$F$65,K2,$G$3:$G$65)</f>
+        <f t="shared" ref="L2:L30" si="2">SUMIF($A$3:$A$65,K2,$B$3:$B$65)+SUMIF($F$3:$F$65,K2,$G$3:$G$65)</f>
         <v>9.96527777777775E-5</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B3" s="17">
-        <f>C3-$C$2</f>
+        <f t="shared" ref="B3:B38" si="3">C3-$C$2</f>
         <v>4.2361111111111072E-5</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="18">
-        <f>C3+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1178240740740741E-3</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G3" s="18">
-        <f>H3-$H$2</f>
+        <f t="shared" ref="G3:G38" si="4">H3-$H$2</f>
         <v>5.7291666666666428E-5</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>116</v>
       </c>
       <c r="I3" s="18">
-        <f>H3+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1302083333333329E-3</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L3" s="18">
-        <f>SUMIF($A$3:$A$65,K3,$B$3:$B$65)+SUMIF($F$3:$F$65,K3,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.0162037037037084E-4</v>
       </c>
       <c r="N3" s="6" t="s">
@@ -4208,32 +4208,32 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B4" s="17">
-        <f>C4-$C$2</f>
+        <f t="shared" si="3"/>
         <v>4.317129629629636E-5</v>
       </c>
       <c r="C4" s="18">
         <v>2.1087962962962965E-3</v>
       </c>
       <c r="D4" s="18">
-        <f>C4+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1186342592592593E-3</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G4" s="18">
-        <f>H4-$H$2</f>
+        <f t="shared" si="4"/>
         <v>5.8449074074074479E-5</v>
       </c>
       <c r="H4" s="18">
         <v>3.1215277777777782E-3</v>
       </c>
       <c r="I4" s="18">
-        <f>H4+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.131365740740741E-3</v>
       </c>
       <c r="J4" s="1"/>
@@ -4241,7 +4241,7 @@
         <v>89</v>
       </c>
       <c r="L4" s="18">
-        <f>SUMIF($A$3:$A$65,K4,$B$3:$B$65)+SUMIF($F$3:$F$65,K4,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.118055555555551E-4</v>
       </c>
     </row>
@@ -4250,14 +4250,14 @@
         <v>18</v>
       </c>
       <c r="B5" s="17">
-        <f>C5-$C$2</f>
+        <f t="shared" si="3"/>
         <v>4.8611111111111251E-5</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>95</v>
       </c>
       <c r="D5" s="18">
-        <f>C5+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1240740740740742E-3</v>
       </c>
       <c r="E5" s="1"/>
@@ -4265,14 +4265,14 @@
         <v>89</v>
       </c>
       <c r="G5" s="18">
-        <f>H5-$H$2</f>
+        <f t="shared" si="4"/>
         <v>6.1689814814814333E-5</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>117</v>
       </c>
       <c r="I5" s="18">
-        <f>H5+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1346064814814808E-3</v>
       </c>
       <c r="J5" s="1"/>
@@ -4280,7 +4280,7 @@
         <v>5</v>
       </c>
       <c r="L5" s="18">
-        <f>SUMIF($A$3:$A$65,K5,$B$3:$B$65)+SUMIF($F$3:$F$65,K5,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.1296296296296271E-4</v>
       </c>
     </row>
@@ -4289,14 +4289,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="17">
-        <f>C6-$C$2</f>
+        <f t="shared" si="3"/>
         <v>4.9305555555555474E-5</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>96</v>
       </c>
       <c r="D6" s="18">
-        <f>C6+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1247685185185185E-3</v>
       </c>
       <c r="E6" s="1"/>
@@ -4304,14 +4304,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="18">
-        <f>H6-$H$2</f>
+        <f t="shared" si="4"/>
         <v>6.3078703703703647E-5</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>118</v>
       </c>
       <c r="I6" s="18">
-        <f>H6+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1359953703703702E-3</v>
       </c>
       <c r="J6" s="1"/>
@@ -4319,7 +4319,7 @@
         <v>18</v>
       </c>
       <c r="L6" s="18">
-        <f>SUMIF($A$3:$A$65,K6,$B$3:$B$65)+SUMIF($F$3:$F$65,K6,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.140046296296297E-4</v>
       </c>
     </row>
@@ -4328,14 +4328,14 @@
         <v>89</v>
       </c>
       <c r="B7" s="17">
-        <f>C7-$C$2</f>
+        <f t="shared" si="3"/>
         <v>5.0115740740740763E-5</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>97</v>
       </c>
       <c r="D7" s="18">
-        <f>C7+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1255787037037037E-3</v>
       </c>
       <c r="E7" s="1"/>
@@ -4343,14 +4343,14 @@
         <v>5</v>
       </c>
       <c r="G7" s="18">
-        <f>H7-$H$2</f>
+        <f t="shared" si="4"/>
         <v>6.3657407407407239E-5</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>119</v>
       </c>
       <c r="I7" s="18">
-        <f>H7+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1365740740740737E-3</v>
       </c>
       <c r="J7" s="1"/>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="18">
-        <f>SUMIF($A$3:$A$65,K7,$B$3:$B$65)+SUMIF($F$3:$F$65,K7,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.1574074074074047E-4</v>
       </c>
     </row>
@@ -4367,14 +4367,14 @@
         <v>24</v>
       </c>
       <c r="B8" s="17">
-        <f>C8-$C$2</f>
+        <f t="shared" si="3"/>
         <v>5.0462962962962658E-5</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>98</v>
       </c>
       <c r="D8" s="18">
-        <f>C8+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1259259259259256E-3</v>
       </c>
       <c r="E8" s="1"/>
@@ -4382,14 +4382,14 @@
         <v>18</v>
       </c>
       <c r="G8" s="18">
-        <f>H8-$H$2</f>
+        <f t="shared" si="4"/>
         <v>6.5393518518518448E-5</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>120</v>
       </c>
       <c r="I8" s="18">
-        <f>H8+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.138310185185185E-3</v>
       </c>
       <c r="J8" s="1"/>
@@ -4397,7 +4397,7 @@
         <v>24</v>
       </c>
       <c r="L8" s="18">
-        <f>SUMIF($A$3:$A$65,K8,$B$3:$B$65)+SUMIF($F$3:$F$65,K8,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.1967592592592585E-4</v>
       </c>
     </row>
@@ -4406,14 +4406,14 @@
         <v>0</v>
       </c>
       <c r="B9" s="17">
-        <f>C9-$C$2</f>
+        <f t="shared" si="3"/>
         <v>5.2662037037036827E-5</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="18">
-        <f>C9+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1281249999999998E-3</v>
       </c>
       <c r="E9" s="1"/>
@@ -4421,14 +4421,14 @@
         <v>7</v>
       </c>
       <c r="G9" s="18">
-        <f>H9-$H$2</f>
+        <f t="shared" si="4"/>
         <v>6.5740740740740343E-5</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>121</v>
       </c>
       <c r="I9" s="18">
-        <f>H9+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1386574074074068E-3</v>
       </c>
       <c r="J9" s="1"/>
@@ -4436,7 +4436,7 @@
         <v>7</v>
       </c>
       <c r="L9" s="18">
-        <f>SUMIF($A$3:$A$65,K9,$B$3:$B$65)+SUMIF($F$3:$F$65,K9,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.2083333333333304E-4</v>
       </c>
     </row>
@@ -4445,14 +4445,14 @@
         <v>7</v>
       </c>
       <c r="B10" s="17">
-        <f>C10-$C$2</f>
+        <f t="shared" si="3"/>
         <v>5.5092592592592693E-5</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>100</v>
       </c>
       <c r="D10" s="18">
-        <f>C10+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1305555555555557E-3</v>
       </c>
       <c r="E10" s="1"/>
@@ -4460,14 +4460,14 @@
         <v>90</v>
       </c>
       <c r="G10" s="18">
-        <f>H10-$H$2</f>
+        <f t="shared" si="4"/>
         <v>6.8634259259259169E-5</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>122</v>
       </c>
       <c r="I10" s="18">
-        <f>H10+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1415509259259257E-3</v>
       </c>
       <c r="J10" s="1"/>
@@ -4475,7 +4475,7 @@
         <v>90</v>
       </c>
       <c r="L10" s="18">
-        <f>SUMIF($A$3:$A$65,K10,$B$3:$B$65)+SUMIF($F$3:$F$65,K10,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.2418981481481439E-4</v>
       </c>
     </row>
@@ -4484,14 +4484,14 @@
         <v>90</v>
       </c>
       <c r="B11" s="17">
-        <f>C11-$C$2</f>
+        <f t="shared" si="3"/>
         <v>5.5555555555555219E-5</v>
       </c>
       <c r="C11" s="17">
         <v>2.1211805555555554E-3</v>
       </c>
       <c r="D11" s="18">
-        <f>C11+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1310185185185182E-3</v>
       </c>
       <c r="E11" s="1"/>
@@ -4499,14 +4499,14 @@
         <v>24</v>
       </c>
       <c r="G11" s="18">
-        <f>H11-$H$2</f>
+        <f t="shared" si="4"/>
         <v>6.9212962962963195E-5</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>123</v>
       </c>
       <c r="I11" s="18">
-        <f>H11+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1421296296296297E-3</v>
       </c>
       <c r="J11" s="1"/>
@@ -4514,7 +4514,7 @@
         <v>69</v>
       </c>
       <c r="L11" s="18">
-        <f>SUMIF($A$3:$A$65,K11,$B$3:$B$65)+SUMIF($F$3:$F$65,K11,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.2743055555555554E-4</v>
       </c>
     </row>
@@ -4523,14 +4523,14 @@
         <v>69</v>
       </c>
       <c r="B12" s="17">
-        <f>C12-$C$2</f>
+        <f t="shared" si="3"/>
         <v>5.5902777777777982E-5</v>
       </c>
       <c r="C12" s="17">
         <v>2.1215277777777782E-3</v>
       </c>
       <c r="D12" s="18">
-        <f>C12+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.131365740740741E-3</v>
       </c>
       <c r="E12" s="1"/>
@@ -4538,14 +4538,14 @@
         <v>8</v>
       </c>
       <c r="G12" s="18">
-        <f>H12-$H$2</f>
+        <f t="shared" si="4"/>
         <v>6.9675925925926155E-5</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>124</v>
       </c>
       <c r="I12" s="18">
-        <f>H12+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1425925925925927E-3</v>
       </c>
       <c r="J12" s="1"/>
@@ -4553,7 +4553,7 @@
         <v>68</v>
       </c>
       <c r="L12" s="18">
-        <f>SUMIF($A$3:$A$65,K12,$B$3:$B$65)+SUMIF($F$3:$F$65,K12,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.2847222222222253E-4</v>
       </c>
     </row>
@@ -4562,14 +4562,14 @@
         <v>68</v>
       </c>
       <c r="B13" s="17">
-        <f>C13-$C$2</f>
+        <f t="shared" si="3"/>
         <v>5.7291666666666428E-5</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>101</v>
       </c>
       <c r="D13" s="18">
-        <f>C13+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1327546296296294E-3</v>
       </c>
       <c r="E13" s="1"/>
@@ -4577,14 +4577,14 @@
         <v>68</v>
       </c>
       <c r="G13" s="18">
-        <f>H13-$H$2</f>
+        <f t="shared" si="4"/>
         <v>7.1180555555556101E-5</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>125</v>
       </c>
       <c r="I13" s="18">
-        <f>H13+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1440972222222226E-3</v>
       </c>
       <c r="J13" s="1"/>
@@ -4592,7 +4592,7 @@
         <v>8</v>
       </c>
       <c r="L13" s="18">
-        <f>SUMIF($A$3:$A$65,K13,$B$3:$B$65)+SUMIF($F$3:$F$65,K13,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.3194444444444408E-4</v>
       </c>
     </row>
@@ -4601,14 +4601,14 @@
         <v>15</v>
       </c>
       <c r="B14" s="17">
-        <f>C14-$C$2</f>
+        <f t="shared" si="3"/>
         <v>5.8564814814814677E-5</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>102</v>
       </c>
       <c r="D14" s="18">
-        <f>C14+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1340277777777777E-3</v>
       </c>
       <c r="E14" s="1"/>
@@ -4616,14 +4616,14 @@
         <v>21</v>
       </c>
       <c r="G14" s="18">
-        <f>H14-$H$2</f>
+        <f t="shared" si="4"/>
         <v>7.1527777777777562E-5</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>126</v>
       </c>
       <c r="I14" s="18">
-        <f>H14+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1444444444444441E-3</v>
       </c>
       <c r="J14" s="1"/>
@@ -4631,7 +4631,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="18">
-        <f>SUMIF($A$3:$A$65,K14,$B$3:$B$65)+SUMIF($F$3:$F$65,K14,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.3402777777777762E-4</v>
       </c>
     </row>
@@ -4640,14 +4640,14 @@
         <v>17</v>
       </c>
       <c r="B15" s="17">
-        <f>C15-$C$2</f>
+        <f t="shared" si="3"/>
         <v>6.0300925925925453E-5</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>103</v>
       </c>
       <c r="D15" s="18">
-        <f>C15+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1357638888888884E-3</v>
       </c>
       <c r="E15" s="1"/>
@@ -4655,14 +4655,14 @@
         <v>69</v>
       </c>
       <c r="G15" s="18">
-        <f>H15-$H$2</f>
+        <f t="shared" si="4"/>
         <v>7.1527777777777562E-5</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>126</v>
       </c>
       <c r="I15" s="18">
-        <f>H15+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1444444444444441E-3</v>
       </c>
       <c r="J15" s="1"/>
@@ -4670,7 +4670,7 @@
         <v>15</v>
       </c>
       <c r="L15" s="18">
-        <f>SUMIF($A$3:$A$65,K15,$B$3:$B$65)+SUMIF($F$3:$F$65,K15,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.3703703703703664E-4</v>
       </c>
     </row>
@@ -4679,14 +4679,14 @@
         <v>12</v>
       </c>
       <c r="B16" s="17">
-        <f>C16-$C$2</f>
+        <f t="shared" si="3"/>
         <v>6.1111111111110741E-5</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>104</v>
       </c>
       <c r="D16" s="18">
-        <f>C16+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1365740740740737E-3</v>
       </c>
       <c r="E16" s="1"/>
@@ -4694,14 +4694,14 @@
         <v>2</v>
       </c>
       <c r="G16" s="18">
-        <f>H16-$H$2</f>
+        <f t="shared" si="4"/>
         <v>7.3148148148148139E-5</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>127</v>
       </c>
       <c r="I16" s="18">
-        <f>H16+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1460648148148146E-3</v>
       </c>
       <c r="J16" s="1"/>
@@ -4709,7 +4709,7 @@
         <v>2</v>
       </c>
       <c r="L16" s="18">
-        <f>SUMIF($A$3:$A$65,K16,$B$3:$B$65)+SUMIF($F$3:$F$65,K16,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.3888888888888892E-4</v>
       </c>
     </row>
@@ -4718,14 +4718,14 @@
         <v>8</v>
       </c>
       <c r="B17" s="17">
-        <f>C17-$C$2</f>
+        <f t="shared" si="3"/>
         <v>6.2268518518517925E-5</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>105</v>
       </c>
       <c r="D17" s="18">
-        <f>C17+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1377314814814809E-3</v>
       </c>
       <c r="E17" s="1"/>
@@ -4733,14 +4733,14 @@
         <v>17</v>
       </c>
       <c r="G17" s="18">
-        <f>H17-$H$2</f>
+        <f t="shared" si="4"/>
         <v>7.3726851851852165E-5</v>
       </c>
       <c r="H17" s="17" t="s">
         <v>128</v>
       </c>
       <c r="I17" s="18">
-        <f>H17+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1466435185185187E-3</v>
       </c>
       <c r="J17" s="1"/>
@@ -4748,7 +4748,7 @@
         <v>21</v>
       </c>
       <c r="L17" s="18">
-        <f>SUMIF($A$3:$A$65,K17,$B$3:$B$65)+SUMIF($F$3:$F$65,K17,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.3900462962962911E-4</v>
       </c>
     </row>
@@ -4757,14 +4757,14 @@
         <v>91</v>
       </c>
       <c r="B18" s="17">
-        <f>C18-$C$2</f>
+        <f t="shared" si="3"/>
         <v>6.3773148148147871E-5</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>106</v>
       </c>
       <c r="D18" s="18">
-        <f>C18+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1392361111111109E-3</v>
       </c>
       <c r="E18" s="1"/>
@@ -4772,14 +4772,14 @@
         <v>92</v>
       </c>
       <c r="G18" s="18">
-        <f>H18-$H$2</f>
+        <f t="shared" si="4"/>
         <v>7.4305555555555756E-5</v>
       </c>
       <c r="H18" s="17" t="s">
         <v>129</v>
       </c>
       <c r="I18" s="18">
-        <f>H18+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1472222222222223E-3</v>
       </c>
       <c r="J18" s="1"/>
@@ -4787,7 +4787,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="18">
-        <f>SUMIF($A$3:$A$65,K18,$B$3:$B$65)+SUMIF($F$3:$F$65,K18,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.398148148148144E-4</v>
       </c>
     </row>
@@ -4796,14 +4796,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="17">
-        <f>C19-$C$2</f>
+        <f t="shared" si="3"/>
         <v>6.5740740740740777E-5</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>107</v>
       </c>
       <c r="D19" s="18">
-        <f>C19+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1412037037037038E-3</v>
       </c>
       <c r="E19" s="1"/>
@@ -4811,14 +4811,14 @@
         <v>20</v>
       </c>
       <c r="G19" s="18">
-        <f>H19-$H$2</f>
+        <f t="shared" si="4"/>
         <v>7.6157407407407597E-5</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>130</v>
       </c>
       <c r="I19" s="18">
-        <f>H19+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1490740740740741E-3</v>
       </c>
       <c r="J19" s="1"/>
@@ -4826,7 +4826,7 @@
         <v>91</v>
       </c>
       <c r="L19" s="18">
-        <f>SUMIF($A$3:$A$65,K19,$B$3:$B$65)+SUMIF($F$3:$F$65,K19,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.4108796296296265E-4</v>
       </c>
     </row>
@@ -4835,14 +4835,14 @@
         <v>20</v>
       </c>
       <c r="B20" s="17">
-        <f>C20-$C$2</f>
+        <f t="shared" si="3"/>
         <v>6.6666666666666263E-5</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>108</v>
       </c>
       <c r="D20" s="18">
-        <f>C20+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1421296296296292E-3</v>
       </c>
       <c r="E20" s="1"/>
@@ -4850,14 +4850,14 @@
         <v>91</v>
       </c>
       <c r="G20" s="18">
-        <f>H20-$H$2</f>
+        <f t="shared" si="4"/>
         <v>7.7314814814814781E-5</v>
       </c>
       <c r="H20" s="17">
         <v>3.1403935185185185E-3</v>
       </c>
       <c r="I20" s="18">
-        <f>H20+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1502314814814813E-3</v>
       </c>
       <c r="J20" s="1"/>
@@ -4865,7 +4865,7 @@
         <v>92</v>
       </c>
       <c r="L20" s="18">
-        <f>SUMIF($A$3:$A$65,K20,$B$3:$B$65)+SUMIF($F$3:$F$65,K20,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.4143518518518541E-4</v>
       </c>
     </row>
@@ -4874,14 +4874,14 @@
         <v>19</v>
       </c>
       <c r="B21" s="17">
-        <f>C21-$C$2</f>
+        <f t="shared" si="3"/>
         <v>6.6666666666666263E-5</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>108</v>
       </c>
       <c r="D21" s="18">
-        <f>C21+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1421296296296292E-3</v>
       </c>
       <c r="E21" s="1"/>
@@ -4889,14 +4889,14 @@
         <v>15</v>
       </c>
       <c r="G21" s="18">
-        <f>H21-$H$2</f>
+        <f t="shared" si="4"/>
         <v>7.8472222222221964E-5</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>131</v>
       </c>
       <c r="I21" s="18">
-        <f>H21+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1513888888888885E-3</v>
       </c>
       <c r="J21" s="1"/>
@@ -4904,7 +4904,7 @@
         <v>20</v>
       </c>
       <c r="L21" s="18">
-        <f>SUMIF($A$3:$A$65,K21,$B$3:$B$65)+SUMIF($F$3:$F$65,K21,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.4282407407407386E-4</v>
       </c>
     </row>
@@ -4913,14 +4913,14 @@
         <v>92</v>
       </c>
       <c r="B22" s="17">
-        <f>C22-$C$2</f>
+        <f t="shared" si="3"/>
         <v>6.7129629629629657E-5</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>109</v>
       </c>
       <c r="D22" s="18">
-        <f>C22+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1425925925925926E-3</v>
       </c>
       <c r="E22" s="1"/>
@@ -4928,14 +4928,14 @@
         <v>12</v>
       </c>
       <c r="G22" s="18">
-        <f>H22-$H$2</f>
+        <f t="shared" si="4"/>
         <v>7.8703703703703661E-5</v>
       </c>
       <c r="H22" s="17" t="s">
         <v>132</v>
       </c>
       <c r="I22" s="18">
-        <f>H22+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1516203703703702E-3</v>
       </c>
       <c r="J22" s="1"/>
@@ -4943,7 +4943,7 @@
         <v>19</v>
       </c>
       <c r="L22" s="18">
-        <f>SUMIF($A$3:$A$65,K22,$B$3:$B$65)+SUMIF($F$3:$F$65,K22,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.4629629629629628E-4</v>
       </c>
     </row>
@@ -4952,14 +4952,14 @@
         <v>21</v>
       </c>
       <c r="B23" s="17">
-        <f>C23-$C$2</f>
+        <f t="shared" si="3"/>
         <v>6.7476851851851552E-5</v>
       </c>
       <c r="C23" s="17">
         <v>2.1331018518518517E-3</v>
       </c>
       <c r="D23" s="18">
-        <f>C23+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1429398148148145E-3</v>
       </c>
       <c r="E23" s="1"/>
@@ -4967,14 +4967,14 @@
         <v>19</v>
       </c>
       <c r="G23" s="18">
-        <f>H23-$H$2</f>
+        <f t="shared" si="4"/>
         <v>7.9629629629630015E-5</v>
       </c>
       <c r="H23" s="17" t="s">
         <v>133</v>
       </c>
       <c r="I23" s="18">
-        <f>H23+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1525462962962965E-3</v>
       </c>
       <c r="J23" s="1"/>
@@ -4982,7 +4982,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="18">
-        <f>SUMIF($A$3:$A$65,K23,$B$3:$B$65)+SUMIF($F$3:$F$65,K23,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.5798611111111091E-4</v>
       </c>
     </row>
@@ -4991,14 +4991,14 @@
         <v>22</v>
       </c>
       <c r="B24" s="17">
-        <f>C24-$C$2</f>
+        <f t="shared" si="3"/>
         <v>7.6967592592592452E-5</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>110</v>
       </c>
       <c r="D24" s="18">
-        <f>C24+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1524305555555554E-3</v>
       </c>
       <c r="E24" s="1"/>
@@ -5006,14 +5006,14 @@
         <v>22</v>
       </c>
       <c r="G24" s="18">
-        <f>H24-$H$2</f>
+        <f t="shared" si="4"/>
         <v>8.1018518518518462E-5</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>134</v>
       </c>
       <c r="I24" s="18">
-        <f>H24+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.153935185185185E-3</v>
       </c>
       <c r="J24" s="1"/>
@@ -5021,7 +5021,7 @@
         <v>10</v>
       </c>
       <c r="L24" s="18">
-        <f>SUMIF($A$3:$A$65,K24,$B$3:$B$65)+SUMIF($F$3:$F$65,K24,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.6273148148148115E-4</v>
       </c>
     </row>
@@ -5030,14 +5030,14 @@
         <v>6</v>
       </c>
       <c r="B25" s="17">
-        <f>C25-$C$2</f>
+        <f t="shared" si="3"/>
         <v>7.7893518518518372E-5</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>111</v>
       </c>
       <c r="D25" s="18">
-        <f>C25+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1533564814814814E-3</v>
       </c>
       <c r="E25" s="1"/>
@@ -5045,14 +5045,14 @@
         <v>10</v>
       </c>
       <c r="G25" s="18">
-        <f>H25-$H$2</f>
+        <f t="shared" si="4"/>
         <v>8.1944444444444382E-5</v>
       </c>
       <c r="H25" s="17">
         <v>3.1450231481481481E-3</v>
       </c>
       <c r="I25" s="18">
-        <f>H25+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1548611111111109E-3</v>
       </c>
       <c r="J25" s="1"/>
@@ -5060,7 +5060,7 @@
         <v>6</v>
       </c>
       <c r="L25" s="18">
-        <f>SUMIF($A$3:$A$65,K25,$B$3:$B$65)+SUMIF($F$3:$F$65,K25,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.6331018518518561E-4</v>
       </c>
     </row>
@@ -5069,14 +5069,14 @@
         <v>10</v>
       </c>
       <c r="B26" s="17">
-        <f>C26-$C$2</f>
+        <f t="shared" si="3"/>
         <v>8.0787037037036765E-5</v>
       </c>
       <c r="C26" s="17">
         <v>2.146412037037037E-3</v>
       </c>
       <c r="D26" s="18">
-        <f>C26+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1562499999999997E-3</v>
       </c>
       <c r="E26" s="1"/>
@@ -5084,14 +5084,14 @@
         <v>6</v>
       </c>
       <c r="G26" s="18">
-        <f>H26-$H$2</f>
+        <f t="shared" si="4"/>
         <v>8.5416666666667234E-5</v>
       </c>
       <c r="H26" s="17" t="s">
         <v>135</v>
       </c>
       <c r="I26" s="18">
-        <f>H26+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1583333333333337E-3</v>
       </c>
       <c r="J26" s="1"/>
@@ -5099,7 +5099,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="18">
-        <f>SUMIF($A$3:$A$65,K26,$B$3:$B$65)+SUMIF($F$3:$F$65,K26,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.7071759259259254E-4</v>
       </c>
     </row>
@@ -5108,14 +5108,14 @@
         <v>16</v>
       </c>
       <c r="B27" s="17">
-        <f>C27-$C$2</f>
+        <f t="shared" si="3"/>
         <v>8.3333333333333263E-5</v>
       </c>
       <c r="C27" s="17">
         <v>2.1489583333333334E-3</v>
       </c>
       <c r="D27" s="18">
-        <f>C27+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1587962962962962E-3</v>
       </c>
       <c r="E27" s="1"/>
@@ -5123,14 +5123,14 @@
         <v>16</v>
       </c>
       <c r="G27" s="18">
-        <f>H27-$H$2</f>
+        <f t="shared" si="4"/>
         <v>8.7384259259259273E-5</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>136</v>
       </c>
       <c r="I27" s="18">
-        <f>H27+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1603009259259258E-3</v>
       </c>
       <c r="J27" s="1"/>
@@ -5138,7 +5138,7 @@
         <v>162</v>
       </c>
       <c r="L27" s="18">
-        <f>SUMIF($A$3:$A$65,K27,$B$3:$B$65)+SUMIF($F$3:$F$65,K27,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.7337962962962923E-4</v>
       </c>
     </row>
@@ -5147,14 +5147,14 @@
         <v>162</v>
       </c>
       <c r="B28" s="17">
-        <f>C28-$C$2</f>
+        <f t="shared" si="3"/>
         <v>8.4837962962962775E-5</v>
       </c>
       <c r="C28" s="17">
         <v>2.150462962962963E-3</v>
       </c>
       <c r="D28" s="18">
-        <f>C28+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1603009259259258E-3</v>
       </c>
       <c r="E28" s="1"/>
@@ -5162,14 +5162,14 @@
         <v>162</v>
       </c>
       <c r="G28" s="18">
-        <f>H28-$H$2</f>
+        <f t="shared" si="4"/>
         <v>8.8541666666666456E-5</v>
       </c>
       <c r="H28" s="17">
         <v>3.1516203703703702E-3</v>
       </c>
       <c r="I28" s="18">
-        <f>H28+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.161458333333333E-3</v>
       </c>
       <c r="J28" s="1"/>
@@ -5177,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="18">
-        <f>SUMIF($A$3:$A$65,K28,$B$3:$B$65)+SUMIF($F$3:$F$65,K28,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.8182870370370315E-4</v>
       </c>
     </row>
@@ -5186,14 +5186,14 @@
         <v>1</v>
       </c>
       <c r="B29" s="17">
-        <f>C29-$C$2</f>
+        <f t="shared" si="3"/>
         <v>8.5763888888888695E-5</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>112</v>
       </c>
       <c r="D29" s="18">
-        <f>C29+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1612268518518517E-3</v>
       </c>
       <c r="E29" s="1"/>
@@ -5201,14 +5201,14 @@
         <v>1</v>
       </c>
       <c r="G29" s="18">
-        <f>H29-$H$2</f>
+        <f t="shared" si="4"/>
         <v>9.606481481481445E-5</v>
       </c>
       <c r="H29" s="17" t="s">
         <v>137</v>
       </c>
       <c r="I29" s="18">
-        <f>H29+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.168981481481481E-3</v>
       </c>
       <c r="J29" s="1"/>
@@ -5216,7 +5216,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="18">
-        <f>SUMIF($A$3:$A$65,K29,$B$3:$B$65)+SUMIF($F$3:$F$65,K29,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.9224537037036997E-4</v>
       </c>
     </row>
@@ -5225,14 +5225,14 @@
         <v>11</v>
       </c>
       <c r="B30" s="17">
-        <f>C30-$C$2</f>
+        <f t="shared" si="3"/>
         <v>8.5995370370369958E-5</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>113</v>
       </c>
       <c r="D30" s="18">
-        <f>C30+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1614583333333329E-3</v>
       </c>
       <c r="E30" s="1"/>
@@ -5240,14 +5240,14 @@
         <v>226</v>
       </c>
       <c r="G30" s="18">
-        <f>H30-$H$2</f>
+        <f t="shared" si="4"/>
         <v>9.7800925925926093E-5</v>
       </c>
       <c r="H30" s="17">
         <v>3.1608796296296298E-3</v>
       </c>
       <c r="I30" s="18">
-        <f>H30+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1707175925925926E-3</v>
       </c>
       <c r="J30" s="1"/>
@@ -5255,7 +5255,7 @@
         <v>9</v>
       </c>
       <c r="L30" s="18">
-        <f>SUMIF($A$3:$A$65,K30,$B$3:$B$65)+SUMIF($F$3:$F$65,K30,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.9641203703703704E-4</v>
       </c>
     </row>
@@ -5264,14 +5264,14 @@
         <v>9</v>
       </c>
       <c r="B31" s="17">
-        <f>C31-$C$2</f>
+        <f t="shared" si="3"/>
         <v>8.7962962962962864E-5</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>114</v>
       </c>
       <c r="D31" s="18">
-        <f>C31+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1634259259259258E-3</v>
       </c>
       <c r="E31" s="1"/>
@@ -5279,14 +5279,14 @@
         <v>223</v>
       </c>
       <c r="G31" s="18">
-        <f>H31-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.0393518518518521E-4</v>
       </c>
       <c r="H31" s="17">
         <v>3.1670138888888889E-3</v>
       </c>
       <c r="I31" s="18">
-        <f>H31+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1768518518518517E-3</v>
       </c>
       <c r="J31" s="1"/>
@@ -5302,14 +5302,14 @@
         <v>25</v>
       </c>
       <c r="B32" s="17">
-        <f>C32-$C$2</f>
+        <f t="shared" si="3"/>
         <v>9.7800925925925659E-5</v>
       </c>
       <c r="C32" s="18">
         <v>2.1634259259259258E-3</v>
       </c>
       <c r="D32" s="18">
-        <f>C32+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1732638888888886E-3</v>
       </c>
       <c r="E32" s="1"/>
@@ -5317,14 +5317,14 @@
         <v>240</v>
       </c>
       <c r="G32" s="18">
-        <f>H32-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.0590277777777768E-4</v>
       </c>
       <c r="H32" s="17">
         <v>3.1689814814814814E-3</v>
       </c>
       <c r="I32" s="18">
-        <f>H32+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1788194444444442E-3</v>
       </c>
       <c r="J32" s="1"/>
@@ -5332,7 +5332,7 @@
         <v>240</v>
       </c>
       <c r="L32" s="18">
-        <f>SUMIF($A$3:$A$65,K32,$B$3:$B$65)+SUMIF($F$3:$F$65,K32,$G$3:$G$65)</f>
+        <f t="shared" ref="L32:L37" si="5">SUMIF($A$3:$A$65,K32,$B$3:$B$65)+SUMIF($F$3:$F$65,K32,$G$3:$G$65)</f>
         <v>2.0844907407407357E-4</v>
       </c>
     </row>
@@ -5341,14 +5341,14 @@
         <v>226</v>
       </c>
       <c r="B33" s="17">
-        <f>C33-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.0138888888888871E-4</v>
       </c>
       <c r="C33" s="18">
         <v>2.1670138888888889E-3</v>
       </c>
       <c r="D33" s="18">
-        <f>C33+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1768518518518517E-3</v>
       </c>
       <c r="E33" s="1"/>
@@ -5356,14 +5356,14 @@
         <v>11</v>
       </c>
       <c r="G33" s="18">
-        <f>H33-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.0625000000000001E-4</v>
       </c>
       <c r="H33" s="17" t="s">
         <v>138</v>
       </c>
       <c r="I33" s="18">
-        <f>H33+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1791666666666665E-3</v>
       </c>
       <c r="J33" s="1"/>
@@ -5371,7 +5371,7 @@
         <v>25</v>
       </c>
       <c r="L33" s="18">
-        <f>SUMIF($A$3:$A$65,K33,$B$3:$B$65)+SUMIF($F$3:$F$65,K33,$G$3:$G$65)</f>
+        <f t="shared" si="5"/>
         <v>2.1215277777777725E-4</v>
       </c>
     </row>
@@ -5380,14 +5380,14 @@
         <v>240</v>
       </c>
       <c r="B34" s="17">
-        <f>C34-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.0254629629629589E-4</v>
       </c>
       <c r="C34" s="18">
         <v>2.1681712962962961E-3</v>
       </c>
       <c r="D34" s="18">
-        <f>C34+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1780092592592589E-3</v>
       </c>
       <c r="E34" s="1"/>
@@ -5395,14 +5395,14 @@
         <v>205</v>
       </c>
       <c r="G34" s="18">
-        <f>H34-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.068287037037036E-4</v>
       </c>
       <c r="H34" s="17">
         <v>3.1699074074074073E-3</v>
       </c>
       <c r="I34" s="18">
-        <f>H34+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1797453703703701E-3</v>
       </c>
       <c r="J34" s="1"/>
@@ -5410,7 +5410,7 @@
         <v>205</v>
       </c>
       <c r="L34" s="18">
-        <f>SUMIF($A$3:$A$65,K34,$B$3:$B$65)+SUMIF($F$3:$F$65,K34,$G$3:$G$65)</f>
+        <f t="shared" si="5"/>
         <v>2.1307870370370317E-4</v>
       </c>
     </row>
@@ -5419,14 +5419,14 @@
         <v>205</v>
       </c>
       <c r="B35" s="17">
-        <f>C35-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.0624999999999957E-4</v>
       </c>
       <c r="C35" s="18">
         <v>2.1718749999999998E-3</v>
       </c>
       <c r="D35" s="18">
-        <f>C35+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1817129629629626E-3</v>
       </c>
       <c r="E35" s="1"/>
@@ -5434,14 +5434,14 @@
         <v>9</v>
       </c>
       <c r="G35" s="18">
-        <f>H35-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.0844907407407418E-4</v>
       </c>
       <c r="H35" s="17" t="s">
         <v>139</v>
       </c>
       <c r="I35" s="18">
-        <f>H35+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1813657407407407E-3</v>
       </c>
       <c r="J35" s="1"/>
@@ -5449,7 +5449,7 @@
         <v>223</v>
       </c>
       <c r="L35" s="18">
-        <f>SUMIF($A$3:$A$65,K35,$B$3:$B$65)+SUMIF($F$3:$F$65,K35,$G$3:$G$65)</f>
+        <f t="shared" si="5"/>
         <v>2.1851851851851806E-4</v>
       </c>
     </row>
@@ -5458,14 +5458,14 @@
         <v>219</v>
       </c>
       <c r="B36" s="17">
-        <f>C36-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.1319444444444441E-4</v>
       </c>
       <c r="C36" s="18">
         <v>2.1788194444444446E-3</v>
       </c>
       <c r="D36" s="18">
-        <f>C36+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1886574074074074E-3</v>
       </c>
       <c r="E36" s="1"/>
@@ -5473,14 +5473,14 @@
         <v>25</v>
       </c>
       <c r="G36" s="18">
-        <f>H36-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.1435185185185159E-4</v>
       </c>
       <c r="H36" s="18">
         <v>3.1774305555555553E-3</v>
       </c>
       <c r="I36" s="18">
-        <f>H36+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1872685185185181E-3</v>
       </c>
       <c r="J36" s="1"/>
@@ -5488,7 +5488,7 @@
         <v>219</v>
       </c>
       <c r="L36" s="18">
-        <f>SUMIF($A$3:$A$65,K36,$B$3:$B$65)+SUMIF($F$3:$F$65,K36,$G$3:$G$65)</f>
+        <f t="shared" si="5"/>
         <v>2.2777777777777813E-4</v>
       </c>
     </row>
@@ -5497,14 +5497,14 @@
         <v>223</v>
       </c>
       <c r="B37" s="17">
-        <f>C37-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.1458333333333286E-4</v>
       </c>
       <c r="C37" s="18">
         <v>2.180208333333333E-3</v>
       </c>
       <c r="D37" s="18">
-        <f>C37+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1900462962962958E-3</v>
       </c>
       <c r="E37" s="1"/>
@@ -5512,14 +5512,14 @@
         <v>219</v>
       </c>
       <c r="G37" s="18">
-        <f>H37-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.1458333333333372E-4</v>
       </c>
       <c r="H37" s="18">
         <v>3.1776620370370374E-3</v>
       </c>
       <c r="I37" s="18">
-        <f>H37+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1875000000000002E-3</v>
       </c>
       <c r="J37" s="1"/>
@@ -5527,7 +5527,7 @@
         <v>237</v>
       </c>
       <c r="L37" s="18">
-        <f>SUMIF($A$3:$A$65,K37,$B$3:$B$65)+SUMIF($F$3:$F$65,K37,$G$3:$G$65)</f>
+        <f t="shared" si="5"/>
         <v>6.3055555555555608E-4</v>
       </c>
     </row>
@@ -5536,14 +5536,14 @@
         <v>237</v>
       </c>
       <c r="B38" s="17">
-        <f>C38-$C$2</f>
+        <f t="shared" si="3"/>
         <v>3.2615740740740739E-4</v>
       </c>
       <c r="C38" s="18">
         <v>2.3917824074074076E-3</v>
       </c>
       <c r="D38" s="18">
-        <f>C38+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.4016203703703704E-3</v>
       </c>
       <c r="E38" s="1"/>
@@ -5551,14 +5551,14 @@
         <v>237</v>
       </c>
       <c r="G38" s="18">
-        <f>H38-$H$2</f>
+        <f t="shared" si="4"/>
         <v>3.0439814814814869E-4</v>
       </c>
       <c r="H38" s="18">
         <v>3.3674768518518524E-3</v>
       </c>
       <c r="I38" s="18">
-        <f>H38+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.3773148148148152E-3</v>
       </c>
       <c r="J38" s="1"/>
@@ -6086,7 +6086,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I1" s="18">
         <v>5.787037037037037E-7</v>
@@ -6128,7 +6128,7 @@
         <v>1.520601851851852E-3</v>
       </c>
       <c r="D2" s="18">
-        <f t="shared" ref="D2:D10" si="0">C2+$D$1</f>
+        <f t="shared" ref="D2" si="0">C2+$D$1</f>
         <v>1.5211805555555558E-3</v>
       </c>
       <c r="E2" s="1"/>
@@ -6142,7 +6142,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="18">
-        <f>H2+$I$1</f>
+        <f t="shared" ref="I2:I38" si="1">H2+$I$1</f>
         <v>2.5277777777777777E-3</v>
       </c>
       <c r="J2" s="3"/>
@@ -6156,64 +6156,64 @@
         <v>14</v>
       </c>
       <c r="N2" s="18">
-        <f>M2+$N$1</f>
+        <f t="shared" ref="N2:N38" si="2">M2+$N$1</f>
         <v>3.8498842592592591E-3</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q2" s="18">
-        <f>SUMIF($A$3:$A$65,P2,$B$3:$B$65)+SUMIF($F$3:$F$65,P2,$G$3:$G$65)+SUMIF($K$3:$K$65,P2,$L$3:$L$65)</f>
+        <f t="shared" ref="Q2:Q37" si="3">SUMIF($A$3:$A$65,P2,$B$3:$B$65)+SUMIF($F$3:$F$65,P2,$G$3:$G$65)+SUMIF($K$3:$K$65,P2,$L$3:$L$65)</f>
         <v>1.4456018518518572E-4</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B3" s="17">
-        <f>C3-$C$2</f>
+        <f t="shared" ref="B3:B38" si="4">C3-$C$2</f>
         <v>3.9351851851851831E-5</v>
       </c>
       <c r="C3" s="18">
         <v>1.5599537037037038E-3</v>
       </c>
       <c r="D3" s="18">
-        <f>C3+$D$1</f>
+        <f t="shared" ref="D3:D38" si="5">C3+$D$1</f>
         <v>1.5605324074074076E-3</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G3" s="18">
-        <f>H3-$H$2</f>
+        <f t="shared" ref="G3:G38" si="6">H3-$H$2</f>
         <v>4.0509259259259231E-5</v>
       </c>
       <c r="H3" s="18">
         <v>2.5677083333333333E-3</v>
       </c>
       <c r="I3" s="18">
-        <f>H3+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.5682870370370369E-3</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L3" s="18">
-        <f>M3-$M$2</f>
+        <f t="shared" ref="L3:L38" si="7">M3-$M$2</f>
         <v>6.4699074074074658E-5</v>
       </c>
       <c r="M3" s="18">
         <v>3.9140046296296301E-3</v>
       </c>
       <c r="N3" s="18">
-        <f>M3+$N$1</f>
+        <f t="shared" si="2"/>
         <v>3.9145833333333342E-3</v>
       </c>
       <c r="O3" s="1"/>
@@ -6221,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="18">
-        <f>SUMIF($A$3:$A$65,P3,$B$3:$B$65)+SUMIF($F$3:$F$65,P3,$G$3:$G$65)+SUMIF($K$3:$K$65,P3,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>1.7164351851851867E-4</v>
       </c>
       <c r="S3" s="6" t="s">
@@ -6233,29 +6233,29 @@
         <v>18</v>
       </c>
       <c r="B4" s="18">
-        <f>C4-$C$2</f>
+        <f t="shared" si="4"/>
         <v>3.9351851851851831E-5</v>
       </c>
       <c r="C4" s="18">
         <v>1.5599537037037038E-3</v>
       </c>
       <c r="D4" s="18">
-        <f>C4+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.5605324074074076E-3</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G4" s="18">
-        <f>H4-$H$2</f>
+        <f t="shared" si="6"/>
         <v>4.2013888888888743E-5</v>
       </c>
       <c r="H4" s="18">
         <v>2.5692129629629628E-3</v>
       </c>
       <c r="I4" s="18">
-        <f>H4+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.5697916666666664E-3</v>
       </c>
       <c r="J4" s="3"/>
@@ -6263,22 +6263,22 @@
         <v>0</v>
       </c>
       <c r="L4" s="18">
-        <f>M4-$M$2</f>
+        <f t="shared" si="7"/>
         <v>7.9745370370370647E-5</v>
       </c>
       <c r="M4" s="18">
         <v>3.9290509259259261E-3</v>
       </c>
       <c r="N4" s="18">
-        <f>M4+$N$1</f>
+        <f t="shared" si="2"/>
         <v>3.9296296296296301E-3</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q4" s="18">
-        <f>SUMIF($A$3:$A$65,P4,$B$3:$B$65)+SUMIF($F$3:$F$65,P4,$G$3:$G$65)+SUMIF($K$3:$K$65,P4,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>1.8182870370370358E-4</v>
       </c>
       <c r="S4" s="15" t="s">
@@ -6287,17 +6287,17 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B5" s="17">
-        <f>C5-$C$2</f>
+        <f t="shared" si="4"/>
         <v>4.1550925925925783E-5</v>
       </c>
       <c r="C5" s="18">
         <v>1.5621527777777778E-3</v>
       </c>
       <c r="D5" s="18">
-        <f>C5+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.5627314814814816E-3</v>
       </c>
       <c r="E5" s="1"/>
@@ -6305,29 +6305,29 @@
         <v>0</v>
       </c>
       <c r="G5" s="18">
-        <f>H5-$H$2</f>
+        <f t="shared" si="6"/>
         <v>4.629629629629645E-5</v>
       </c>
       <c r="H5" s="18">
         <v>2.5734953703703705E-3</v>
       </c>
       <c r="I5" s="18">
-        <f>H5+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.5740740740740741E-3</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L5" s="18">
-        <f>M5-$M$2</f>
+        <f t="shared" si="7"/>
         <v>9.8263888888889053E-5</v>
       </c>
       <c r="M5" s="18">
         <v>3.9475694444444445E-3</v>
       </c>
       <c r="N5" s="18">
-        <f>M5+$N$1</f>
+        <f t="shared" si="2"/>
         <v>3.9481481481481485E-3</v>
       </c>
       <c r="O5" s="2"/>
@@ -6335,7 +6335,7 @@
         <v>5</v>
       </c>
       <c r="Q5" s="18">
-        <f>SUMIF($A$3:$A$65,P5,$B$3:$B$65)+SUMIF($F$3:$F$65,P5,$G$3:$G$65)+SUMIF($K$3:$K$65,P5,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>2.0856481481481464E-4</v>
       </c>
       <c r="S5" s="6" t="s">
@@ -6347,14 +6347,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="17">
-        <f>C6-$C$2</f>
+        <f t="shared" si="4"/>
         <v>4.3402777777777624E-5</v>
       </c>
       <c r="C6" s="18">
         <v>1.5640046296296296E-3</v>
       </c>
       <c r="D6" s="18">
-        <f>C6+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.5645833333333334E-3</v>
       </c>
       <c r="E6" s="1"/>
@@ -6362,14 +6362,14 @@
         <v>18</v>
       </c>
       <c r="G6" s="18">
-        <f>H6-$H$2</f>
+        <f t="shared" si="6"/>
         <v>4.629629629629645E-5</v>
       </c>
       <c r="H6" s="18">
         <v>2.5734953703703705E-3</v>
       </c>
       <c r="I6" s="18">
-        <f>H6+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.5740740740740741E-3</v>
       </c>
       <c r="J6" s="3"/>
@@ -6377,14 +6377,14 @@
         <v>5</v>
       </c>
       <c r="L6" s="18">
-        <f>M6-$M$2</f>
+        <f t="shared" si="7"/>
         <v>1.1574074074074091E-4</v>
       </c>
       <c r="M6" s="18">
         <v>3.9650462962962964E-3</v>
       </c>
       <c r="N6" s="18">
-        <f>M6+$N$1</f>
+        <f t="shared" si="2"/>
         <v>3.9656250000000004E-3</v>
       </c>
       <c r="O6" s="2"/>
@@ -6392,7 +6392,7 @@
         <v>7</v>
       </c>
       <c r="Q6" s="18">
-        <f>SUMIF($A$3:$A$65,P6,$B$3:$B$65)+SUMIF($F$3:$F$65,P6,$G$3:$G$65)+SUMIF($K$3:$K$65,P6,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>2.3206018518518584E-4</v>
       </c>
     </row>
@@ -6401,14 +6401,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="17">
-        <f>C7-$C$2</f>
+        <f t="shared" si="4"/>
         <v>4.4791666666666287E-5</v>
       </c>
       <c r="C7" s="18">
         <v>1.5653935185185183E-3</v>
       </c>
       <c r="D7" s="18">
-        <f>C7+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.5659722222222221E-3</v>
       </c>
       <c r="E7" s="1"/>
@@ -6416,14 +6416,14 @@
         <v>5</v>
       </c>
       <c r="G7" s="18">
-        <f>H7-$H$2</f>
+        <f t="shared" si="6"/>
         <v>4.7453703703703633E-5</v>
       </c>
       <c r="H7" s="18">
         <v>2.5746527777777777E-3</v>
       </c>
       <c r="I7" s="18">
-        <f>H7+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.5752314814814813E-3</v>
       </c>
       <c r="J7" s="3"/>
@@ -6431,14 +6431,14 @@
         <v>7</v>
       </c>
       <c r="L7" s="18">
-        <f>M7-$M$2</f>
+        <f t="shared" si="7"/>
         <v>1.2789351851851937E-4</v>
       </c>
       <c r="M7" s="18">
         <v>3.9771990740740748E-3</v>
       </c>
       <c r="N7" s="18">
-        <f>M7+$N$1</f>
+        <f t="shared" si="2"/>
         <v>3.9777777777777789E-3</v>
       </c>
       <c r="O7" s="2"/>
@@ -6446,7 +6446,7 @@
         <v>18</v>
       </c>
       <c r="Q7" s="18">
-        <f>SUMIF($A$3:$A$65,P7,$B$3:$B$65)+SUMIF($F$3:$F$65,P7,$G$3:$G$65)+SUMIF($K$3:$K$65,P7,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>2.6354166666666648E-4</v>
       </c>
     </row>
@@ -6455,14 +6455,14 @@
         <v>5</v>
       </c>
       <c r="B8" s="17">
-        <f>C8-$C$2</f>
+        <f t="shared" si="4"/>
         <v>4.5370370370370096E-5</v>
       </c>
       <c r="C8" s="18">
         <v>1.5659722222222221E-3</v>
       </c>
       <c r="D8" s="18">
-        <f>C8+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.5665509259259259E-3</v>
       </c>
       <c r="E8" s="1"/>
@@ -6470,14 +6470,14 @@
         <v>7</v>
       </c>
       <c r="G8" s="18">
-        <f>H8-$H$2</f>
+        <f t="shared" si="6"/>
         <v>5.2662037037036827E-5</v>
       </c>
       <c r="H8" s="18">
         <v>2.5798611111111109E-3</v>
       </c>
       <c r="I8" s="18">
-        <f>H8+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.5804398148148145E-3</v>
       </c>
       <c r="J8" s="3"/>
@@ -6485,14 +6485,14 @@
         <v>2</v>
       </c>
       <c r="L8" s="18">
-        <f>M8-$M$2</f>
+        <f t="shared" si="7"/>
         <v>1.5590277777777824E-4</v>
       </c>
       <c r="M8" s="18">
         <v>4.0052083333333337E-3</v>
       </c>
       <c r="N8" s="18">
-        <f>M8+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.0057870370370377E-3</v>
       </c>
       <c r="O8" s="2"/>
@@ -6500,7 +6500,7 @@
         <v>2</v>
       </c>
       <c r="Q8" s="18">
-        <f>SUMIF($A$3:$A$65,P8,$B$3:$B$65)+SUMIF($F$3:$F$65,P8,$G$3:$G$65)+SUMIF($K$3:$K$65,P8,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>2.813657407407411E-4</v>
       </c>
     </row>
@@ -6509,14 +6509,14 @@
         <v>0</v>
       </c>
       <c r="B9" s="17">
-        <f>C9-$C$2</f>
+        <f t="shared" si="4"/>
         <v>4.5601851851851576E-5</v>
       </c>
       <c r="C9" s="18">
         <v>1.5662037037037036E-3</v>
       </c>
       <c r="D9" s="18">
-        <f>C9+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.5667824074074074E-3</v>
       </c>
       <c r="E9" s="1"/>
@@ -6524,14 +6524,14 @@
         <v>4</v>
       </c>
       <c r="G9" s="18">
-        <f>H9-$H$2</f>
+        <f t="shared" si="6"/>
         <v>5.3819444444444444E-5</v>
       </c>
       <c r="H9" s="18">
         <v>2.5810185185185185E-3</v>
       </c>
       <c r="I9" s="18">
-        <f>H9+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.5815972222222221E-3</v>
       </c>
       <c r="J9" s="3"/>
@@ -6539,14 +6539,14 @@
         <v>11</v>
       </c>
       <c r="L9" s="18">
-        <f>M9-$M$2</f>
+        <f t="shared" si="7"/>
         <v>1.7766203703703781E-4</v>
       </c>
       <c r="M9" s="18">
         <v>4.0269675925925933E-3</v>
       </c>
       <c r="N9" s="18">
-        <f>M9+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.0275462962962973E-3</v>
       </c>
       <c r="O9" s="2"/>
@@ -6554,7 +6554,7 @@
         <v>24</v>
       </c>
       <c r="Q9" s="18">
-        <f>SUMIF($A$3:$A$65,P9,$B$3:$B$65)+SUMIF($F$3:$F$65,P9,$G$3:$G$65)+SUMIF($K$3:$K$65,P9,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>2.8437499999999926E-4</v>
       </c>
     </row>
@@ -6563,14 +6563,14 @@
         <v>90</v>
       </c>
       <c r="B10" s="17">
-        <f>C10-$C$2</f>
+        <f t="shared" si="4"/>
         <v>4.7337962962962568E-5</v>
       </c>
       <c r="C10" s="18">
         <v>1.5679398148148145E-3</v>
       </c>
       <c r="D10" s="18">
-        <f>C10+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.5685185185185184E-3</v>
       </c>
       <c r="E10" s="1"/>
@@ -6578,14 +6578,14 @@
         <v>3</v>
       </c>
       <c r="G10" s="18">
-        <f>H10-$H$2</f>
+        <f t="shared" si="6"/>
         <v>5.532407407407439E-5</v>
       </c>
       <c r="H10" s="18">
         <v>2.5825231481481485E-3</v>
       </c>
       <c r="I10" s="18">
-        <f>H10+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.5831018518518521E-3</v>
       </c>
       <c r="J10" s="3"/>
@@ -6593,14 +6593,14 @@
         <v>18</v>
       </c>
       <c r="L10" s="18">
-        <f>M10-$M$2</f>
+        <f t="shared" si="7"/>
         <v>1.778935185185182E-4</v>
       </c>
       <c r="M10" s="18">
         <v>4.0271990740740737E-3</v>
       </c>
       <c r="N10" s="18">
-        <f>M10+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.0277777777777777E-3</v>
       </c>
       <c r="O10" s="2"/>
@@ -6608,7 +6608,7 @@
         <v>90</v>
       </c>
       <c r="Q10" s="18">
-        <f>SUMIF($A$3:$A$65,P10,$B$3:$B$65)+SUMIF($F$3:$F$65,P10,$G$3:$G$65)+SUMIF($K$3:$K$65,P10,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>2.9583333333333328E-4</v>
       </c>
     </row>
@@ -6617,14 +6617,14 @@
         <v>24</v>
       </c>
       <c r="B11" s="17">
-        <f>C11-$C$2</f>
+        <f t="shared" si="4"/>
         <v>4.8842592592592297E-5</v>
       </c>
       <c r="C11" s="18">
         <v>1.5694444444444443E-3</v>
       </c>
       <c r="D11" s="18">
-        <f>C11+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.5700231481481481E-3</v>
       </c>
       <c r="E11" s="1"/>
@@ -6632,14 +6632,14 @@
         <v>90</v>
       </c>
       <c r="G11" s="18">
-        <f>H11-$H$2</f>
+        <f t="shared" si="6"/>
         <v>5.5555555555555653E-5</v>
       </c>
       <c r="H11" s="18">
         <v>2.5827546296296297E-3</v>
       </c>
       <c r="I11" s="18">
-        <f>H11+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.5833333333333333E-3</v>
       </c>
       <c r="J11" s="3"/>
@@ -6647,14 +6647,14 @@
         <v>24</v>
       </c>
       <c r="L11" s="18">
-        <f>M11-$M$2</f>
+        <f t="shared" si="7"/>
         <v>1.7881944444444412E-4</v>
       </c>
       <c r="M11" s="18">
         <v>4.0281249999999996E-3</v>
       </c>
       <c r="N11" s="18">
-        <f>M11+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.0287037037037036E-3</v>
       </c>
       <c r="O11" s="2"/>
@@ -6662,7 +6662,7 @@
         <v>21</v>
       </c>
       <c r="Q11" s="18">
-        <f>SUMIF($A$3:$A$65,P11,$B$3:$B$65)+SUMIF($F$3:$F$65,P11,$G$3:$G$65)+SUMIF($K$3:$K$65,P11,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>3.0243055555555579E-4</v>
       </c>
     </row>
@@ -6671,14 +6671,14 @@
         <v>17</v>
       </c>
       <c r="B12" s="17">
-        <f>C12-$C$2</f>
+        <f t="shared" si="4"/>
         <v>4.9074074074073994E-5</v>
       </c>
       <c r="C12" s="18">
         <v>1.569675925925926E-3</v>
       </c>
       <c r="D12" s="18">
-        <f>C12+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.5702546296296298E-3</v>
       </c>
       <c r="E12" s="1"/>
@@ -6686,14 +6686,14 @@
         <v>24</v>
       </c>
       <c r="G12" s="18">
-        <f>H12-$H$2</f>
+        <f t="shared" si="6"/>
         <v>5.6712962962962837E-5</v>
       </c>
       <c r="H12" s="18">
         <v>2.5839120370370369E-3</v>
       </c>
       <c r="I12" s="18">
-        <f>H12+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.5844907407407405E-3</v>
       </c>
       <c r="J12" s="3"/>
@@ -6701,14 +6701,14 @@
         <v>10</v>
       </c>
       <c r="L12" s="18">
-        <f>M12-$M$2</f>
+        <f t="shared" si="7"/>
         <v>1.9097222222222172E-4</v>
       </c>
       <c r="M12" s="18">
         <v>4.0402777777777772E-3</v>
       </c>
       <c r="N12" s="18">
-        <f>M12+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.0408564814814812E-3</v>
       </c>
       <c r="O12" s="2"/>
@@ -6716,7 +6716,7 @@
         <v>17</v>
       </c>
       <c r="Q12" s="18">
-        <f>SUMIF($A$3:$A$65,P12,$B$3:$B$65)+SUMIF($F$3:$F$65,P12,$G$3:$G$65)+SUMIF($K$3:$K$65,P12,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>3.0312499999999979E-4</v>
       </c>
     </row>
@@ -6725,14 +6725,14 @@
         <v>15</v>
       </c>
       <c r="B13" s="17">
-        <f>C13-$C$2</f>
+        <f t="shared" si="4"/>
         <v>5.1157407407407098E-5</v>
       </c>
       <c r="C13" s="18">
         <v>1.5717592592592591E-3</v>
       </c>
       <c r="D13" s="18">
-        <f>C13+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.5723379629629629E-3</v>
       </c>
       <c r="E13" s="1"/>
@@ -6740,14 +6740,14 @@
         <v>17</v>
       </c>
       <c r="G13" s="18">
-        <f>H13-$H$2</f>
+        <f t="shared" si="6"/>
         <v>5.7870370370370454E-5</v>
       </c>
       <c r="H13" s="18">
         <v>2.5850694444444445E-3</v>
       </c>
       <c r="I13" s="18">
-        <f>H13+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.5856481481481481E-3</v>
       </c>
       <c r="J13" s="3"/>
@@ -6755,14 +6755,14 @@
         <v>21</v>
       </c>
       <c r="L13" s="18">
-        <f>M13-$M$2</f>
+        <f t="shared" si="7"/>
         <v>1.9120370370370385E-4</v>
       </c>
       <c r="M13" s="18">
         <v>4.0405092592592593E-3</v>
       </c>
       <c r="N13" s="18">
-        <f>M13+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.0410879629629633E-3</v>
       </c>
       <c r="O13" s="2"/>
@@ -6770,7 +6770,7 @@
         <v>20</v>
       </c>
       <c r="Q13" s="18">
-        <f>SUMIF($A$3:$A$65,P13,$B$3:$B$65)+SUMIF($F$3:$F$65,P13,$G$3:$G$65)+SUMIF($K$3:$K$65,P13,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>3.2893518518518493E-4</v>
       </c>
     </row>
@@ -6779,14 +6779,14 @@
         <v>7</v>
       </c>
       <c r="B14" s="17">
-        <f>C14-$C$2</f>
+        <f t="shared" si="4"/>
         <v>5.1504629629629643E-5</v>
       </c>
       <c r="C14" s="18">
         <v>1.5721064814814816E-3</v>
       </c>
       <c r="D14" s="18">
-        <f>C14+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.5726851851851854E-3</v>
       </c>
       <c r="E14" s="1"/>
@@ -6794,14 +6794,14 @@
         <v>8</v>
       </c>
       <c r="G14" s="18">
-        <f>H14-$H$2</f>
+        <f t="shared" si="6"/>
         <v>5.8680555555555309E-5</v>
       </c>
       <c r="H14" s="18">
         <v>2.5858796296296294E-3</v>
       </c>
       <c r="I14" s="18">
-        <f>H14+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.586458333333333E-3</v>
       </c>
       <c r="J14" s="3"/>
@@ -6809,14 +6809,14 @@
         <v>90</v>
       </c>
       <c r="L14" s="18">
-        <f>M14-$M$2</f>
+        <f t="shared" si="7"/>
         <v>1.9293981481481506E-4</v>
       </c>
       <c r="M14" s="18">
         <v>4.0422453703703705E-3</v>
       </c>
       <c r="N14" s="18">
-        <f>M14+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.0428240740740745E-3</v>
       </c>
       <c r="O14" s="2"/>
@@ -6824,7 +6824,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="18">
-        <f>SUMIF($A$3:$A$65,P14,$B$3:$B$65)+SUMIF($F$3:$F$65,P14,$G$3:$G$65)+SUMIF($K$3:$K$65,P14,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>3.311342592592591E-4</v>
       </c>
     </row>
@@ -6833,14 +6833,14 @@
         <v>21</v>
       </c>
       <c r="B15" s="17">
-        <f>C15-$C$2</f>
+        <f t="shared" si="4"/>
         <v>5.1620370370370275E-5</v>
       </c>
       <c r="C15" s="18">
         <v>1.5722222222222223E-3</v>
       </c>
       <c r="D15" s="18">
-        <f>C15+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.5728009259259261E-3</v>
       </c>
       <c r="E15" s="1"/>
@@ -6848,14 +6848,14 @@
         <v>12</v>
       </c>
       <c r="G15" s="18">
-        <f>H15-$H$2</f>
+        <f t="shared" si="6"/>
         <v>5.9259259259259334E-5</v>
       </c>
       <c r="H15" s="18">
         <v>2.5864583333333334E-3</v>
       </c>
       <c r="I15" s="18">
-        <f>H15+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.587037037037037E-3</v>
       </c>
       <c r="J15" s="3"/>
@@ -6863,14 +6863,14 @@
         <v>17</v>
       </c>
       <c r="L15" s="18">
-        <f>M15-$M$2</f>
+        <f t="shared" si="7"/>
         <v>1.9618055555555534E-4</v>
       </c>
       <c r="M15" s="18">
         <v>4.0454861111111108E-3</v>
       </c>
       <c r="N15" s="18">
-        <f>M15+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.0460648148148148E-3</v>
       </c>
       <c r="O15" s="2"/>
@@ -6878,7 +6878,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="18">
-        <f>SUMIF($A$3:$A$65,P15,$B$3:$B$65)+SUMIF($F$3:$F$65,P15,$G$3:$G$65)+SUMIF($K$3:$K$65,P15,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>3.3287037037037096E-4</v>
       </c>
     </row>
@@ -6887,14 +6887,14 @@
         <v>12</v>
       </c>
       <c r="B16" s="17">
-        <f>C16-$C$2</f>
+        <f t="shared" si="4"/>
         <v>5.1967592592592387E-5</v>
       </c>
       <c r="C16" s="18">
         <v>1.5725694444444444E-3</v>
       </c>
       <c r="D16" s="18">
-        <f>C16+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.5731481481481482E-3</v>
       </c>
       <c r="E16" s="1"/>
@@ -6902,14 +6902,14 @@
         <v>21</v>
       </c>
       <c r="G16" s="18">
-        <f>H16-$H$2</f>
+        <f t="shared" si="6"/>
         <v>5.9606481481481663E-5</v>
       </c>
       <c r="H16" s="18">
         <v>2.5868055555555557E-3</v>
       </c>
       <c r="I16" s="18">
-        <f>H16+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.5873842592592593E-3</v>
       </c>
       <c r="J16" s="3"/>
@@ -6917,14 +6917,14 @@
         <v>20</v>
       </c>
       <c r="L16" s="18">
-        <f>M16-$M$2</f>
+        <f t="shared" si="7"/>
         <v>2.1400462962962996E-4</v>
       </c>
       <c r="M16" s="18">
         <v>4.0633101851851854E-3</v>
       </c>
       <c r="N16" s="18">
-        <f>M16+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.0638888888888895E-3</v>
       </c>
       <c r="O16" s="2"/>
@@ -6932,7 +6932,7 @@
         <v>10</v>
       </c>
       <c r="Q16" s="18">
-        <f>SUMIF($A$3:$A$65,P16,$B$3:$B$65)+SUMIF($F$3:$F$65,P16,$G$3:$G$65)+SUMIF($K$3:$K$65,P16,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>3.3530092592592531E-4</v>
       </c>
     </row>
@@ -6941,14 +6941,14 @@
         <v>8</v>
       </c>
       <c r="B17" s="17">
-        <f>C17-$C$2</f>
+        <f t="shared" si="4"/>
         <v>5.4398148148147819E-5</v>
       </c>
       <c r="C17" s="18">
         <v>1.5749999999999998E-3</v>
       </c>
       <c r="D17" s="18">
-        <f>C17+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.5755787037037036E-3</v>
       </c>
       <c r="E17" s="1"/>
@@ -6956,14 +6956,14 @@
         <v>15</v>
       </c>
       <c r="G17" s="18">
-        <f>H17-$H$2</f>
+        <f t="shared" si="6"/>
         <v>5.9606481481481663E-5</v>
       </c>
       <c r="H17" s="18">
         <v>2.5868055555555557E-3</v>
       </c>
       <c r="I17" s="18">
-        <f>H17+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.5873842592592593E-3</v>
       </c>
       <c r="J17" s="3"/>
@@ -6971,14 +6971,14 @@
         <v>12</v>
       </c>
       <c r="L17" s="18">
-        <f>M17-$M$2</f>
+        <f t="shared" si="7"/>
         <v>2.1990740740740738E-4</v>
       </c>
       <c r="M17" s="18">
         <v>4.0692129629629628E-3</v>
       </c>
       <c r="N17" s="18">
-        <f>M17+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.0697916666666669E-3</v>
       </c>
       <c r="O17" s="2"/>
@@ -6986,7 +6986,7 @@
         <v>15</v>
       </c>
       <c r="Q17" s="18">
-        <f>SUMIF($A$3:$A$65,P17,$B$3:$B$65)+SUMIF($F$3:$F$65,P17,$G$3:$G$65)+SUMIF($K$3:$K$65,P17,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>3.3865740740740753E-4</v>
       </c>
     </row>
@@ -6995,14 +6995,14 @@
         <v>20</v>
       </c>
       <c r="B18" s="17">
-        <f>C18-$C$2</f>
+        <f t="shared" si="4"/>
         <v>5.4398148148147819E-5</v>
       </c>
       <c r="C18" s="18">
         <v>1.5749999999999998E-3</v>
       </c>
       <c r="D18" s="18">
-        <f>C18+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.5755787037037036E-3</v>
       </c>
       <c r="E18" s="1"/>
@@ -7010,14 +7010,14 @@
         <v>20</v>
       </c>
       <c r="G18" s="18">
-        <f>H18-$H$2</f>
+        <f t="shared" si="6"/>
         <v>6.053240740740715E-5</v>
       </c>
       <c r="H18" s="18">
         <v>2.5877314814814812E-3</v>
       </c>
       <c r="I18" s="18">
-        <f>H18+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.5883101851851848E-3</v>
       </c>
       <c r="J18" s="3"/>
@@ -7025,14 +7025,14 @@
         <v>15</v>
       </c>
       <c r="L18" s="18">
-        <f>M18-$M$2</f>
+        <f t="shared" si="7"/>
         <v>2.2789351851851877E-4</v>
       </c>
       <c r="M18" s="18">
         <v>4.0771990740740742E-3</v>
       </c>
       <c r="N18" s="18">
-        <f>M18+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.0777777777777783E-3</v>
       </c>
       <c r="O18" s="2"/>
@@ -7040,7 +7040,7 @@
         <v>8</v>
       </c>
       <c r="Q18" s="18">
-        <f>SUMIF($A$3:$A$65,P18,$B$3:$B$65)+SUMIF($F$3:$F$65,P18,$G$3:$G$65)+SUMIF($K$3:$K$65,P18,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>3.6481481481481456E-4</v>
       </c>
     </row>
@@ -7049,14 +7049,14 @@
         <v>19</v>
       </c>
       <c r="B19" s="17">
-        <f>C19-$C$2</f>
+        <f t="shared" si="4"/>
         <v>5.4861111111111213E-5</v>
       </c>
       <c r="C19" s="18">
         <v>1.5754629629629632E-3</v>
       </c>
       <c r="D19" s="18">
-        <f>C19+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.576041666666667E-3</v>
       </c>
       <c r="E19" s="1"/>
@@ -7064,14 +7064,14 @@
         <v>2</v>
       </c>
       <c r="G19" s="18">
-        <f>H19-$H$2</f>
+        <f t="shared" si="6"/>
         <v>6.3078703703703647E-5</v>
       </c>
       <c r="H19" s="18">
         <v>2.5902777777777777E-3</v>
       </c>
       <c r="I19" s="18">
-        <f>H19+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.5908564814814813E-3</v>
       </c>
       <c r="J19" s="3"/>
@@ -7079,14 +7079,14 @@
         <v>68</v>
       </c>
       <c r="L19" s="18">
-        <f>M19-$M$2</f>
+        <f t="shared" si="7"/>
         <v>2.4039351851851826E-4</v>
       </c>
       <c r="M19" s="18">
         <v>4.0896990740740737E-3</v>
       </c>
       <c r="N19" s="18">
-        <f>M19+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.0902777777777777E-3</v>
       </c>
       <c r="O19" s="2"/>
@@ -7094,7 +7094,7 @@
         <v>68</v>
       </c>
       <c r="Q19" s="18">
-        <f>SUMIF($A$3:$A$65,P19,$B$3:$B$65)+SUMIF($F$3:$F$65,P19,$G$3:$G$65)+SUMIF($K$3:$K$65,P19,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>3.7627314814814771E-4</v>
       </c>
     </row>
@@ -7103,14 +7103,14 @@
         <v>6</v>
       </c>
       <c r="B20" s="17">
-        <f>C20-$C$2</f>
+        <f t="shared" si="4"/>
         <v>6.0069444444444189E-5</v>
       </c>
       <c r="C20" s="18">
         <v>1.5806712962962962E-3</v>
       </c>
       <c r="D20" s="18">
-        <f>C20+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.58125E-3</v>
       </c>
       <c r="E20" s="1"/>
@@ -7118,14 +7118,14 @@
         <v>6</v>
       </c>
       <c r="G20" s="18">
-        <f>H20-$H$2</f>
+        <f t="shared" si="6"/>
         <v>7.0370370370370378E-5</v>
       </c>
       <c r="H20" s="18">
         <v>2.5975694444444444E-3</v>
       </c>
       <c r="I20" s="18">
-        <f>H20+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.598148148148148E-3</v>
       </c>
       <c r="J20" s="3"/>
@@ -7133,14 +7133,14 @@
         <v>6</v>
       </c>
       <c r="L20" s="18">
-        <f>M20-$M$2</f>
+        <f t="shared" si="7"/>
         <v>2.490740740740743E-4</v>
       </c>
       <c r="M20" s="18">
         <v>4.0983796296296298E-3</v>
       </c>
       <c r="N20" s="18">
-        <f>M20+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.0989583333333338E-3</v>
       </c>
       <c r="O20" s="2"/>
@@ -7148,7 +7148,7 @@
         <v>6</v>
       </c>
       <c r="Q20" s="18">
-        <f>SUMIF($A$3:$A$65,P20,$B$3:$B$65)+SUMIF($F$3:$F$65,P20,$G$3:$G$65)+SUMIF($K$3:$K$65,P20,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>3.7951388888888887E-4</v>
       </c>
     </row>
@@ -7157,14 +7157,14 @@
         <v>16</v>
       </c>
       <c r="B21" s="17">
-        <f>C21-$C$2</f>
+        <f t="shared" si="4"/>
         <v>6.1574074074073918E-5</v>
       </c>
       <c r="C21" s="18">
         <v>1.5821759259259259E-3</v>
       </c>
       <c r="D21" s="18">
-        <f>C21+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.5827546296296297E-3</v>
       </c>
       <c r="E21" s="1"/>
@@ -7172,14 +7172,14 @@
         <v>10</v>
       </c>
       <c r="G21" s="18">
-        <f>H21-$H$2</f>
+        <f t="shared" si="6"/>
         <v>7.2916666666666876E-5</v>
       </c>
       <c r="H21" s="18">
         <v>2.6001157407407409E-3</v>
       </c>
       <c r="I21" s="18">
-        <f>H21+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6006944444444445E-3</v>
       </c>
       <c r="J21" s="3"/>
@@ -7187,14 +7187,14 @@
         <v>8</v>
       </c>
       <c r="L21" s="18">
-        <f>M21-$M$2</f>
+        <f t="shared" si="7"/>
         <v>2.5173611111111143E-4</v>
       </c>
       <c r="M21" s="18">
         <v>4.1010416666666669E-3</v>
       </c>
       <c r="N21" s="18">
-        <f>M21+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.1016203703703709E-3</v>
       </c>
       <c r="O21" s="2"/>
@@ -7202,7 +7202,7 @@
         <v>16</v>
       </c>
       <c r="Q21" s="18">
-        <f>SUMIF($A$3:$A$65,P21,$B$3:$B$65)+SUMIF($F$3:$F$65,P21,$G$3:$G$65)+SUMIF($K$3:$K$65,P21,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>4.0266203703703666E-4</v>
       </c>
     </row>
@@ -7211,14 +7211,14 @@
         <v>68</v>
       </c>
       <c r="B22" s="17">
-        <f>C22-$C$2</f>
+        <f t="shared" si="4"/>
         <v>6.1805555555555398E-5</v>
       </c>
       <c r="C22" s="18">
         <v>1.5824074074074074E-3</v>
       </c>
       <c r="D22" s="18">
-        <f>C22+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.5829861111111112E-3</v>
       </c>
       <c r="E22" s="1"/>
@@ -7226,14 +7226,14 @@
         <v>22</v>
       </c>
       <c r="G22" s="18">
-        <f>H22-$H$2</f>
+        <f t="shared" si="6"/>
         <v>7.2916666666666876E-5</v>
       </c>
       <c r="H22" s="18">
         <v>2.6001157407407409E-3</v>
       </c>
       <c r="I22" s="18">
-        <f>H22+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6006944444444445E-3</v>
       </c>
       <c r="J22" s="3"/>
@@ -7241,14 +7241,14 @@
         <v>16</v>
       </c>
       <c r="L22" s="18">
-        <f>M22-$M$2</f>
+        <f t="shared" si="7"/>
         <v>2.658564814814815E-4</v>
       </c>
       <c r="M22" s="18">
         <v>4.115162037037037E-3</v>
       </c>
       <c r="N22" s="18">
-        <f>M22+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.115740740740741E-3</v>
       </c>
       <c r="O22" s="2"/>
@@ -7256,7 +7256,7 @@
         <v>22</v>
       </c>
       <c r="Q22" s="18">
-        <f>SUMIF($A$3:$A$65,P22,$B$3:$B$65)+SUMIF($F$3:$F$65,P22,$G$3:$G$65)+SUMIF($K$3:$K$65,P22,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>4.2384259259259263E-4</v>
       </c>
     </row>
@@ -7265,14 +7265,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="17">
-        <f>C23-$C$2</f>
+        <f t="shared" si="4"/>
         <v>6.2384259259259207E-5</v>
       </c>
       <c r="C23" s="18">
         <v>1.5829861111111112E-3</v>
       </c>
       <c r="D23" s="18">
-        <f>C23+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.583564814814815E-3</v>
       </c>
       <c r="E23" s="1"/>
@@ -7280,14 +7280,14 @@
         <v>68</v>
       </c>
       <c r="G23" s="18">
-        <f>H23-$H$2</f>
+        <f t="shared" si="6"/>
         <v>7.407407407407406E-5</v>
       </c>
       <c r="H23" s="18">
         <v>2.6012731481481481E-3</v>
       </c>
       <c r="I23" s="18">
-        <f>H23+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6018518518518517E-3</v>
       </c>
       <c r="J23" s="3"/>
@@ -7295,14 +7295,14 @@
         <v>9</v>
       </c>
       <c r="L23" s="18">
-        <f>M23-$M$2</f>
+        <f t="shared" si="7"/>
         <v>2.8576388888888922E-4</v>
       </c>
       <c r="M23" s="18">
         <v>4.1350694444444447E-3</v>
       </c>
       <c r="N23" s="18">
-        <f>M23+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.1356481481481487E-3</v>
       </c>
       <c r="O23" s="2"/>
@@ -7310,7 +7310,7 @@
         <v>9</v>
       </c>
       <c r="Q23" s="18">
-        <f>SUMIF($A$3:$A$65,P23,$B$3:$B$65)+SUMIF($F$3:$F$65,P23,$G$3:$G$65)+SUMIF($K$3:$K$65,P23,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>4.3842592592592631E-4</v>
       </c>
     </row>
@@ -7319,14 +7319,14 @@
         <v>22</v>
       </c>
       <c r="B24" s="17">
-        <f>C24-$C$2</f>
+        <f t="shared" si="4"/>
         <v>6.2731481481481536E-5</v>
       </c>
       <c r="C24" s="18">
         <v>1.5833333333333335E-3</v>
       </c>
       <c r="D24" s="18">
-        <f>C24+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.5839120370370373E-3</v>
       </c>
       <c r="E24" s="1"/>
@@ -7334,14 +7334,14 @@
         <v>16</v>
       </c>
       <c r="G24" s="18">
-        <f>H24-$H$2</f>
+        <f t="shared" si="6"/>
         <v>7.5231481481481243E-5</v>
       </c>
       <c r="H24" s="18">
         <v>2.6024305555555553E-3</v>
       </c>
       <c r="I24" s="18">
-        <f>H24+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6030092592592589E-3</v>
       </c>
       <c r="J24" s="3"/>
@@ -7349,14 +7349,14 @@
         <v>22</v>
       </c>
       <c r="L24" s="18">
-        <f>M24-$M$2</f>
+        <f t="shared" si="7"/>
         <v>2.8819444444444422E-4</v>
       </c>
       <c r="M24" s="18">
         <v>4.1374999999999997E-3</v>
       </c>
       <c r="N24" s="18">
-        <f>M24+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.1380787037037037E-3</v>
       </c>
       <c r="O24" s="2"/>
@@ -7364,7 +7364,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="18">
-        <f>SUMIF($A$3:$A$65,P24,$B$3:$B$65)+SUMIF($F$3:$F$65,P24,$G$3:$G$65)+SUMIF($K$3:$K$65,P24,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>4.4976851851851905E-4</v>
       </c>
     </row>
@@ -7373,14 +7373,14 @@
         <v>1</v>
       </c>
       <c r="B25" s="17">
-        <f>C25-$C$2</f>
+        <f t="shared" si="4"/>
         <v>6.6435185185185E-5</v>
       </c>
       <c r="C25" s="18">
         <v>1.587037037037037E-3</v>
       </c>
       <c r="D25" s="18">
-        <f>C25+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.5876157407407408E-3</v>
       </c>
       <c r="E25" s="1"/>
@@ -7388,14 +7388,14 @@
         <v>1</v>
       </c>
       <c r="G25" s="18">
-        <f>H25-$H$2</f>
+        <f t="shared" si="6"/>
         <v>8.0092592592592975E-5</v>
       </c>
       <c r="H25" s="18">
         <v>2.607291666666667E-3</v>
       </c>
       <c r="I25" s="18">
-        <f>H25+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6078703703703706E-3</v>
       </c>
       <c r="J25" s="3"/>
@@ -7403,14 +7403,14 @@
         <v>162</v>
       </c>
       <c r="L25" s="18">
-        <f>M25-$M$2</f>
+        <f t="shared" si="7"/>
         <v>2.9884259259259274E-4</v>
       </c>
       <c r="M25" s="18">
         <v>4.1481481481481482E-3</v>
       </c>
       <c r="N25" s="18">
-        <f>M25+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.1487268518518522E-3</v>
       </c>
       <c r="O25" s="2"/>
@@ -7418,7 +7418,7 @@
         <v>162</v>
       </c>
       <c r="Q25" s="18">
-        <f>SUMIF($A$3:$A$65,P25,$B$3:$B$65)+SUMIF($F$3:$F$65,P25,$G$3:$G$65)+SUMIF($K$3:$K$65,P25,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>4.8217592592592604E-4</v>
       </c>
     </row>
@@ -7427,14 +7427,14 @@
         <v>9</v>
       </c>
       <c r="B26" s="17">
-        <f>C26-$C$2</f>
+        <f t="shared" si="4"/>
         <v>6.8171296296296209E-5</v>
       </c>
       <c r="C26" s="18">
         <v>1.5887731481481482E-3</v>
       </c>
       <c r="D26" s="18">
-        <f>C26+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.589351851851852E-3</v>
       </c>
       <c r="E26" s="1"/>
@@ -7442,14 +7442,14 @@
         <v>11</v>
       </c>
       <c r="G26" s="18">
-        <f>H26-$H$2</f>
+        <f t="shared" si="6"/>
         <v>8.2407407407407342E-5</v>
       </c>
       <c r="H26" s="18">
         <v>2.6096064814814814E-3</v>
       </c>
       <c r="I26" s="18">
-        <f>H26+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.610185185185185E-3</v>
       </c>
       <c r="J26" s="3"/>
@@ -7457,14 +7457,14 @@
         <v>1</v>
       </c>
       <c r="L26" s="18">
-        <f>M26-$M$2</f>
+        <f t="shared" si="7"/>
         <v>3.0324074074074107E-4</v>
       </c>
       <c r="M26" s="18">
         <v>4.1525462962962965E-3</v>
       </c>
       <c r="N26" s="18">
-        <f>M26+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.1531250000000006E-3</v>
       </c>
       <c r="O26" s="2"/>
@@ -7472,7 +7472,7 @@
         <v>25</v>
       </c>
       <c r="Q26" s="18">
-        <f>SUMIF($A$3:$A$65,P26,$B$3:$B$65)+SUMIF($F$3:$F$65,P26,$G$3:$G$65)+SUMIF($K$3:$K$65,P26,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>5.2546296296296325E-4</v>
       </c>
     </row>
@@ -7481,14 +7481,14 @@
         <v>10</v>
       </c>
       <c r="B27" s="17">
-        <f>C27-$C$2</f>
+        <f t="shared" si="4"/>
         <v>7.1412037037036713E-5</v>
       </c>
       <c r="C27" s="18">
         <v>1.5920138888888887E-3</v>
       </c>
       <c r="D27" s="18">
-        <f>C27+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.5925925925925925E-3</v>
       </c>
       <c r="E27" s="1"/>
@@ -7496,14 +7496,14 @@
         <v>9</v>
       </c>
       <c r="G27" s="18">
-        <f>H27-$H$2</f>
+        <f t="shared" si="6"/>
         <v>8.449074074074088E-5</v>
       </c>
       <c r="H27" s="18">
         <v>2.6116898148148149E-3</v>
       </c>
       <c r="I27" s="18">
-        <f>H27+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6122685185185185E-3</v>
       </c>
       <c r="J27" s="3"/>
@@ -7511,14 +7511,14 @@
         <v>25</v>
       </c>
       <c r="L27" s="18">
-        <f>M27-$M$2</f>
+        <f t="shared" si="7"/>
         <v>3.3101851851851868E-4</v>
       </c>
       <c r="M27" s="18">
         <v>4.1803240740740742E-3</v>
       </c>
       <c r="N27" s="18">
-        <f>M27+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.1809027777777782E-3</v>
       </c>
       <c r="O27" s="2"/>
@@ -7526,7 +7526,7 @@
         <v>4</v>
       </c>
       <c r="Q27" s="18">
-        <f>SUMIF($A$3:$A$65,P27,$B$3:$B$65)+SUMIF($F$3:$F$65,P27,$G$3:$G$65)+SUMIF($K$3:$K$65,P27,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>5.2627314814814854E-4</v>
       </c>
     </row>
@@ -7535,14 +7535,14 @@
         <v>11</v>
       </c>
       <c r="B28" s="17">
-        <f>C28-$C$2</f>
+        <f t="shared" si="4"/>
         <v>7.2800925925925811E-5</v>
       </c>
       <c r="C28" s="18">
         <v>1.5934027777777778E-3</v>
       </c>
       <c r="D28" s="18">
-        <f>C28+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.5939814814814816E-3</v>
       </c>
       <c r="E28" s="1"/>
@@ -7550,14 +7550,14 @@
         <v>162</v>
       </c>
       <c r="G28" s="18">
-        <f>H28-$H$2</f>
+        <f t="shared" si="6"/>
         <v>1.0011574074074089E-4</v>
       </c>
       <c r="H28" s="18">
         <v>2.627314814814815E-3</v>
       </c>
       <c r="I28" s="18">
-        <f>H28+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6278935185185186E-3</v>
       </c>
       <c r="J28" s="3"/>
@@ -7565,14 +7565,14 @@
         <v>4</v>
       </c>
       <c r="L28" s="18">
-        <f>M28-$M$2</f>
+        <f t="shared" si="7"/>
         <v>4.2905092592592647E-4</v>
       </c>
       <c r="M28" s="18">
         <v>4.2783564814814819E-3</v>
       </c>
       <c r="N28" s="18">
-        <f>M28+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.278935185185186E-3</v>
       </c>
       <c r="O28" s="2"/>
@@ -7580,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="Q28" s="18">
-        <f>SUMIF($A$3:$A$65,P28,$B$3:$B$65)+SUMIF($F$3:$F$65,P28,$G$3:$G$65)+SUMIF($K$3:$K$65,P28,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>5.3877314814814825E-4</v>
       </c>
     </row>
@@ -7589,14 +7589,14 @@
         <v>162</v>
       </c>
       <c r="B29" s="17">
-        <f>C29-$C$2</f>
+        <f t="shared" si="4"/>
         <v>8.3217592592592414E-5</v>
       </c>
       <c r="C29" s="18">
         <v>1.6038194444444444E-3</v>
       </c>
       <c r="D29" s="18">
-        <f>C29+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.6043981481481482E-3</v>
       </c>
       <c r="E29" s="1"/>
@@ -7604,14 +7604,14 @@
         <v>25</v>
       </c>
       <c r="G29" s="18">
-        <f>H29-$H$2</f>
+        <f t="shared" si="6"/>
         <v>1.0682870370370403E-4</v>
       </c>
       <c r="H29" s="18">
         <v>2.6340277777777781E-3</v>
       </c>
       <c r="I29" s="18">
-        <f>H29+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6346064814814817E-3</v>
       </c>
       <c r="J29" s="7"/>
@@ -7619,21 +7619,21 @@
         <v>3</v>
       </c>
       <c r="L29" s="18">
-        <f>M29-$M$2</f>
+        <f t="shared" si="7"/>
         <v>4.3865740740740757E-4</v>
       </c>
       <c r="M29" s="18">
         <v>4.287962962962963E-3</v>
       </c>
       <c r="N29" s="18">
-        <f>M29+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.2885416666666671E-3</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>19</v>
       </c>
       <c r="Q29" s="18">
-        <f>SUMIF($A$3:$A$65,P29,$B$3:$B$65)+SUMIF($F$3:$F$65,P29,$G$3:$G$65)+SUMIF($K$3:$K$65,P29,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>6.9224537037037019E-4</v>
       </c>
     </row>
@@ -7642,14 +7642,14 @@
         <v>226</v>
       </c>
       <c r="B30" s="17">
-        <f>C30-$C$2</f>
+        <f t="shared" si="4"/>
         <v>8.3912037037037071E-5</v>
       </c>
       <c r="C30" s="18">
         <v>1.604513888888889E-3</v>
       </c>
       <c r="D30" s="18">
-        <f>C30+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.6050925925925929E-3</v>
       </c>
       <c r="E30" s="1"/>
@@ -7657,14 +7657,14 @@
         <v>226</v>
       </c>
       <c r="G30" s="18">
-        <f>H30-$H$2</f>
+        <f t="shared" si="6"/>
         <v>1.11342592592593E-4</v>
       </c>
       <c r="H30" s="18">
         <v>2.6385416666666671E-3</v>
       </c>
       <c r="I30" s="18">
-        <f>H30+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6391203703703707E-3</v>
       </c>
       <c r="J30" s="7"/>
@@ -7672,21 +7672,21 @@
         <v>19</v>
       </c>
       <c r="L30" s="18">
-        <f>M30-$M$2</f>
+        <f t="shared" si="7"/>
         <v>4.9872685185185176E-4</v>
       </c>
       <c r="M30" s="18">
         <v>4.3480324074074072E-3</v>
       </c>
       <c r="N30" s="18">
-        <f>M30+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.3486111111111113E-3</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>240</v>
       </c>
       <c r="Q30" s="18">
-        <f>SUMIF($A$3:$A$65,P30,$B$3:$B$65)+SUMIF($F$3:$F$65,P30,$G$3:$G$65)+SUMIF($K$3:$K$65,P30,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>7.6724537037037061E-4</v>
       </c>
     </row>
@@ -7695,14 +7695,14 @@
         <v>25</v>
       </c>
       <c r="B31" s="17">
-        <f>C31-$C$2</f>
+        <f t="shared" si="4"/>
         <v>8.7615740740740536E-5</v>
       </c>
       <c r="C31" s="18">
         <v>1.6082175925925925E-3</v>
       </c>
       <c r="D31" s="18">
-        <f>C31+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.6087962962962963E-3</v>
       </c>
       <c r="E31" s="1"/>
@@ -7710,14 +7710,14 @@
         <v>240</v>
       </c>
       <c r="G31" s="18">
-        <f>H31-$H$2</f>
+        <f t="shared" si="6"/>
         <v>1.1747685185185168E-4</v>
       </c>
       <c r="H31" s="18">
         <v>2.6446759259259258E-3</v>
       </c>
       <c r="I31" s="18">
-        <f>H31+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6452546296296293E-3</v>
       </c>
       <c r="J31" s="7"/>
@@ -7725,21 +7725,21 @@
         <v>240</v>
       </c>
       <c r="L31" s="18">
-        <f>M31-$M$2</f>
+        <f t="shared" si="7"/>
         <v>5.5613425925925969E-4</v>
       </c>
       <c r="M31" s="18">
         <v>4.4054398148148152E-3</v>
       </c>
       <c r="N31" s="18">
-        <f>M31+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.4060185185185192E-3</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>220</v>
       </c>
       <c r="Q31" s="18">
-        <f>SUMIF($A$3:$A$65,P31,$B$3:$B$65)+SUMIF($F$3:$F$65,P31,$G$3:$G$65)+SUMIF($K$3:$K$65,P31,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>1.0021990740740742E-3</v>
       </c>
     </row>
@@ -7748,14 +7748,14 @@
         <v>240</v>
       </c>
       <c r="B32" s="17">
-        <f>C32-$C$2</f>
+        <f t="shared" si="4"/>
         <v>9.3634259259259235E-5</v>
       </c>
       <c r="C32" s="18">
         <v>1.6142361111111112E-3</v>
       </c>
       <c r="D32" s="18">
-        <f>C32+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.614814814814815E-3</v>
       </c>
       <c r="E32" s="1"/>
@@ -7763,14 +7763,14 @@
         <v>219</v>
       </c>
       <c r="G32" s="18">
-        <f>H32-$H$2</f>
+        <f t="shared" si="6"/>
         <v>1.2523148148148137E-4</v>
       </c>
       <c r="H32" s="18">
         <v>2.6524305555555554E-3</v>
       </c>
       <c r="I32" s="18">
-        <f>H32+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.653009259259259E-3</v>
       </c>
       <c r="J32" s="7"/>
@@ -7778,21 +7778,21 @@
         <v>228</v>
       </c>
       <c r="L32" s="18">
-        <f>M32-$M$2</f>
+        <f t="shared" si="7"/>
         <v>6.8657407407407382E-4</v>
       </c>
       <c r="M32" s="18">
         <v>4.5358796296296293E-3</v>
       </c>
       <c r="N32" s="18">
-        <f>M32+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.5364583333333333E-3</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>226</v>
       </c>
       <c r="Q32" s="18">
-        <f>SUMIF($A$3:$A$65,P32,$B$3:$B$65)+SUMIF($F$3:$F$65,P32,$G$3:$G$65)+SUMIF($K$3:$K$65,P32,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>1.0137731481481488E-3</v>
       </c>
     </row>
@@ -7801,14 +7801,14 @@
         <v>219</v>
       </c>
       <c r="B33" s="17">
-        <f>C33-$C$2</f>
+        <f t="shared" si="4"/>
         <v>9.5138888888888747E-5</v>
       </c>
       <c r="C33" s="18">
         <v>1.6157407407407407E-3</v>
       </c>
       <c r="D33" s="18">
-        <f>C33+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.6163194444444445E-3</v>
       </c>
       <c r="E33" s="1"/>
@@ -7816,14 +7816,14 @@
         <v>19</v>
       </c>
       <c r="G33" s="18">
-        <f>H33-$H$2</f>
+        <f t="shared" si="6"/>
         <v>1.3865740740740722E-4</v>
       </c>
       <c r="H33" s="18">
         <v>2.6658564814814813E-3</v>
       </c>
       <c r="I33" s="18">
-        <f>H33+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6664351851851849E-3</v>
       </c>
       <c r="J33" s="7"/>
@@ -7831,21 +7831,21 @@
         <v>204</v>
       </c>
       <c r="L33" s="18">
-        <f>M33-$M$2</f>
+        <f t="shared" si="7"/>
         <v>7.2048611111111098E-4</v>
       </c>
       <c r="M33" s="18">
         <v>4.5697916666666664E-3</v>
       </c>
       <c r="N33" s="18">
-        <f>M33+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.5703703703703705E-3</v>
       </c>
       <c r="P33" s="15" t="s">
         <v>219</v>
       </c>
       <c r="Q33" s="18">
-        <f>SUMIF($A$3:$A$65,P33,$B$3:$B$65)+SUMIF($F$3:$F$65,P33,$G$3:$G$65)+SUMIF($K$3:$K$65,P33,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>1.0153935185185181E-3</v>
       </c>
     </row>
@@ -7854,14 +7854,14 @@
         <v>220</v>
       </c>
       <c r="B34" s="17">
-        <f>C34-$C$2</f>
+        <f t="shared" si="4"/>
         <v>1.0787037037037015E-4</v>
       </c>
       <c r="C34" s="18">
         <v>1.6284722222222221E-3</v>
       </c>
       <c r="D34" s="18">
-        <f>C34+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.6290509259259259E-3</v>
       </c>
       <c r="E34" s="1"/>
@@ -7869,14 +7869,14 @@
         <v>220</v>
       </c>
       <c r="G34" s="18">
-        <f>H34-$H$2</f>
+        <f t="shared" si="6"/>
         <v>1.4097222222222245E-4</v>
       </c>
       <c r="H34" s="18">
         <v>2.6681712962962965E-3</v>
       </c>
       <c r="I34" s="18">
-        <f>H34+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6687500000000001E-3</v>
       </c>
       <c r="J34" s="7"/>
@@ -7884,21 +7884,21 @@
         <v>220</v>
       </c>
       <c r="L34" s="18">
-        <f>M34-$M$2</f>
+        <f t="shared" si="7"/>
         <v>7.5335648148148159E-4</v>
       </c>
       <c r="M34" s="18">
         <v>4.6026620370370371E-3</v>
       </c>
       <c r="N34" s="18">
-        <f>M34+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.6032407407407411E-3</v>
       </c>
       <c r="P34" s="15" t="s">
         <v>223</v>
       </c>
       <c r="Q34" s="18">
-        <f>SUMIF($A$3:$A$65,P34,$B$3:$B$65)+SUMIF($F$3:$F$65,P34,$G$3:$G$65)+SUMIF($K$3:$K$65,P34,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>1.1341435185185183E-3</v>
       </c>
     </row>
@@ -7907,14 +7907,14 @@
         <v>223</v>
       </c>
       <c r="B35" s="17">
-        <f>C35-$C$2</f>
+        <f t="shared" si="4"/>
         <v>1.1979166666666648E-4</v>
       </c>
       <c r="C35" s="18">
         <v>1.6403935185185185E-3</v>
       </c>
       <c r="D35" s="18">
-        <f>C35+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.6409722222222223E-3</v>
       </c>
       <c r="E35" s="1"/>
@@ -7922,14 +7922,14 @@
         <v>223</v>
       </c>
       <c r="G35" s="18">
-        <f>H35-$H$2</f>
+        <f t="shared" si="6"/>
         <v>1.5682870370370373E-4</v>
       </c>
       <c r="H35" s="18">
         <v>2.6840277777777778E-3</v>
       </c>
       <c r="I35" s="18">
-        <f>H35+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6846064814814814E-3</v>
       </c>
       <c r="J35" s="7"/>
@@ -7937,21 +7937,21 @@
         <v>219</v>
       </c>
       <c r="L35" s="18">
-        <f>M35-$M$2</f>
+        <f t="shared" si="7"/>
         <v>7.95023148148148E-4</v>
       </c>
       <c r="M35" s="18">
         <v>4.6443287037037035E-3</v>
       </c>
       <c r="N35" s="18">
-        <f>M35+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.6449074074074075E-3</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>228</v>
       </c>
       <c r="Q35" s="18">
-        <f>SUMIF($A$3:$A$65,P35,$B$3:$B$65)+SUMIF($F$3:$F$65,P35,$G$3:$G$65)+SUMIF($K$3:$K$65,P35,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>1.2182870370370366E-3</v>
       </c>
     </row>
@@ -7960,14 +7960,14 @@
         <v>228</v>
       </c>
       <c r="B36" s="17">
-        <f>C36-$C$2</f>
+        <f t="shared" si="4"/>
         <v>2.4618055555555526E-4</v>
       </c>
       <c r="C36" s="18">
         <v>1.7667824074074072E-3</v>
       </c>
       <c r="D36" s="18">
-        <f>C36+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.767361111111111E-3</v>
       </c>
       <c r="E36" s="1"/>
@@ -7975,14 +7975,14 @@
         <v>228</v>
       </c>
       <c r="G36" s="18">
-        <f>H36-$H$2</f>
+        <f t="shared" si="6"/>
         <v>2.8553240740740752E-4</v>
       </c>
       <c r="H36" s="18">
         <v>2.8127314814814816E-3</v>
       </c>
       <c r="I36" s="18">
-        <f>H36+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.8133101851851852E-3</v>
       </c>
       <c r="J36" s="7"/>
@@ -7990,21 +7990,21 @@
         <v>226</v>
       </c>
       <c r="L36" s="18">
-        <f>M36-$M$2</f>
+        <f t="shared" si="7"/>
         <v>8.1851851851851877E-4</v>
       </c>
       <c r="M36" s="18">
         <v>4.6678240740740742E-3</v>
       </c>
       <c r="N36" s="18">
-        <f>M36+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.6684027777777783E-3</v>
       </c>
       <c r="P36" s="15" t="s">
         <v>204</v>
       </c>
       <c r="Q36" s="18">
-        <f>SUMIF($A$3:$A$65,P36,$B$3:$B$65)+SUMIF($F$3:$F$65,P36,$G$3:$G$65)+SUMIF($K$3:$K$65,P36,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>1.3026620370370371E-3</v>
       </c>
     </row>
@@ -8013,14 +8013,14 @@
         <v>204</v>
       </c>
       <c r="B37" s="17">
-        <f>C37-$C$2</f>
+        <f t="shared" si="4"/>
         <v>2.7604166666666662E-4</v>
       </c>
       <c r="C37" s="18">
         <v>1.7966435185185186E-3</v>
       </c>
       <c r="D37" s="18">
-        <f>C37+$D$1</f>
+        <f t="shared" si="5"/>
         <v>1.7972222222222224E-3</v>
       </c>
       <c r="E37" s="5"/>
@@ -8028,35 +8028,35 @@
         <v>204</v>
       </c>
       <c r="G37" s="18">
-        <f>H37-$H$2</f>
+        <f t="shared" si="6"/>
         <v>3.0613425925925947E-4</v>
       </c>
       <c r="H37" s="18">
         <v>2.8333333333333335E-3</v>
       </c>
       <c r="I37" s="18">
-        <f>H37+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.8339120370370371E-3</v>
       </c>
       <c r="K37" s="15" t="s">
         <v>223</v>
       </c>
       <c r="L37" s="18">
-        <f>M37-$M$2</f>
+        <f t="shared" si="7"/>
         <v>8.5752314814814806E-4</v>
       </c>
       <c r="M37" s="18">
         <v>4.7068287037037035E-3</v>
       </c>
       <c r="N37" s="18">
-        <f>M37+$N$1</f>
+        <f t="shared" si="2"/>
         <v>4.7074074074074075E-3</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>237</v>
       </c>
       <c r="Q37" s="18">
-        <f>SUMIF($A$3:$A$65,P37,$B$3:$B$65)+SUMIF($F$3:$F$65,P37,$G$3:$G$65)+SUMIF($K$3:$K$65,P37,$L$3:$L$65)</f>
+        <f t="shared" si="3"/>
         <v>2.9177083333333334E-3</v>
       </c>
     </row>
@@ -8065,14 +8065,14 @@
         <v>237</v>
       </c>
       <c r="B38" s="17">
-        <f>C38-$C$2</f>
+        <f t="shared" si="4"/>
         <v>5.4398148148148123E-4</v>
       </c>
       <c r="C38" s="18">
         <v>2.0645833333333332E-3</v>
       </c>
       <c r="D38" s="18">
-        <f>C38+$D$1</f>
+        <f t="shared" si="5"/>
         <v>2.0651620370370368E-3</v>
       </c>
       <c r="E38" s="5"/>
@@ -8080,28 +8080,28 @@
         <v>237</v>
       </c>
       <c r="G38" s="18">
-        <f>H38-$H$2</f>
+        <f t="shared" si="6"/>
         <v>5.8761574074074055E-4</v>
       </c>
       <c r="H38" s="18">
         <v>3.1148148148148146E-3</v>
       </c>
       <c r="I38" s="18">
-        <f>H38+$I$1</f>
+        <f t="shared" si="1"/>
         <v>3.1153935185185182E-3</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>237</v>
       </c>
       <c r="L38" s="18">
-        <f>M38-$M$2</f>
+        <f t="shared" si="7"/>
         <v>1.7861111111111116E-3</v>
       </c>
       <c r="M38" s="18">
         <v>5.635416666666667E-3</v>
       </c>
       <c r="N38" s="18">
-        <f>M38+$N$1</f>
+        <f t="shared" si="2"/>
         <v>5.6359953703703711E-3</v>
       </c>
       <c r="Q38" s="18"/>
@@ -8721,7 +8721,7 @@
         <v>164</v>
       </c>
       <c r="D2" s="18">
-        <f>C2+$D$1</f>
+        <f t="shared" ref="D2:D33" si="0">C2+$D$1</f>
         <v>2.0966435185185185E-3</v>
       </c>
       <c r="E2" s="18"/>
@@ -8735,15 +8735,15 @@
         <v>182</v>
       </c>
       <c r="I2" s="18">
-        <f>H2+$I$1</f>
+        <f t="shared" ref="I2:I33" si="1">H2+$I$1</f>
         <v>2.5846064814814816E-3</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L2" s="18">
-        <f>SUMIF($A$3:$A$65,K2,$B$3:$B$65)+SUMIF($F$3:$F$65,K2,$G$3:$G$65)</f>
+        <f t="shared" ref="L2:L32" si="2">SUMIF($A$3:$A$65,K2,$B$3:$B$65)+SUMIF($F$3:$F$65,K2,$G$3:$G$65)</f>
         <v>1.6782407407407371E-4</v>
       </c>
       <c r="N2" s="15" t="s">
@@ -8763,54 +8763,54 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B3" s="17">
-        <f>C3-$C$2</f>
+        <f t="shared" ref="B3:B33" si="3">C3-$C$2</f>
         <v>9.3518518518518386E-5</v>
       </c>
       <c r="C3" s="17">
         <v>2.173611111111111E-3</v>
       </c>
       <c r="D3" s="18">
-        <f>C3+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1901620370370369E-3</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G3" s="18">
-        <f>H3-$H$2</f>
+        <f t="shared" ref="G3:G33" si="4">H3-$H$2</f>
         <v>7.4305555555555323E-5</v>
       </c>
       <c r="H3" s="17">
         <v>2.642361111111111E-3</v>
       </c>
       <c r="I3" s="18">
-        <f>H3+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6589120370370369E-3</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L3" s="18">
-        <f>SUMIF($A$3:$A$65,K3,$B$3:$B$65)+SUMIF($F$3:$F$65,K3,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.7430555555555515E-4</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>220</v>
       </c>
       <c r="O3" s="17">
-        <f t="shared" ref="O3:O6" si="0">P3-$C$2</f>
+        <f t="shared" ref="O3:O6" si="5">P3-$C$2</f>
         <v>6.644675925925928E-4</v>
       </c>
       <c r="P3" s="17">
         <v>2.7445601851851854E-3</v>
       </c>
       <c r="Q3" s="17">
-        <f t="shared" ref="Q3:Q6" si="1">P3+$Q$1</f>
+        <f t="shared" ref="Q3:Q6" si="6">P3+$Q$1</f>
         <v>2.7611111111111113E-3</v>
       </c>
     </row>
@@ -8819,29 +8819,29 @@
         <v>24</v>
       </c>
       <c r="B4" s="17">
-        <f>C4-$C$2</f>
+        <f t="shared" si="3"/>
         <v>9.6643518518518476E-5</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D4" s="18">
-        <f>C4+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.193287037037037E-3</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G4" s="18">
-        <f>H4-$H$2</f>
+        <f t="shared" si="4"/>
         <v>7.6967592592592452E-5</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>183</v>
       </c>
       <c r="I4" s="18">
-        <f>H4+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.661574074074074E-3</v>
       </c>
       <c r="J4" s="1"/>
@@ -8849,37 +8849,37 @@
         <v>24</v>
       </c>
       <c r="L4" s="18">
-        <f>SUMIF($A$3:$A$65,K4,$B$3:$B$65)+SUMIF($F$3:$F$65,K4,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.753472222222217E-4</v>
       </c>
       <c r="N4" s="15" t="s">
         <v>223</v>
       </c>
       <c r="O4" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>6.8611111111111086E-4</v>
       </c>
       <c r="P4" s="17">
         <v>2.7662037037037034E-3</v>
       </c>
       <c r="Q4" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.7827546296296294E-3</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B5" s="17">
-        <f>C5-$C$2</f>
+        <f t="shared" si="3"/>
         <v>9.7337962962962699E-5</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>166</v>
       </c>
       <c r="D5" s="18">
-        <f>C5+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1939814814814812E-3</v>
       </c>
       <c r="E5" s="18"/>
@@ -8887,14 +8887,14 @@
         <v>24</v>
       </c>
       <c r="G5" s="18">
-        <f>H5-$H$2</f>
+        <f t="shared" si="4"/>
         <v>7.8703703703703227E-5</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>184</v>
       </c>
       <c r="I5" s="18">
-        <f>H5+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6633101851851848E-3</v>
       </c>
       <c r="J5" s="1"/>
@@ -8902,21 +8902,21 @@
         <v>0</v>
       </c>
       <c r="L5" s="18">
-        <f>SUMIF($A$3:$A$65,K5,$B$3:$B$65)+SUMIF($F$3:$F$65,K5,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.8194444444444464E-4</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>237</v>
       </c>
       <c r="O5" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.2567129629629625E-3</v>
       </c>
       <c r="P5" s="18">
         <v>3.3368055555555551E-3</v>
       </c>
       <c r="Q5" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3.353356481481481E-3</v>
       </c>
     </row>
@@ -8925,14 +8925,14 @@
         <v>68</v>
       </c>
       <c r="B6" s="17">
-        <f>C6-$C$2</f>
+        <f t="shared" si="3"/>
         <v>9.9074074074073908E-5</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="18">
-        <f>C6+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1957175925925924E-3</v>
       </c>
       <c r="E6" s="18"/>
@@ -8940,14 +8940,14 @@
         <v>18</v>
       </c>
       <c r="G6" s="18">
-        <f>H6-$H$2</f>
+        <f t="shared" si="4"/>
         <v>7.9861111111111278E-5</v>
       </c>
       <c r="H6" s="17">
         <v>2.6479166666666669E-3</v>
       </c>
       <c r="I6" s="18">
-        <f>H6+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6644675925925928E-3</v>
       </c>
       <c r="J6" s="1"/>
@@ -8955,21 +8955,21 @@
         <v>68</v>
       </c>
       <c r="L6" s="18">
-        <f>SUMIF($A$3:$A$65,K6,$B$3:$B$65)+SUMIF($F$3:$F$65,K6,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.8414351851851795E-4</v>
       </c>
       <c r="N6" s="15" t="s">
         <v>204</v>
       </c>
       <c r="O6" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.6748842592592592E-3</v>
       </c>
       <c r="P6" s="18">
         <v>3.7549768518518518E-3</v>
       </c>
       <c r="Q6" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3.7715277777777777E-3</v>
       </c>
     </row>
@@ -8978,14 +8978,14 @@
         <v>0</v>
       </c>
       <c r="B7" s="17">
-        <f>C7-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.0127314814814851E-4</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>168</v>
       </c>
       <c r="D7" s="18">
-        <f>C7+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.197916666666667E-3</v>
       </c>
       <c r="E7" s="18"/>
@@ -8993,14 +8993,14 @@
         <v>0</v>
       </c>
       <c r="G7" s="18">
-        <f>H7-$H$2</f>
+        <f t="shared" si="4"/>
         <v>8.0671296296296133E-5</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>185</v>
       </c>
       <c r="I7" s="18">
-        <f>H7+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6652777777777777E-3</v>
       </c>
       <c r="J7" s="1"/>
@@ -9008,7 +9008,7 @@
         <v>90</v>
       </c>
       <c r="L7" s="18">
-        <f>SUMIF($A$3:$A$65,K7,$B$3:$B$65)+SUMIF($F$3:$F$65,K7,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.8946759259259221E-4</v>
       </c>
       <c r="O7" s="18"/>
@@ -9020,14 +9020,14 @@
         <v>17</v>
       </c>
       <c r="B8" s="17">
-        <f>C8-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.0138888888888914E-4</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>169</v>
       </c>
       <c r="D8" s="18">
-        <f>C8+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1980324074074077E-3</v>
       </c>
       <c r="E8" s="18"/>
@@ -9035,14 +9035,14 @@
         <v>5</v>
       </c>
       <c r="G8" s="18">
-        <f>H8-$H$2</f>
+        <f t="shared" si="4"/>
         <v>8.2986111111110934E-5</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>186</v>
       </c>
       <c r="I8" s="18">
-        <f>H8+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6675925925925925E-3</v>
       </c>
       <c r="J8" s="1"/>
@@ -9050,7 +9050,7 @@
         <v>17</v>
       </c>
       <c r="L8" s="18">
-        <f>SUMIF($A$3:$A$65,K8,$B$3:$B$65)+SUMIF($F$3:$F$65,K8,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.9016203703703686E-4</v>
       </c>
       <c r="N8" s="9" t="s">
@@ -9065,14 +9065,14 @@
         <v>90</v>
       </c>
       <c r="B9" s="17">
-        <f>C9-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.0509259259259239E-4</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>170</v>
       </c>
       <c r="D9" s="18">
-        <f>C9+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2017361111111109E-3</v>
       </c>
       <c r="E9" s="18"/>
@@ -9080,14 +9080,14 @@
         <v>90</v>
       </c>
       <c r="G9" s="18">
-        <f>H9-$H$2</f>
+        <f t="shared" si="4"/>
         <v>8.4374999999999815E-5</v>
       </c>
       <c r="H9" s="17">
         <v>2.6524305555555554E-3</v>
       </c>
       <c r="I9" s="18">
-        <f>H9+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6689814814814814E-3</v>
       </c>
       <c r="J9" s="1"/>
@@ -9095,11 +9095,11 @@
         <v>21</v>
       </c>
       <c r="L9" s="18">
-        <f>SUMIF($A$3:$A$65,K9,$B$3:$B$65)+SUMIF($F$3:$F$65,K9,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>1.9629629629629641E-4</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
@@ -9110,14 +9110,14 @@
         <v>12</v>
       </c>
       <c r="B10" s="17">
-        <f>C10-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.0775462962962995E-4</v>
       </c>
       <c r="C10" s="17">
         <v>2.1878472222222225E-3</v>
       </c>
       <c r="D10" s="18">
-        <f>C10+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2043981481481485E-3</v>
       </c>
       <c r="E10" s="18"/>
@@ -9125,14 +9125,14 @@
         <v>68</v>
       </c>
       <c r="G10" s="18">
-        <f>H10-$H$2</f>
+        <f t="shared" si="4"/>
         <v>8.5069444444444038E-5</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>187</v>
       </c>
       <c r="I10" s="18">
-        <f>H10+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6696759259259256E-3</v>
       </c>
       <c r="J10" s="1"/>
@@ -9140,7 +9140,7 @@
         <v>20</v>
       </c>
       <c r="L10" s="18">
-        <f>SUMIF($A$3:$A$65,K10,$B$3:$B$65)+SUMIF($F$3:$F$65,K10,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.0057870370370412E-4</v>
       </c>
       <c r="N10" s="6" t="s">
@@ -9155,14 +9155,14 @@
         <v>21</v>
       </c>
       <c r="B11" s="17">
-        <f>C11-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.0891203703703714E-4</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>171</v>
       </c>
       <c r="D11" s="18">
-        <f>C11+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2055555555555557E-3</v>
       </c>
       <c r="E11" s="18"/>
@@ -9170,14 +9170,14 @@
         <v>21</v>
       </c>
       <c r="G11" s="18">
-        <f>H11-$H$2</f>
+        <f t="shared" si="4"/>
         <v>8.7384259259259273E-5</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>188</v>
       </c>
       <c r="I11" s="18">
-        <f>H11+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6719907407407408E-3</v>
       </c>
       <c r="J11" s="1"/>
@@ -9185,7 +9185,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="18">
-        <f>SUMIF($A$3:$A$65,K11,$B$3:$B$65)+SUMIF($F$3:$F$65,K11,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.0150462962963004E-4</v>
       </c>
       <c r="N11" s="6" t="s">
@@ -9200,14 +9200,14 @@
         <v>160</v>
       </c>
       <c r="B12" s="17">
-        <f>C12-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.0891203703703714E-4</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>171</v>
       </c>
       <c r="D12" s="18">
-        <f>C12+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2055555555555557E-3</v>
       </c>
       <c r="E12" s="18"/>
@@ -9215,14 +9215,14 @@
         <v>17</v>
       </c>
       <c r="G12" s="18">
-        <f>H12-$H$2</f>
+        <f t="shared" si="4"/>
         <v>8.8773148148147719E-5</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>189</v>
       </c>
       <c r="I12" s="18">
-        <f>H12+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6733796296296293E-3</v>
       </c>
       <c r="J12" s="1"/>
@@ -9230,7 +9230,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="18">
-        <f>SUMIF($A$3:$A$65,K12,$B$3:$B$65)+SUMIF($F$3:$F$65,K12,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.0312500000000061E-4</v>
       </c>
       <c r="O12" s="18"/>
@@ -9242,14 +9242,14 @@
         <v>20</v>
       </c>
       <c r="B13" s="17">
-        <f>C13-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.0972222222222243E-4</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>172</v>
       </c>
       <c r="D13" s="18">
-        <f>C13+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2063657407407409E-3</v>
       </c>
       <c r="E13" s="18"/>
@@ -9257,14 +9257,14 @@
         <v>163</v>
       </c>
       <c r="G13" s="18">
-        <f>H13-$H$2</f>
+        <f t="shared" si="4"/>
         <v>9.0162037037037034E-5</v>
       </c>
       <c r="H13" s="17">
         <v>2.6582175925925927E-3</v>
       </c>
       <c r="I13" s="18">
-        <f>H13+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6747685185185186E-3</v>
       </c>
       <c r="J13" s="1"/>
@@ -9272,7 +9272,7 @@
         <v>7</v>
       </c>
       <c r="L13" s="18">
-        <f>SUMIF($A$3:$A$65,K13,$B$3:$B$65)+SUMIF($F$3:$F$65,K13,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.0370370370370334E-4</v>
       </c>
       <c r="O13" s="18"/>
@@ -9284,14 +9284,14 @@
         <v>7</v>
       </c>
       <c r="B14" s="17">
-        <f>C14-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.1087962962962961E-4</v>
       </c>
       <c r="C14" s="17">
         <v>2.1909722222222222E-3</v>
       </c>
       <c r="D14" s="18">
-        <f>C14+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2075231481481481E-3</v>
       </c>
       <c r="E14" s="18"/>
@@ -9299,14 +9299,14 @@
         <v>20</v>
       </c>
       <c r="G14" s="18">
-        <f>H14-$H$2</f>
+        <f t="shared" si="4"/>
         <v>9.0856481481481691E-5</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>190</v>
       </c>
       <c r="I14" s="18">
-        <f>H14+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6754629629629633E-3</v>
       </c>
       <c r="J14" s="1"/>
@@ -9314,7 +9314,7 @@
         <v>15</v>
       </c>
       <c r="L14" s="18">
-        <f>SUMIF($A$3:$A$65,K14,$B$3:$B$65)+SUMIF($F$3:$F$65,K14,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.0486111111111139E-4</v>
       </c>
       <c r="O14" s="18"/>
@@ -9326,14 +9326,14 @@
         <v>15</v>
       </c>
       <c r="B15" s="17">
-        <f>C15-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.116898148148149E-4</v>
       </c>
       <c r="C15" s="17">
         <v>2.1917824074074075E-3</v>
       </c>
       <c r="D15" s="18">
-        <f>C15+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2083333333333334E-3</v>
       </c>
       <c r="E15" s="18"/>
@@ -9341,14 +9341,14 @@
         <v>7</v>
       </c>
       <c r="G15" s="18">
-        <f>H15-$H$2</f>
+        <f t="shared" si="4"/>
         <v>9.2824074074073729E-5</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>191</v>
       </c>
       <c r="I15" s="18">
-        <f>H15+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6774305555555553E-3</v>
       </c>
       <c r="J15" s="1"/>
@@ -9356,7 +9356,7 @@
         <v>5</v>
       </c>
       <c r="L15" s="18">
-        <f>SUMIF($A$3:$A$65,K15,$B$3:$B$65)+SUMIF($F$3:$F$65,K15,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.1122685185185177E-4</v>
       </c>
       <c r="O15" s="18"/>
@@ -9368,14 +9368,14 @@
         <v>19</v>
       </c>
       <c r="B16" s="17">
-        <f>C16-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.1759259259259275E-4</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>173</v>
       </c>
       <c r="D16" s="18">
-        <f>C16+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2142361111111113E-3</v>
       </c>
       <c r="E16" s="18"/>
@@ -9383,14 +9383,14 @@
         <v>8</v>
       </c>
       <c r="G16" s="18">
-        <f>H16-$H$2</f>
+        <f t="shared" si="4"/>
         <v>9.3055555555555426E-5</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>192</v>
       </c>
       <c r="I16" s="18">
-        <f>H16+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.677662037037037E-3</v>
       </c>
       <c r="J16" s="1"/>
@@ -9398,7 +9398,7 @@
         <v>19</v>
       </c>
       <c r="L16" s="18">
-        <f>SUMIF($A$3:$A$65,K16,$B$3:$B$65)+SUMIF($F$3:$F$65,K16,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.1250000000000002E-4</v>
       </c>
       <c r="O16" s="18"/>
@@ -9410,14 +9410,14 @@
         <v>8</v>
       </c>
       <c r="B17" s="17">
-        <f>C17-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.2013888888888881E-4</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>174</v>
       </c>
       <c r="D17" s="18">
-        <f>C17+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2167824074074073E-3</v>
       </c>
       <c r="E17" s="18"/>
@@ -9425,14 +9425,14 @@
         <v>15</v>
       </c>
       <c r="G17" s="18">
-        <f>H17-$H$2</f>
+        <f t="shared" si="4"/>
         <v>9.3171296296296491E-5</v>
       </c>
       <c r="H17" s="17" t="s">
         <v>193</v>
       </c>
       <c r="I17" s="18">
-        <f>H17+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6777777777777781E-3</v>
       </c>
       <c r="J17" s="1"/>
@@ -9440,7 +9440,7 @@
         <v>8</v>
       </c>
       <c r="L17" s="18">
-        <f>SUMIF($A$3:$A$65,K17,$B$3:$B$65)+SUMIF($F$3:$F$65,K17,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.1319444444444424E-4</v>
       </c>
       <c r="O17" s="18"/>
@@ -9452,14 +9452,14 @@
         <v>18</v>
       </c>
       <c r="B18" s="17">
-        <f>C18-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.2164351851851876E-4</v>
       </c>
       <c r="C18" s="17">
         <v>2.2017361111111113E-3</v>
       </c>
       <c r="D18" s="18">
-        <f>C18+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2182870370370373E-3</v>
       </c>
       <c r="E18" s="18"/>
@@ -9467,14 +9467,14 @@
         <v>19</v>
       </c>
       <c r="G18" s="18">
-        <f>H18-$H$2</f>
+        <f t="shared" si="4"/>
         <v>9.4907407407407267E-5</v>
       </c>
       <c r="H18" s="17" t="s">
         <v>194</v>
       </c>
       <c r="I18" s="18">
-        <f>H18+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6795138888888888E-3</v>
       </c>
       <c r="J18" s="1"/>
@@ -9482,7 +9482,7 @@
         <v>160</v>
       </c>
       <c r="L18" s="18">
-        <f>SUMIF($A$3:$A$65,K18,$B$3:$B$65)+SUMIF($F$3:$F$65,K18,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.1331018518518487E-4</v>
       </c>
       <c r="O18" s="18"/>
@@ -9494,14 +9494,14 @@
         <v>5</v>
       </c>
       <c r="B19" s="17">
-        <f>C19-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.2824074074074083E-4</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>175</v>
       </c>
       <c r="D19" s="18">
-        <f>C19+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2248842592592593E-3</v>
       </c>
       <c r="E19" s="18"/>
@@ -9509,14 +9509,14 @@
         <v>12</v>
       </c>
       <c r="G19" s="18">
-        <f>H19-$H$2</f>
+        <f t="shared" si="4"/>
         <v>9.5370370370370661E-5</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>195</v>
       </c>
       <c r="I19" s="18">
-        <f>H19+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6799768518518522E-3</v>
       </c>
       <c r="J19" s="1"/>
@@ -9524,7 +9524,7 @@
         <v>6</v>
       </c>
       <c r="L19" s="18">
-        <f>SUMIF($A$3:$A$65,K19,$B$3:$B$65)+SUMIF($F$3:$F$65,K19,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.3692129629629627E-4</v>
       </c>
       <c r="O19" s="18"/>
@@ -9536,14 +9536,14 @@
         <v>6</v>
       </c>
       <c r="B20" s="17">
-        <f>C20-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.2939814814814802E-4</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>176</v>
       </c>
       <c r="D20" s="18">
-        <f>C20+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2260416666666665E-3</v>
       </c>
       <c r="E20" s="18"/>
@@ -9551,14 +9551,14 @@
         <v>2</v>
       </c>
       <c r="G20" s="18">
-        <f>H20-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.0358796296296244E-4</v>
       </c>
       <c r="H20" s="17" t="s">
         <v>196</v>
       </c>
       <c r="I20" s="18">
-        <f>H20+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.688194444444444E-3</v>
       </c>
       <c r="J20" s="1"/>
@@ -9566,7 +9566,7 @@
         <v>163</v>
       </c>
       <c r="L20" s="18">
-        <f>SUMIF($A$3:$A$65,K20,$B$3:$B$65)+SUMIF($F$3:$F$65,K20,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.4733796296296309E-4</v>
       </c>
       <c r="O20" s="18"/>
@@ -9578,14 +9578,14 @@
         <v>161</v>
       </c>
       <c r="B21" s="17">
-        <f>C21-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.3900462962962955E-4</v>
       </c>
       <c r="C21" s="17">
         <v>2.2190972222222221E-3</v>
       </c>
       <c r="D21" s="18">
-        <f>C21+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2356481481481481E-3</v>
       </c>
       <c r="E21" s="18"/>
@@ -9593,14 +9593,14 @@
         <v>16</v>
       </c>
       <c r="G21" s="18">
-        <f>H21-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.0416666666666647E-4</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>197</v>
       </c>
       <c r="I21" s="18">
-        <f>H21+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.688773148148148E-3</v>
       </c>
       <c r="J21" s="1"/>
@@ -9608,7 +9608,7 @@
         <v>161</v>
       </c>
       <c r="L21" s="18">
-        <f>SUMIF($A$3:$A$65,K21,$B$3:$B$65)+SUMIF($F$3:$F$65,K21,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.5034722222222212E-4</v>
       </c>
       <c r="O21" s="18"/>
@@ -9620,14 +9620,14 @@
         <v>10</v>
       </c>
       <c r="B22" s="17">
-        <f>C22-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.4212962962962964E-4</v>
       </c>
       <c r="C22" s="17">
         <v>2.2222222222222222E-3</v>
       </c>
       <c r="D22" s="18">
-        <f>C22+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2387731481481482E-3</v>
       </c>
       <c r="E22" s="18"/>
@@ -9635,14 +9635,14 @@
         <v>160</v>
       </c>
       <c r="G22" s="18">
-        <f>H22-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.0439814814814773E-4</v>
       </c>
       <c r="H22" s="17" t="s">
         <v>198</v>
       </c>
       <c r="I22" s="18">
-        <f>H22+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6890046296296293E-3</v>
       </c>
       <c r="J22" s="1"/>
@@ -9650,7 +9650,7 @@
         <v>10</v>
       </c>
       <c r="L22" s="18">
-        <f>SUMIF($A$3:$A$65,K22,$B$3:$B$65)+SUMIF($F$3:$F$65,K22,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.5266203703703692E-4</v>
       </c>
       <c r="O22" s="18"/>
@@ -9662,14 +9662,14 @@
         <v>162</v>
       </c>
       <c r="B23" s="17">
-        <f>C23-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.4756944444444453E-4</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>177</v>
       </c>
       <c r="D23" s="18">
-        <f>C23+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.244212962962963E-3</v>
       </c>
       <c r="E23" s="18"/>
@@ -9677,14 +9677,14 @@
         <v>22</v>
       </c>
       <c r="G23" s="18">
-        <f>H23-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.0590277777777811E-4</v>
       </c>
       <c r="H23" s="17">
         <v>2.6739583333333337E-3</v>
       </c>
       <c r="I23" s="18">
-        <f>H23+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6905092592592597E-3</v>
       </c>
       <c r="J23" s="1"/>
@@ -9692,7 +9692,7 @@
         <v>16</v>
       </c>
       <c r="L23" s="18">
-        <f>SUMIF($A$3:$A$65,K23,$B$3:$B$65)+SUMIF($F$3:$F$65,K23,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.540509259259258E-4</v>
       </c>
       <c r="O23" s="18"/>
@@ -9704,14 +9704,14 @@
         <v>16</v>
       </c>
       <c r="B24" s="17">
-        <f>C24-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.4988425925925933E-4</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>178</v>
       </c>
       <c r="D24" s="18">
-        <f>C24+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2465277777777778E-3</v>
       </c>
       <c r="E24" s="18"/>
@@ -9719,14 +9719,14 @@
         <v>6</v>
       </c>
       <c r="G24" s="18">
-        <f>H24-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.0752314814814826E-4</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>199</v>
       </c>
       <c r="I24" s="18">
-        <f>H24+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6921296296296298E-3</v>
       </c>
       <c r="J24" s="1"/>
@@ -9734,7 +9734,7 @@
         <v>162</v>
       </c>
       <c r="L24" s="18">
-        <f>SUMIF($A$3:$A$65,K24,$B$3:$B$65)+SUMIF($F$3:$F$65,K24,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.5624999999999997E-4</v>
       </c>
       <c r="O24" s="18"/>
@@ -9746,14 +9746,14 @@
         <v>22</v>
       </c>
       <c r="B25" s="17">
-        <f>C25-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.5428240740740723E-4</v>
       </c>
       <c r="C25" s="17">
         <v>2.2343749999999998E-3</v>
       </c>
       <c r="D25" s="18">
-        <f>C25+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2509259259259258E-3</v>
       </c>
       <c r="E25" s="18"/>
@@ -9761,14 +9761,14 @@
         <v>162</v>
       </c>
       <c r="G25" s="18">
-        <f>H25-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.0868055555555544E-4</v>
       </c>
       <c r="H25" s="17" t="s">
         <v>200</v>
       </c>
       <c r="I25" s="18">
-        <f>H25+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.693287037037037E-3</v>
       </c>
       <c r="J25" s="1"/>
@@ -9776,7 +9776,7 @@
         <v>22</v>
       </c>
       <c r="L25" s="18">
-        <f>SUMIF($A$3:$A$65,K25,$B$3:$B$65)+SUMIF($F$3:$F$65,K25,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.6018518518518535E-4</v>
       </c>
       <c r="O25" s="18"/>
@@ -9788,14 +9788,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="17">
-        <f>C26-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.5694444444444436E-4</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>179</v>
       </c>
       <c r="D26" s="18">
-        <f>C26+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2535879629629629E-3</v>
       </c>
       <c r="E26" s="18"/>
@@ -9803,14 +9803,14 @@
         <v>10</v>
       </c>
       <c r="G26" s="18">
-        <f>H26-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.1053240740740728E-4</v>
       </c>
       <c r="H26" s="17">
         <v>2.6785879629629629E-3</v>
       </c>
       <c r="I26" s="18">
-        <f>H26+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6951388888888888E-3</v>
       </c>
       <c r="J26" s="1"/>
@@ -9818,7 +9818,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="18">
-        <f>SUMIF($A$3:$A$65,K26,$B$3:$B$65)+SUMIF($F$3:$F$65,K26,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.6874999999999989E-4</v>
       </c>
       <c r="O26" s="18"/>
@@ -9830,14 +9830,14 @@
         <v>1</v>
       </c>
       <c r="B27" s="17">
-        <f>C27-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.5717592592592606E-4</v>
       </c>
       <c r="C27" s="17">
         <v>2.2372685185185186E-3</v>
       </c>
       <c r="D27" s="18">
-        <f>C27+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2538194444444446E-3</v>
       </c>
       <c r="E27" s="18"/>
@@ -9845,14 +9845,14 @@
         <v>161</v>
       </c>
       <c r="G27" s="18">
-        <f>H27-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.1134259259259257E-4</v>
       </c>
       <c r="H27" s="17">
         <v>2.6793981481481482E-3</v>
       </c>
       <c r="I27" s="18">
-        <f>H27+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6959490740740741E-3</v>
       </c>
       <c r="J27" s="1"/>
@@ -9860,7 +9860,7 @@
         <v>25</v>
       </c>
       <c r="L27" s="18">
-        <f>SUMIF($A$3:$A$65,K27,$B$3:$B$65)+SUMIF($F$3:$F$65,K27,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>2.9351851851851848E-4</v>
       </c>
       <c r="O27" s="18"/>
@@ -9872,14 +9872,14 @@
         <v>163</v>
       </c>
       <c r="B28" s="17">
-        <f>C28-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.5717592592592606E-4</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>180</v>
       </c>
       <c r="D28" s="18">
-        <f>C28+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2538194444444446E-3</v>
       </c>
       <c r="E28" s="18"/>
@@ -9887,14 +9887,14 @@
         <v>1</v>
       </c>
       <c r="G28" s="18">
-        <f>H28-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.1157407407407383E-4</v>
       </c>
       <c r="H28" s="17">
         <v>2.6796296296296295E-3</v>
       </c>
       <c r="I28" s="18">
-        <f>H28+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.6961805555555554E-3</v>
       </c>
       <c r="J28" s="1"/>
@@ -9902,7 +9902,7 @@
         <v>205</v>
       </c>
       <c r="L28" s="18">
-        <f>SUMIF($A$3:$A$65,K28,$B$3:$B$65)+SUMIF($F$3:$F$65,K28,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>3.1018518518518461E-4</v>
       </c>
       <c r="O28" s="18"/>
@@ -9914,14 +9914,14 @@
         <v>205</v>
       </c>
       <c r="B29" s="17">
-        <f>C29-$C$2</f>
+        <f t="shared" si="3"/>
         <v>1.8379629629629605E-4</v>
       </c>
       <c r="C29" s="17">
         <v>2.2638888888888886E-3</v>
       </c>
       <c r="D29" s="18">
-        <f>C29+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2804398148148146E-3</v>
       </c>
       <c r="E29" s="18"/>
@@ -9929,14 +9929,14 @@
         <v>9</v>
       </c>
       <c r="G29" s="18">
-        <f>H29-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.1620370370370387E-4</v>
       </c>
       <c r="H29" s="17" t="s">
         <v>201</v>
       </c>
       <c r="I29" s="18">
-        <f>H29+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.7008101851851854E-3</v>
       </c>
       <c r="J29" s="1"/>
@@ -9944,7 +9944,7 @@
         <v>219</v>
       </c>
       <c r="L29" s="18">
-        <f>SUMIF($A$3:$A$65,K29,$B$3:$B$65)+SUMIF($F$3:$F$65,K29,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>3.396990740740743E-4</v>
       </c>
       <c r="O29" s="18"/>
@@ -9956,14 +9956,14 @@
         <v>219</v>
       </c>
       <c r="B30" s="17">
-        <f>C30-$C$2</f>
+        <f t="shared" si="3"/>
         <v>2.0462962962962969E-4</v>
       </c>
       <c r="C30" s="17">
         <v>2.2847222222222223E-3</v>
       </c>
       <c r="D30" s="18">
-        <f>C30+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.3012731481481482E-3</v>
       </c>
       <c r="E30" s="18"/>
@@ -9971,14 +9971,14 @@
         <v>226</v>
       </c>
       <c r="G30" s="18">
-        <f>H30-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.209490740740741E-4</v>
       </c>
       <c r="H30" s="17">
         <v>2.6890046296296297E-3</v>
       </c>
       <c r="I30" s="18">
-        <f>H30+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.7055555555555557E-3</v>
       </c>
       <c r="J30" s="1"/>
@@ -9986,7 +9986,7 @@
         <v>226</v>
       </c>
       <c r="L30" s="18">
-        <f>SUMIF($A$3:$A$65,K30,$B$3:$B$65)+SUMIF($F$3:$F$65,K30,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>4.0891203703703706E-4</v>
       </c>
       <c r="O30" s="18"/>
@@ -9998,14 +9998,14 @@
         <v>226</v>
       </c>
       <c r="B31" s="17">
-        <f>C31-$C$2</f>
+        <f t="shared" si="3"/>
         <v>2.8796296296296296E-4</v>
       </c>
       <c r="C31" s="17">
         <v>2.3680555555555555E-3</v>
       </c>
       <c r="D31" s="18">
-        <f>C31+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.3846064814814815E-3</v>
       </c>
       <c r="E31" s="18"/>
@@ -10013,14 +10013,14 @@
         <v>205</v>
       </c>
       <c r="G31" s="18">
-        <f>H31-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.2638888888888856E-4</v>
       </c>
       <c r="H31" s="17">
         <v>2.6944444444444442E-3</v>
       </c>
       <c r="I31" s="18">
-        <f>H31+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.7109953703703701E-3</v>
       </c>
       <c r="J31" s="1"/>
@@ -10028,7 +10028,7 @@
         <v>9</v>
       </c>
       <c r="L31" s="18">
-        <f>SUMIF($A$3:$A$65,K31,$B$3:$B$65)+SUMIF($F$3:$F$65,K31,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>5.3159722222222237E-4</v>
       </c>
       <c r="O31" s="18"/>
@@ -10040,14 +10040,14 @@
         <v>9</v>
       </c>
       <c r="B32" s="17">
-        <f>C32-$C$2</f>
+        <f t="shared" si="3"/>
         <v>4.153935185185185E-4</v>
       </c>
       <c r="C32" s="17">
         <v>2.4954861111111111E-3</v>
       </c>
       <c r="D32" s="18">
-        <f>C32+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.512037037037037E-3</v>
       </c>
       <c r="E32" s="18"/>
@@ -10055,14 +10055,14 @@
         <v>219</v>
       </c>
       <c r="G32" s="18">
-        <f>H32-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.350694444444446E-4</v>
       </c>
       <c r="H32" s="18">
         <v>2.7031250000000002E-3</v>
       </c>
       <c r="I32" s="18">
-        <f>H32+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.7196759259259262E-3</v>
       </c>
       <c r="J32" s="1"/>
@@ -10070,7 +10070,7 @@
         <v>2</v>
       </c>
       <c r="L32" s="18">
-        <f>SUMIF($A$3:$A$65,K32,$B$3:$B$65)+SUMIF($F$3:$F$65,K32,$G$3:$G$65)</f>
+        <f t="shared" si="2"/>
         <v>5.364583333333328E-4</v>
       </c>
       <c r="O32" s="18"/>
@@ -10082,14 +10082,14 @@
         <v>2</v>
       </c>
       <c r="B33" s="17">
-        <f>C33-$C$2</f>
+        <f t="shared" si="3"/>
         <v>4.3287037037037035E-4</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>181</v>
       </c>
       <c r="D33" s="18">
-        <f>C33+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.5295138888888889E-3</v>
       </c>
       <c r="E33" s="18"/>
@@ -10097,14 +10097,14 @@
         <v>25</v>
       </c>
       <c r="G33" s="18">
-        <f>H33-$H$2</f>
+        <f t="shared" si="4"/>
         <v>1.3657407407407412E-4</v>
       </c>
       <c r="H33" s="18">
         <v>2.7046296296296297E-3</v>
       </c>
       <c r="I33" s="18">
-        <f>H33+$I$1</f>
+        <f t="shared" si="1"/>
         <v>2.7211805555555557E-3</v>
       </c>
       <c r="J33" s="1"/>
@@ -10770,8 +10770,8 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:D40"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10805,27 +10805,27 @@
         <v>88</v>
       </c>
       <c r="D2" s="18">
-        <f>C2+$D$1</f>
+        <f t="shared" ref="D2:D38" si="0">C2+$D$1</f>
         <v>1.8512731481481483E-3</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B3" s="17">
-        <f>C3-$C$2</f>
+        <f t="shared" ref="B3:B38" si="1">C3-$C$2</f>
         <v>3.4803240740740736E-4</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>70</v>
       </c>
       <c r="D3" s="18">
-        <f>C3+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.1993055555555555E-3</v>
       </c>
       <c r="E3" s="18"/>
@@ -10835,17 +10835,17 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B4" s="18">
-        <f>C4-$C$2</f>
+        <f t="shared" si="1"/>
         <v>3.7002314814814819E-4</v>
       </c>
       <c r="C4" s="18">
         <v>2.2123842592592594E-3</v>
       </c>
       <c r="D4" s="18">
-        <f>C4+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2212962962962963E-3</v>
       </c>
       <c r="E4" s="18"/>
@@ -10858,14 +10858,14 @@
         <v>18</v>
       </c>
       <c r="B5" s="17">
-        <f>C5-$C$2</f>
+        <f t="shared" si="1"/>
         <v>3.7604166666666667E-4</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D5" s="18">
-        <f>C5+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2273148148148148E-3</v>
       </c>
       <c r="E5" s="18"/>
@@ -10876,14 +10876,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="17">
-        <f>C6-$C$2</f>
+        <f t="shared" si="1"/>
         <v>3.9143518518518542E-4</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="18">
-        <f>C6+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2427083333333335E-3</v>
       </c>
       <c r="E6" s="18"/>
@@ -10893,14 +10893,14 @@
         <v>24</v>
       </c>
       <c r="B7" s="17">
-        <f>C7-$C$2</f>
+        <f t="shared" si="1"/>
         <v>3.997685185185187E-4</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D7" s="18">
-        <f>C7+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2510416666666668E-3</v>
       </c>
       <c r="E7" s="18"/>
@@ -10910,14 +10910,14 @@
         <v>17</v>
       </c>
       <c r="B8" s="17">
-        <f>C8-$C$2</f>
+        <f t="shared" si="1"/>
         <v>4.021990740740737E-4</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>74</v>
       </c>
       <c r="D8" s="18">
-        <f>C8+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2534722222222218E-3</v>
       </c>
       <c r="E8" s="18"/>
@@ -10927,14 +10927,14 @@
         <v>0</v>
       </c>
       <c r="B9" s="17">
-        <f>C9-$C$2</f>
+        <f t="shared" si="1"/>
         <v>4.0277777777777773E-4</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>75</v>
       </c>
       <c r="D9" s="18">
-        <f>C9+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2540509259259258E-3</v>
       </c>
       <c r="E9" s="18"/>
@@ -10944,14 +10944,14 @@
         <v>7</v>
       </c>
       <c r="B10" s="17">
-        <f>C10-$C$2</f>
+        <f t="shared" si="1"/>
         <v>4.072916666666667E-4</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="18">
-        <f>C10+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2585648148148148E-3</v>
       </c>
       <c r="E10" s="18"/>
@@ -10961,14 +10961,14 @@
         <v>68</v>
       </c>
       <c r="B11" s="17">
-        <f>C11-$C$2</f>
+        <f t="shared" si="1"/>
         <v>4.1053240740740698E-4</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="18">
-        <f>C11+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2618055555555551E-3</v>
       </c>
       <c r="E11" s="18"/>
@@ -10978,14 +10978,14 @@
         <v>90</v>
       </c>
       <c r="B12" s="17">
-        <f>C12-$C$2</f>
+        <f t="shared" si="1"/>
         <v>4.2499999999999981E-4</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="18">
-        <f>C12+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2762731481481479E-3</v>
       </c>
       <c r="E12" s="18"/>
@@ -10995,14 +10995,14 @@
         <v>21</v>
       </c>
       <c r="B13" s="17">
-        <f>C13-$C$2</f>
+        <f t="shared" si="1"/>
         <v>4.2523148148148151E-4</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D13" s="18">
-        <f>C13+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2765046296296296E-3</v>
       </c>
       <c r="E13" s="18"/>
@@ -11012,14 +11012,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="17">
-        <f>C14-$C$2</f>
+        <f t="shared" si="1"/>
         <v>4.2847222222222223E-4</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D14" s="18">
-        <f>C14+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2797453703703703E-3</v>
       </c>
       <c r="E14" s="18"/>
@@ -11029,31 +11029,31 @@
         <v>20</v>
       </c>
       <c r="B15" s="17">
-        <f>C15-$C$2</f>
+        <f t="shared" si="1"/>
         <v>4.3518518518518494E-4</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="18">
-        <f>C15+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2864583333333331E-3</v>
       </c>
       <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B16" s="17">
-        <f>C16-$C$2</f>
+        <f t="shared" si="1"/>
         <v>4.3749999999999974E-4</v>
       </c>
       <c r="C16" s="17">
         <v>2.279861111111111E-3</v>
       </c>
       <c r="D16" s="18">
-        <f>C16+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2887731481481479E-3</v>
       </c>
       <c r="E16" s="18"/>
@@ -11063,14 +11063,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="17">
-        <f>C17-$C$2</f>
+        <f t="shared" si="1"/>
         <v>4.4502314814814817E-4</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="18">
-        <f>C17+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.2962962962962963E-3</v>
       </c>
       <c r="E17" s="18"/>
@@ -11080,14 +11080,14 @@
         <v>2</v>
       </c>
       <c r="B18" s="17">
-        <f>C18-$C$2</f>
+        <f t="shared" si="1"/>
         <v>4.5624999999999984E-4</v>
       </c>
       <c r="C18" s="17">
         <v>2.2986111111111111E-3</v>
       </c>
       <c r="D18" s="18">
-        <f>C18+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.307523148148148E-3</v>
       </c>
       <c r="E18" s="18"/>
@@ -11097,14 +11097,14 @@
         <v>8</v>
       </c>
       <c r="B19" s="17">
-        <f>C19-$C$2</f>
+        <f t="shared" si="1"/>
         <v>4.6643518518518497E-4</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D19" s="18">
-        <f>C19+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.3177083333333331E-3</v>
       </c>
       <c r="E19" s="18"/>
@@ -11114,14 +11114,14 @@
         <v>69</v>
       </c>
       <c r="B20" s="17">
-        <f>C20-$C$2</f>
+        <f t="shared" si="1"/>
         <v>4.8229166666666668E-4</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D20" s="18">
-        <f>C20+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.3335648148148148E-3</v>
       </c>
       <c r="E20" s="18"/>
@@ -11131,14 +11131,14 @@
         <v>22</v>
       </c>
       <c r="B21" s="17">
-        <f>C21-$C$2</f>
+        <f t="shared" si="1"/>
         <v>4.8773148148148113E-4</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>84</v>
       </c>
       <c r="D21" s="18">
-        <f>C21+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.3390046296296292E-3</v>
       </c>
       <c r="E21" s="18"/>
@@ -11148,14 +11148,14 @@
         <v>6</v>
       </c>
       <c r="B22" s="17">
-        <f>C22-$C$2</f>
+        <f t="shared" si="1"/>
         <v>4.9131944444444418E-4</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>85</v>
       </c>
       <c r="D22" s="18">
-        <f>C22+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.3425925925925923E-3</v>
       </c>
       <c r="E22" s="18"/>
@@ -11165,14 +11165,14 @@
         <v>25</v>
       </c>
       <c r="B23" s="17">
-        <f>C23-$C$2</f>
+        <f t="shared" si="1"/>
         <v>5.0104166666666635E-4</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>86</v>
       </c>
       <c r="D23" s="18">
-        <f>C23+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.3523148148148145E-3</v>
       </c>
       <c r="E23" s="18"/>
@@ -11182,14 +11182,14 @@
         <v>16</v>
       </c>
       <c r="B24" s="17">
-        <f>C24-$C$2</f>
+        <f t="shared" si="1"/>
         <v>5.138888888888886E-4</v>
       </c>
       <c r="C24" s="17">
         <v>2.3562499999999998E-3</v>
       </c>
       <c r="D24" s="18">
-        <f>C24+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.3651620370370367E-3</v>
       </c>
       <c r="E24" s="18"/>
@@ -11199,14 +11199,14 @@
         <v>10</v>
       </c>
       <c r="B25" s="17">
-        <f>C25-$C$2</f>
+        <f t="shared" si="1"/>
         <v>5.2164351851851829E-4</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>87</v>
       </c>
       <c r="D25" s="18">
-        <f>C25+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.3729166666666664E-3</v>
       </c>
       <c r="E25" s="18"/>
@@ -11216,14 +11216,14 @@
         <v>162</v>
       </c>
       <c r="B26" s="17">
-        <f>C26-$C$2</f>
+        <f t="shared" si="1"/>
         <v>5.2604166666666663E-4</v>
       </c>
       <c r="C26" s="17">
         <v>2.3684027777777779E-3</v>
       </c>
       <c r="D26" s="18">
-        <f>C26+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.3773148148148147E-3</v>
       </c>
       <c r="E26" s="18"/>
@@ -11233,14 +11233,14 @@
         <v>19</v>
       </c>
       <c r="B27" s="17">
-        <f>C27-$C$2</f>
+        <f t="shared" si="1"/>
         <v>5.2650462962962915E-4</v>
       </c>
       <c r="C27" s="17">
         <v>2.3688657407407404E-3</v>
       </c>
       <c r="D27" s="18">
-        <f>C27+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.3777777777777773E-3</v>
       </c>
       <c r="E27" s="18"/>
@@ -11250,31 +11250,31 @@
         <v>11</v>
       </c>
       <c r="B28" s="17">
-        <f>C28-$C$2</f>
+        <f t="shared" si="1"/>
         <v>5.3611111111111112E-4</v>
       </c>
       <c r="C28" s="17">
         <v>2.3784722222222224E-3</v>
       </c>
       <c r="D28" s="18">
-        <f>C28+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.3873842592592592E-3</v>
       </c>
       <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B29" s="17">
-        <f>C29-$C$2</f>
+        <f t="shared" si="1"/>
         <v>5.3611111111111112E-4</v>
       </c>
       <c r="C29" s="17">
         <v>2.3784722222222224E-3</v>
       </c>
       <c r="D29" s="18">
-        <f>C29+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.3873842592592592E-3</v>
       </c>
       <c r="E29" s="18"/>
@@ -11284,14 +11284,14 @@
         <v>1</v>
       </c>
       <c r="B30" s="17">
-        <f>C30-$C$2</f>
+        <f t="shared" si="1"/>
         <v>5.4745370370370386E-4</v>
       </c>
       <c r="C30" s="17">
         <v>2.3898148148148151E-3</v>
       </c>
       <c r="D30" s="18">
-        <f>C30+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.398726851851852E-3</v>
       </c>
       <c r="E30" s="18"/>
@@ -11301,14 +11301,14 @@
         <v>240</v>
       </c>
       <c r="B31" s="18">
-        <f>C31-$C$2</f>
+        <f t="shared" si="1"/>
         <v>6.159722222222224E-4</v>
       </c>
       <c r="C31" s="18">
         <v>2.4583333333333336E-3</v>
       </c>
       <c r="D31" s="18">
-        <f>C31+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.4672453703703705E-3</v>
       </c>
       <c r="E31" s="18"/>
@@ -11318,14 +11318,14 @@
         <v>9</v>
       </c>
       <c r="B32" s="17">
-        <f>C32-$C$2</f>
+        <f t="shared" si="1"/>
         <v>6.6134259259259249E-4</v>
       </c>
       <c r="C32" s="17">
         <v>2.5037037037037037E-3</v>
       </c>
       <c r="D32" s="18">
-        <f>C32+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.5126157407407406E-3</v>
       </c>
       <c r="E32" s="18"/>
@@ -11335,14 +11335,14 @@
         <v>219</v>
       </c>
       <c r="B33" s="17">
-        <f>C33-$C$2</f>
+        <f t="shared" si="1"/>
         <v>7.3842592592592558E-4</v>
       </c>
       <c r="C33" s="17">
         <v>2.5807870370370368E-3</v>
       </c>
       <c r="D33" s="18">
-        <f>C33+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.5896990740740737E-3</v>
       </c>
       <c r="E33" s="18"/>
@@ -11352,14 +11352,14 @@
         <v>226</v>
       </c>
       <c r="B34" s="17">
-        <f>C34-$C$2</f>
+        <f t="shared" si="1"/>
         <v>7.5567129629629617E-4</v>
       </c>
       <c r="C34" s="18">
         <v>2.5980324074074074E-3</v>
       </c>
       <c r="D34" s="18">
-        <f>C34+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.6069444444444443E-3</v>
       </c>
       <c r="E34" s="18"/>
@@ -11369,14 +11369,14 @@
         <v>223</v>
       </c>
       <c r="B35" s="17">
-        <f>C35-$C$2</f>
+        <f t="shared" si="1"/>
         <v>8.8067129629629585E-4</v>
       </c>
       <c r="C35" s="18">
         <v>2.7230324074074071E-3</v>
       </c>
       <c r="D35" s="18">
-        <f>C35+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.731944444444444E-3</v>
       </c>
       <c r="E35" s="18"/>
@@ -11386,14 +11386,14 @@
         <v>228</v>
       </c>
       <c r="B36" s="17">
-        <f>C36-$C$2</f>
+        <f t="shared" si="1"/>
         <v>1.2670138888888885E-3</v>
       </c>
       <c r="C36" s="18">
         <v>3.1093749999999997E-3</v>
       </c>
       <c r="D36" s="18">
-        <f>C36+$D$1</f>
+        <f t="shared" si="0"/>
         <v>3.1182870370370366E-3</v>
       </c>
       <c r="E36" s="1"/>
@@ -11403,14 +11403,14 @@
         <v>237</v>
       </c>
       <c r="B37" s="17">
-        <f>C37-$C$2</f>
+        <f t="shared" si="1"/>
         <v>2.0942129629629627E-3</v>
       </c>
       <c r="C37" s="18">
         <v>3.9365740740740741E-3</v>
       </c>
       <c r="D37" s="18">
-        <f>C37+$D$1</f>
+        <f t="shared" si="0"/>
         <v>3.9454861111111114E-3</v>
       </c>
       <c r="E37" s="1"/>
@@ -11420,14 +11420,14 @@
         <v>204</v>
       </c>
       <c r="B38" s="18">
-        <f>C38-$C$2</f>
+        <f t="shared" si="1"/>
         <v>2.2270833333333327E-3</v>
       </c>
       <c r="C38" s="18">
         <v>4.0694444444444441E-3</v>
       </c>
       <c r="D38" s="18">
-        <f>C38+$D$1</f>
+        <f t="shared" si="0"/>
         <v>4.0783564814814814E-3</v>
       </c>
       <c r="E38" s="1"/>
@@ -11652,27 +11652,27 @@
         <v>141</v>
       </c>
       <c r="D2" s="18">
-        <f>C2+$D$1</f>
+        <f t="shared" ref="D2:D27" si="0">C2+$D$1</f>
         <v>2.5504629629629631E-3</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B3" s="17">
-        <f>C3-$C$2</f>
+        <f t="shared" ref="B3:B27" si="1">C3-$C$2</f>
         <v>3.0370370370370317E-4</v>
       </c>
       <c r="C3" s="18">
         <v>2.853819444444444E-3</v>
       </c>
       <c r="D3" s="1">
-        <f>C3+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.8541666666666663E-3</v>
       </c>
       <c r="E3" s="18"/>
@@ -11682,17 +11682,17 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B4" s="17">
-        <f>C4-$C$2</f>
+        <f t="shared" si="1"/>
         <v>3.1585648148148163E-4</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>142</v>
       </c>
       <c r="D4" s="18">
-        <f>C4+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.8663194444444448E-3</v>
       </c>
       <c r="E4" s="18"/>
@@ -11705,19 +11705,19 @@
         <v>24</v>
       </c>
       <c r="B5" s="17">
-        <f>C5-$C$2</f>
+        <f t="shared" si="1"/>
         <v>3.2314814814814793E-4</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>143</v>
       </c>
       <c r="D5" s="18">
-        <f>C5+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.8736111111111111E-3</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -11725,14 +11725,14 @@
         <v>18</v>
       </c>
       <c r="B6" s="17">
-        <f>C6-$C$2</f>
+        <f t="shared" si="1"/>
         <v>3.2627314814814802E-4</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>144</v>
       </c>
       <c r="D6" s="18">
-        <f>C6+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.8767361111111112E-3</v>
       </c>
       <c r="E6" s="18"/>
@@ -11745,14 +11745,14 @@
         <v>0</v>
       </c>
       <c r="B7" s="17">
-        <f>C7-$C$2</f>
+        <f t="shared" si="1"/>
         <v>3.4606481481481424E-4</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>145</v>
       </c>
       <c r="D7" s="18">
-        <f>C7+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.8965277777777774E-3</v>
       </c>
       <c r="E7" s="18"/>
@@ -11765,14 +11765,14 @@
         <v>68</v>
       </c>
       <c r="B8" s="17">
-        <f>C8-$C$2</f>
+        <f t="shared" si="1"/>
         <v>3.5034722222222195E-4</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>146</v>
       </c>
       <c r="D8" s="18">
-        <f>C8+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.9008101851851851E-3</v>
       </c>
       <c r="E8" s="18"/>
@@ -11782,14 +11782,14 @@
         <v>5</v>
       </c>
       <c r="B9" s="17">
-        <f>C9-$C$2</f>
+        <f t="shared" si="1"/>
         <v>3.6689814814814788E-4</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>147</v>
       </c>
       <c r="D9" s="18">
-        <f>C9+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.917361111111111E-3</v>
       </c>
       <c r="E9" s="18"/>
@@ -11799,14 +11799,14 @@
         <v>21</v>
       </c>
       <c r="B10" s="17">
-        <f>C10-$C$2</f>
+        <f t="shared" si="1"/>
         <v>3.7083333333333326E-4</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>148</v>
       </c>
       <c r="D10" s="18">
-        <f>C10+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.9212962962962964E-3</v>
       </c>
       <c r="E10" s="18"/>
@@ -11816,14 +11816,14 @@
         <v>7</v>
       </c>
       <c r="B11" s="17">
-        <f>C11-$C$2</f>
+        <f t="shared" si="1"/>
         <v>3.7662037037037048E-4</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>149</v>
       </c>
       <c r="D11" s="18">
-        <f>C11+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.9270833333333336E-3</v>
       </c>
       <c r="E11" s="18"/>
@@ -11833,14 +11833,14 @@
         <v>90</v>
       </c>
       <c r="B12" s="17">
-        <f>C12-$C$2</f>
+        <f t="shared" si="1"/>
         <v>3.7951388888888887E-4</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>150</v>
       </c>
       <c r="D12" s="18">
-        <f>C12+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.929976851851852E-3</v>
       </c>
       <c r="E12" s="18"/>
@@ -11850,14 +11850,14 @@
         <v>17</v>
       </c>
       <c r="B13" s="17">
-        <f>C13-$C$2</f>
+        <f t="shared" si="1"/>
         <v>3.8564814814814798E-4</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>151</v>
       </c>
       <c r="D13" s="18">
-        <f>C13+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.9361111111111111E-3</v>
       </c>
       <c r="E13" s="18"/>
@@ -11867,14 +11867,14 @@
         <v>19</v>
       </c>
       <c r="B14" s="17">
-        <f>C14-$C$2</f>
+        <f t="shared" si="1"/>
         <v>4.0624999999999993E-4</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>152</v>
       </c>
       <c r="D14" s="18">
-        <f>C14+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.9567129629629631E-3</v>
       </c>
       <c r="E14" s="18"/>
@@ -11884,14 +11884,14 @@
         <v>12</v>
       </c>
       <c r="B15" s="17">
-        <f>C15-$C$2</f>
+        <f t="shared" si="1"/>
         <v>4.1168981481481482E-4</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>153</v>
       </c>
       <c r="D15" s="18">
-        <f>C15+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.962152777777778E-3</v>
       </c>
       <c r="E15" s="18"/>
@@ -11901,14 +11901,14 @@
         <v>2</v>
       </c>
       <c r="B16" s="17">
-        <f>C16-$C$2</f>
+        <f t="shared" si="1"/>
         <v>4.3252314814814802E-4</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>154</v>
       </c>
       <c r="D16" s="18">
-        <f>C16+$D$1</f>
+        <f t="shared" si="0"/>
         <v>2.9829861111111112E-3</v>
       </c>
       <c r="E16" s="18"/>
@@ -11918,14 +11918,14 @@
         <v>22</v>
       </c>
       <c r="B17" s="17">
-        <f>C17-$C$2</f>
+        <f t="shared" si="1"/>
         <v>4.8321759259259281E-4</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>155</v>
       </c>
       <c r="D17" s="18">
-        <f>C17+$D$1</f>
+        <f t="shared" si="0"/>
         <v>3.033680555555556E-3</v>
       </c>
       <c r="E17" s="18"/>
@@ -11935,14 +11935,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="17">
-        <f>C18-$C$2</f>
+        <f t="shared" si="1"/>
         <v>4.9386574074074133E-4</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>156</v>
       </c>
       <c r="D18" s="18">
-        <f>C18+$D$1</f>
+        <f t="shared" si="0"/>
         <v>3.0443287037037045E-3</v>
       </c>
       <c r="E18" s="18"/>
@@ -11952,14 +11952,14 @@
         <v>140</v>
       </c>
       <c r="B19" s="17">
-        <f>C19-$C$2</f>
+        <f t="shared" si="1"/>
         <v>4.9409722222222173E-4</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>157</v>
       </c>
       <c r="D19" s="18">
-        <f>C19+$D$1</f>
+        <f t="shared" si="0"/>
         <v>3.0445601851851849E-3</v>
       </c>
       <c r="E19" s="18"/>
@@ -11969,14 +11969,14 @@
         <v>20</v>
       </c>
       <c r="B20" s="17">
-        <f>C20-$C$2</f>
+        <f t="shared" si="1"/>
         <v>5.196759259259256E-4</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>158</v>
       </c>
       <c r="D20" s="18">
-        <f>C20+$D$1</f>
+        <f t="shared" si="0"/>
         <v>3.0701388888888887E-3</v>
       </c>
       <c r="E20" s="18"/>
@@ -11986,14 +11986,14 @@
         <v>9</v>
       </c>
       <c r="B21" s="17">
-        <f>C21-$C$2</f>
+        <f t="shared" si="1"/>
         <v>5.4629629629629603E-4</v>
       </c>
       <c r="C21" s="17">
         <v>3.0964120370370368E-3</v>
       </c>
       <c r="D21" s="18">
-        <f>C21+$D$1</f>
+        <f t="shared" si="0"/>
         <v>3.0967592592592592E-3</v>
       </c>
       <c r="E21" s="18"/>
@@ -12003,14 +12003,14 @@
         <v>15</v>
       </c>
       <c r="B22" s="17">
-        <f>C22-$C$2</f>
+        <f t="shared" si="1"/>
         <v>5.4861111111111126E-4</v>
       </c>
       <c r="C22" s="17">
         <v>3.0987268518518521E-3</v>
       </c>
       <c r="D22" s="18">
-        <f>C22+$D$1</f>
+        <f t="shared" si="0"/>
         <v>3.0990740740740744E-3</v>
       </c>
       <c r="E22" s="18"/>
@@ -12020,14 +12020,14 @@
         <v>11</v>
       </c>
       <c r="B23" s="17">
-        <f>C23-$C$2</f>
+        <f t="shared" si="1"/>
         <v>5.6527777777777783E-4</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>159</v>
       </c>
       <c r="D23" s="18">
-        <f>C23+$D$1</f>
+        <f t="shared" si="0"/>
         <v>3.115740740740741E-3</v>
       </c>
       <c r="E23" s="18"/>
@@ -12037,14 +12037,14 @@
         <v>226</v>
       </c>
       <c r="B24" s="17">
-        <f>C24-$C$2</f>
+        <f t="shared" si="1"/>
         <v>5.7175925925925884E-4</v>
       </c>
       <c r="C24" s="17">
         <v>3.1218749999999997E-3</v>
       </c>
       <c r="D24" s="18">
-        <f>C24+$D$1</f>
+        <f t="shared" si="0"/>
         <v>3.122222222222222E-3</v>
       </c>
       <c r="E24" s="18"/>
@@ -12054,14 +12054,14 @@
         <v>223</v>
       </c>
       <c r="B25" s="17">
-        <f>C25-$C$2</f>
+        <f t="shared" si="1"/>
         <v>6.8217592592592592E-4</v>
       </c>
       <c r="C25" s="17">
         <v>3.2322916666666667E-3</v>
       </c>
       <c r="D25" s="18">
-        <f>C25+$D$1</f>
+        <f t="shared" si="0"/>
         <v>3.2326388888888891E-3</v>
       </c>
       <c r="E25" s="18"/>
@@ -12071,14 +12071,14 @@
         <v>10</v>
       </c>
       <c r="B26" s="17">
-        <f>C26-$C$2</f>
+        <f t="shared" si="1"/>
         <v>7.8726851851851831E-4</v>
       </c>
       <c r="C26" s="17">
         <v>3.3373842592592591E-3</v>
       </c>
       <c r="D26" s="18">
-        <f>C26+$D$1</f>
+        <f t="shared" si="0"/>
         <v>3.3377314814814815E-3</v>
       </c>
       <c r="E26" s="18"/>
@@ -12088,14 +12088,14 @@
         <v>237</v>
       </c>
       <c r="B27" s="17">
-        <f>C27-$C$2</f>
+        <f t="shared" si="1"/>
         <v>2.6810185185185183E-3</v>
       </c>
       <c r="C27" s="17">
         <v>5.2311342592592592E-3</v>
       </c>
       <c r="D27" s="18">
-        <f>C27+$D$1</f>
+        <f t="shared" si="0"/>
         <v>5.2314814814814811E-3</v>
       </c>
       <c r="E27" s="18"/>
@@ -12421,10 +12421,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B2" s="18">
-        <f>SUM(C2:M2)</f>
+        <f t="shared" ref="B2:B25" si="0">SUM(C2:M2)</f>
         <v>1.3057870370370367E-3</v>
       </c>
       <c r="C2" s="26">
@@ -12478,10 +12478,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B3" s="18">
-        <f>SUM(C3:M3)</f>
+        <f t="shared" si="0"/>
         <v>1.3269675925925916E-3</v>
       </c>
       <c r="C3" s="29">
@@ -12538,7 +12538,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="18">
-        <f>SUM(C4:M4)</f>
+        <f t="shared" si="0"/>
         <v>1.4630787037037021E-3</v>
       </c>
       <c r="C4" s="17">
@@ -12595,7 +12595,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="18">
-        <f>SUM(C5:M5)</f>
+        <f t="shared" si="0"/>
         <v>1.5144675925925918E-3</v>
       </c>
       <c r="C5" s="17">
@@ -12652,7 +12652,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="18">
-        <f>SUM(C6:M6)</f>
+        <f t="shared" si="0"/>
         <v>1.515046296296296E-3</v>
       </c>
       <c r="C6" s="17">
@@ -12709,7 +12709,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="18">
-        <f>SUM(C7:M7)</f>
+        <f t="shared" si="0"/>
         <v>1.5613425925925912E-3</v>
       </c>
       <c r="C7" s="17">
@@ -12766,7 +12766,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="18">
-        <f>SUM(C8:M8)</f>
+        <f t="shared" si="0"/>
         <v>1.5895833333333328E-3</v>
       </c>
       <c r="C8" s="17">
@@ -12823,7 +12823,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="18">
-        <f>SUM(C9:M9)</f>
+        <f t="shared" si="0"/>
         <v>1.6833333333333318E-3</v>
       </c>
       <c r="C9" s="17">
@@ -12880,7 +12880,7 @@
         <v>90</v>
       </c>
       <c r="B10" s="18">
-        <f>SUM(C10:M10)</f>
+        <f t="shared" si="0"/>
         <v>1.690277777777776E-3</v>
       </c>
       <c r="C10" s="17">
@@ -12937,7 +12937,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="18">
-        <f>SUM(C11:M11)</f>
+        <f t="shared" si="0"/>
         <v>1.7307870370370357E-3</v>
       </c>
       <c r="C11" s="17">
@@ -12994,7 +12994,7 @@
         <v>68</v>
       </c>
       <c r="B12" s="18">
-        <f>SUM(C12:M12)</f>
+        <f t="shared" si="0"/>
         <v>1.7444444444444428E-3</v>
       </c>
       <c r="C12" s="17">
@@ -13051,7 +13051,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="18">
-        <f>SUM(C13:M13)</f>
+        <f t="shared" si="0"/>
         <v>1.8016203703703697E-3</v>
       </c>
       <c r="C13" s="17">
@@ -13108,7 +13108,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="18">
-        <f>SUM(C14:M14)</f>
+        <f t="shared" si="0"/>
         <v>1.9128472222222207E-3</v>
       </c>
       <c r="C14" s="17">
@@ -13165,7 +13165,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="18">
-        <f>SUM(C15:M15)</f>
+        <f t="shared" si="0"/>
         <v>2.0449074074074076E-3</v>
       </c>
       <c r="C15" s="17">
@@ -13222,7 +13222,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="18">
-        <f>SUM(C16:M16)</f>
+        <f t="shared" si="0"/>
         <v>2.1428240740740735E-3</v>
       </c>
       <c r="C16" s="17">
@@ -13279,7 +13279,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="18">
-        <f>SUM(C17:M17)</f>
+        <f t="shared" si="0"/>
         <v>2.1428240740740739E-3</v>
       </c>
       <c r="C17" s="17">
@@ -13336,7 +13336,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="18">
-        <f>SUM(C18:M18)</f>
+        <f t="shared" si="0"/>
         <v>2.1859953703703703E-3</v>
       </c>
       <c r="C18" s="17">
@@ -13392,7 +13392,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="18">
-        <f>SUM(C19:M19)</f>
+        <f t="shared" si="0"/>
         <v>2.2862268518518509E-3</v>
       </c>
       <c r="C19" s="17">
@@ -13448,7 +13448,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="18">
-        <f>SUM(C20:M20)</f>
+        <f t="shared" si="0"/>
         <v>2.3836805555555534E-3</v>
       </c>
       <c r="C20" s="17">
@@ -13506,7 +13506,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="18">
-        <f>SUM(C21:M21)</f>
+        <f t="shared" si="0"/>
         <v>2.5925925925925921E-3</v>
       </c>
       <c r="C21" s="17">
@@ -13564,7 +13564,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="18">
-        <f>SUM(C22:M22)</f>
+        <f t="shared" si="0"/>
         <v>2.7142361111111113E-3</v>
       </c>
       <c r="C22" s="17">
@@ -13622,7 +13622,7 @@
         <v>226</v>
       </c>
       <c r="B23" s="18">
-        <f>SUM(C23:M23)</f>
+        <f t="shared" si="0"/>
         <v>3.3932870370370367E-3</v>
       </c>
       <c r="C23" s="17">
@@ -13680,7 +13680,7 @@
         <v>223</v>
       </c>
       <c r="B24" s="18">
-        <f>SUM(C24:M24)</f>
+        <f t="shared" si="0"/>
         <v>4.1563657407407383E-3</v>
       </c>
       <c r="C24" s="17">
@@ -13738,7 +13738,7 @@
         <v>237</v>
       </c>
       <c r="B25" s="18">
-        <f>SUM(C25:M25)</f>
+        <f t="shared" si="0"/>
         <v>1.0929629629629629E-2</v>
       </c>
       <c r="C25" s="25">
